--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,15 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E554798-E5AB-4448-9433-09166D5CB2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3641D6-F71A-4A68-9184-B86B21F5167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29955" yWindow="2100" windowWidth="24765" windowHeight="11325" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="CermakA_0" sheetId="2" r:id="rId2"/>
-    <sheet name="CermakA_1" r:id="rId6" sheetId="3"/>
-    <sheet name="CermakA_2" r:id="rId7" sheetId="4"/>
+    <sheet name="CermakA_1" sheetId="3" r:id="rId3"/>
+    <sheet name="CermakA_2" sheetId="4" r:id="rId4"/>
+    <sheet name="CermakA_3" sheetId="5" r:id="rId5"/>
+    <sheet name="CermakA_4" sheetId="6" r:id="rId6"/>
+    <sheet name="CermakB_0" sheetId="7" r:id="rId7"/>
+    <sheet name="CermakB_1" sheetId="8" r:id="rId8"/>
+    <sheet name="CermakA_5" sheetId="9" r:id="rId9"/>
+    <sheet name="CermakA_6" sheetId="10" r:id="rId10"/>
+    <sheet name="CermakA_7" sheetId="11" r:id="rId11"/>
+    <sheet name="CermakA_8" sheetId="12" r:id="rId12"/>
+    <sheet name="CermakA_9" sheetId="13" r:id="rId13"/>
+    <sheet name="MarkhamA_0" sheetId="14" r:id="rId14"/>
+    <sheet name="ProvdientA_0" sheetId="15" r:id="rId15"/>
+    <sheet name="CermakA_10" r:id="rId19" sheetId="16"/>
+    <sheet name="CermakA_11" r:id="rId20" sheetId="17"/>
+    <sheet name="MarkhamA_1" r:id="rId21" sheetId="18"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>City</t>
   </si>
@@ -97,6 +111,66 @@
   </si>
   <si>
     <t>Chicago</t>
+  </si>
+  <si>
+    <t>This scenario has a wholesale rate this is equal to the retail rate.</t>
+  </si>
+  <si>
+    <t>ASHP_size_tonhour</t>
+  </si>
+  <si>
+    <t>ASHP_annual_electric_consumption_kwh</t>
+  </si>
+  <si>
+    <t>ASHP_annual_thermal_production_mmbtu</t>
+  </si>
+  <si>
+    <t>ASHP_annual_cooling_tonhour</t>
+  </si>
+  <si>
+    <t>Annual_Total_HeatingLoad_MMBtu</t>
+  </si>
+  <si>
+    <t>BAU_Existing_Boiler_Fuel_Consump_MMBtu</t>
+  </si>
+  <si>
+    <t>BAU_Existing_Boiler_Thermal_Prod_MMBtu</t>
+  </si>
+  <si>
+    <t>NG_Annual_Consumption_MMBtu</t>
+  </si>
+  <si>
+    <t>LifeCycle_capex_costs_for_generation_techs</t>
+  </si>
+  <si>
+    <t>LifeCycle_capex_costs_for_battery</t>
+  </si>
+  <si>
+    <t>Initial_upfront_capex_wo_incentives</t>
+  </si>
+  <si>
+    <t>Initial_upfront_capex_w_incentives</t>
+  </si>
+  <si>
+    <t>Yr1_energy_cost_after_tax</t>
+  </si>
+  <si>
+    <t>Yr1_demand_cost_after_tax</t>
+  </si>
+  <si>
+    <t>Yr1_total_energy_bill_before_tax</t>
+  </si>
+  <si>
+    <t>Yr1_export_benefit_before_tax</t>
+  </si>
+  <si>
+    <t>Annual_renewable_electricity_kwh</t>
+  </si>
+  <si>
+    <t>Annual_renewable_electricity_kwh_fraction</t>
+  </si>
+  <si>
+    <t>outage durations = 8, 16, 24 hour durations</t>
   </si>
 </sst>
 </file>
@@ -437,40 +511,3541 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA964F5-22A3-40D1-AB06-AFBEBB75862F}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6BA5A-74EC-4048-8866-CD4783046B65}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>884944</v>
+      </c>
+      <c r="D3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>1713</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2234609</v>
+      </c>
+      <c r="M3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158</v>
+      </c>
+      <c r="C4">
+        <v>1532530</v>
+      </c>
+      <c r="D4">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256</v>
+      </c>
+      <c r="J4">
+        <v>2075</v>
+      </c>
+      <c r="K4">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4">
+        <v>1892870</v>
+      </c>
+      <c r="M4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569</v>
+      </c>
+      <c r="AA4">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D01766-C67C-4811-9DA6-7E4451338287}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>884944</v>
+      </c>
+      <c r="D3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>1713</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2234609</v>
+      </c>
+      <c r="M3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158</v>
+      </c>
+      <c r="C4">
+        <v>1532530</v>
+      </c>
+      <c r="D4">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256</v>
+      </c>
+      <c r="J4">
+        <v>2075</v>
+      </c>
+      <c r="K4">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4">
+        <v>1892870</v>
+      </c>
+      <c r="M4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569</v>
+      </c>
+      <c r="AA4">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575334A3-624A-4963-8976-7AA4F247D326}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>884944</v>
+      </c>
+      <c r="D3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>1713</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2234609</v>
+      </c>
+      <c r="M3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158</v>
+      </c>
+      <c r="C4">
+        <v>1532530</v>
+      </c>
+      <c r="D4">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256</v>
+      </c>
+      <c r="J4">
+        <v>2075</v>
+      </c>
+      <c r="K4">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4">
+        <v>1892870</v>
+      </c>
+      <c r="M4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569</v>
+      </c>
+      <c r="AA4">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172447A0-90B8-43F5-A1F1-97262D10F867}">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33093</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2789.58</v>
+      </c>
+      <c r="I2" s="3">
+        <v>204</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1532</v>
+      </c>
+      <c r="K2" s="3">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3015398</v>
+      </c>
+      <c r="M2" s="3">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2" s="3">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>983597.42</v>
+      </c>
+      <c r="V2" s="1">
+        <v>462308.36</v>
+      </c>
+      <c r="W2" s="1">
+        <v>338026.17</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>669</v>
+      </c>
+      <c r="C3" s="3">
+        <v>884944</v>
+      </c>
+      <c r="D3" s="3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3" s="3">
+        <v>181</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1713</v>
+      </c>
+      <c r="K3" s="3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2234609</v>
+      </c>
+      <c r="M3" s="3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3" s="3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3" s="3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3" s="1">
+        <v>250499.72</v>
+      </c>
+      <c r="X3" s="1">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2678</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1158</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1532530</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>205444.057</v>
+      </c>
+      <c r="I4" s="3">
+        <v>256</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2075</v>
+      </c>
+      <c r="K4" s="3">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1892870</v>
+      </c>
+      <c r="M4" s="3">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4" s="3">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4" s="3">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4" s="1">
+        <v>212190.73</v>
+      </c>
+      <c r="X4" s="1">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>32569</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.47</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D2D9F-430C-4FCC-9780-43AED13C7C52}">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1036</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1371495</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1310901</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>125642.65299999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>377</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1854</v>
+      </c>
+      <c r="K2" s="3">
+        <v>285660.78200000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3280567</v>
+      </c>
+      <c r="M2" s="3">
+        <v>960.19119999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <v>960.19119999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>24004.78</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>497669.94</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>2369556.48</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1036462.67</v>
+      </c>
+      <c r="W2" s="3">
+        <v>382186</v>
+      </c>
+      <c r="X2" s="3">
+        <v>92100.38</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>493469.38</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1298155.6000000001</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-672770.65</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6233671.2000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1357</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1796899</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1717510</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>2957</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>238770.416</v>
+      </c>
+      <c r="I3" s="3">
+        <v>403</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2074</v>
+      </c>
+      <c r="K3" s="3">
+        <v>411767.91899999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2891081</v>
+      </c>
+      <c r="M3" s="3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>21337.59</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1043351.3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>3790293.6</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1641566.93</v>
+      </c>
+      <c r="W3" s="3">
+        <v>336810.95</v>
+      </c>
+      <c r="X3" s="3">
+        <v>85034.2</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>441028.15</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>166</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1693289.22</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-819362.37</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>6420739.9800000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1443</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1910119</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1825728</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10426</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>441540.07899999997</v>
+      </c>
+      <c r="I4" s="3">
+        <v>402</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3039</v>
+      </c>
+      <c r="K4" s="3">
+        <v>793468.10400000005</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2833117</v>
+      </c>
+      <c r="M4" s="3">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>18670.39</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1188583.6200000001</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>4573690.6399999997</v>
+      </c>
+      <c r="V4" s="3">
+        <v>2020809.06</v>
+      </c>
+      <c r="W4" s="3">
+        <v>330058.19</v>
+      </c>
+      <c r="X4" s="3">
+        <v>116801.73</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>466042.92</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>584</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1780938.75</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.39</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1532406.24</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7152790.2599999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6EA555-5A3D-4477-ADDD-9438F79720CD}">
+  <dimension ref="A1:AD7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>808</v>
+      </c>
+      <c r="J2" s="3">
+        <v>6611</v>
+      </c>
+      <c r="K2" s="3">
+        <v>122051.651</v>
+      </c>
+      <c r="L2" s="3">
+        <v>11383397</v>
+      </c>
+      <c r="M2" s="3">
+        <v>3660.2363999999998</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3660.2363999999998</v>
+      </c>
+      <c r="O2" s="3">
+        <v>3641.0904</v>
+      </c>
+      <c r="P2" s="3">
+        <v>91505.91</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>91027.26</v>
+      </c>
+      <c r="R2" s="5">
+        <v>-0.01</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>3743285.08</v>
+      </c>
+      <c r="V2" s="1">
+        <v>1794788.42</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1326165.78</v>
+      </c>
+      <c r="X2" s="1">
+        <v>194430.09</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1539778.87</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-2340413.2799999998</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>17442687.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>337</v>
+      </c>
+      <c r="C3" s="3">
+        <v>445833</v>
+      </c>
+      <c r="D3" s="3">
+        <v>426136</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>47555.788</v>
+      </c>
+      <c r="I3" s="3">
+        <v>795</v>
+      </c>
+      <c r="J3" s="3">
+        <v>12633</v>
+      </c>
+      <c r="K3" s="3">
+        <v>167697.89300000001</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10960508</v>
+      </c>
+      <c r="M3" s="3">
+        <v>3555.0540000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>3555.0540000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>3641.0904</v>
+      </c>
+      <c r="P3" s="3">
+        <v>88876.35</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>91027.26</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="S3" s="1">
+        <v>571886.56000000006</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>7830703.3300000001</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3825324.35</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1276899.24</v>
+      </c>
+      <c r="X3" s="1">
+        <v>182310.51</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1478392.75</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>421311.79</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-4389199.67</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>19579566.420000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>337</v>
+      </c>
+      <c r="C4" s="3">
+        <v>445833</v>
+      </c>
+      <c r="D4" s="3">
+        <v>426136</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>57349.862000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <v>813</v>
+      </c>
+      <c r="J4" s="3">
+        <v>18927</v>
+      </c>
+      <c r="K4" s="3">
+        <v>220380.50400000002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10964464</v>
+      </c>
+      <c r="M4" s="3">
+        <v>3553.5628000000002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>3553.5628000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>3641.0904</v>
+      </c>
+      <c r="P4" s="3">
+        <v>88839.07</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>91027.26</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="1">
+        <v>571886.56000000006</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>10710456.77</v>
+      </c>
+      <c r="V4" s="1">
+        <v>5357074.07</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1277360.07</v>
+      </c>
+      <c r="X4" s="1">
+        <v>179370.75</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1475913.82</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>420318.28</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.04</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-6484671.6699999999</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>21759024.399999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25.0</v>
+      </c>
+      <c r="C2">
+        <v>33093.0</v>
+      </c>
+      <c r="D2">
+        <v>31631.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204.0</v>
+      </c>
+      <c r="J2">
+        <v>1532.0</v>
+      </c>
+      <c r="K2">
+        <v>40750.753</v>
+      </c>
+      <c r="L2">
+        <v>3.015398e6</v>
+      </c>
+      <c r="M2">
+        <v>974.7676</v>
+      </c>
+      <c r="N2">
+        <v>974.7676</v>
+      </c>
+      <c r="O2">
+        <v>974.7684</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>-0.0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.07</v>
+      </c>
+      <c r="AD2">
+        <v>6.52940404e6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669.0</v>
+      </c>
+      <c r="C3">
+        <v>884944.0</v>
+      </c>
+      <c r="D3">
+        <v>845846.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>23913.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755</v>
+      </c>
+      <c r="I3">
+        <v>181.0</v>
+      </c>
+      <c r="J3">
+        <v>1713.0</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2.234609e6</v>
+      </c>
+      <c r="M3">
+        <v>787.0876</v>
+      </c>
+      <c r="N3">
+        <v>787.0876</v>
+      </c>
+      <c r="O3">
+        <v>974.7684</v>
+      </c>
+      <c r="P3">
+        <v>19677.19</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1.13515002e6</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>3.64214832e6</v>
+      </c>
+      <c r="V3">
+        <v>1.59346156e6</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678.0</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6.87734778e6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158.0</v>
+      </c>
+      <c r="C4">
+        <v>1.53253e6</v>
+      </c>
+      <c r="D4">
+        <v>1.464821e6</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>290830.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256.0</v>
+      </c>
+      <c r="J4">
+        <v>2075.0</v>
+      </c>
+      <c r="K4">
+        <v>217953.836</v>
+      </c>
+      <c r="L4">
+        <v>1.89287e6</v>
+      </c>
+      <c r="M4">
+        <v>646.7484</v>
+      </c>
+      <c r="N4">
+        <v>646.7484</v>
+      </c>
+      <c r="O4">
+        <v>974.7684</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1.96583315e6</v>
+      </c>
+      <c r="T4">
+        <v>0.0</v>
+      </c>
+      <c r="U4">
+        <v>5.85007336e6</v>
+      </c>
+      <c r="V4">
+        <v>2.52988698e6</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569.0</v>
+      </c>
+      <c r="AA4">
+        <v>1.44398169e6</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1.24482975e6</v>
+      </c>
+      <c r="AD4">
+        <v>7.27069313e6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25.0</v>
+      </c>
+      <c r="C2">
+        <v>33093.0</v>
+      </c>
+      <c r="D2">
+        <v>31631.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204.0</v>
+      </c>
+      <c r="J2">
+        <v>1532.0</v>
+      </c>
+      <c r="K2">
+        <v>40750.753</v>
+      </c>
+      <c r="L2">
+        <v>3.015398e6</v>
+      </c>
+      <c r="M2">
+        <v>974.7676</v>
+      </c>
+      <c r="N2">
+        <v>974.7676</v>
+      </c>
+      <c r="O2">
+        <v>974.7684</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0.0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>-0.0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.07</v>
+      </c>
+      <c r="AD2">
+        <v>6.52940404e6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669.0</v>
+      </c>
+      <c r="C3">
+        <v>884944.0</v>
+      </c>
+      <c r="D3">
+        <v>845846.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>23913.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755</v>
+      </c>
+      <c r="I3">
+        <v>181.0</v>
+      </c>
+      <c r="J3">
+        <v>1713.0</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2.234609e6</v>
+      </c>
+      <c r="M3">
+        <v>787.0876</v>
+      </c>
+      <c r="N3">
+        <v>787.0876</v>
+      </c>
+      <c r="O3">
+        <v>974.7684</v>
+      </c>
+      <c r="P3">
+        <v>19677.19</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1.13515002e6</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>3.64214832e6</v>
+      </c>
+      <c r="V3">
+        <v>1.59346156e6</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678.0</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6.87734778e6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158.0</v>
+      </c>
+      <c r="C4">
+        <v>1.53253e6</v>
+      </c>
+      <c r="D4">
+        <v>1.464821e6</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>290830.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256.0</v>
+      </c>
+      <c r="J4">
+        <v>2075.0</v>
+      </c>
+      <c r="K4">
+        <v>217953.836</v>
+      </c>
+      <c r="L4">
+        <v>1.89287e6</v>
+      </c>
+      <c r="M4">
+        <v>646.7484</v>
+      </c>
+      <c r="N4">
+        <v>646.7484</v>
+      </c>
+      <c r="O4">
+        <v>974.7684</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1.96583315e6</v>
+      </c>
+      <c r="T4">
+        <v>0.0</v>
+      </c>
+      <c r="U4">
+        <v>5.85007336e6</v>
+      </c>
+      <c r="V4">
+        <v>2.52988698e6</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569.0</v>
+      </c>
+      <c r="AA4">
+        <v>1.44398169e6</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1.24482975e6</v>
+      </c>
+      <c r="AD4">
+        <v>7.27069313e6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1036.0</v>
+      </c>
+      <c r="C2">
+        <v>1.371495e6</v>
+      </c>
+      <c r="D2">
+        <v>1.310901e6</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>126652.283</v>
+      </c>
+      <c r="I2">
+        <v>377.0</v>
+      </c>
+      <c r="J2">
+        <v>1854.0</v>
+      </c>
+      <c r="K2">
+        <v>285660.782</v>
+      </c>
+      <c r="L2">
+        <v>3.280567e6</v>
+      </c>
+      <c r="M2">
+        <v>960.1912</v>
+      </c>
+      <c r="N2">
+        <v>960.1912</v>
+      </c>
+      <c r="O2">
+        <v>1066.8792</v>
+      </c>
+      <c r="P2">
+        <v>24004.78</v>
+      </c>
+      <c r="Q2">
+        <v>26671.98</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>497669.94</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>2.36955648e6</v>
+      </c>
+      <c r="V2">
+        <v>1.03646267e6</v>
+      </c>
+      <c r="W2">
+        <v>382186.0</v>
+      </c>
+      <c r="X2">
+        <v>92100.38</v>
+      </c>
+      <c r="Y2">
+        <v>493469.38</v>
+      </c>
+      <c r="Z2">
+        <v>-0.0</v>
+      </c>
+      <c r="AA2">
+        <v>1.29805318e6</v>
+      </c>
+      <c r="AB2">
+        <v>0.28</v>
+      </c>
+      <c r="AC2">
+        <v>-672770.65</v>
+      </c>
+      <c r="AD2">
+        <v>6.2336712e6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1357.0</v>
+      </c>
+      <c r="C3">
+        <v>1.796899e6</v>
+      </c>
+      <c r="D3">
+        <v>1.71751e6</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>2957.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>239700.482</v>
+      </c>
+      <c r="I3">
+        <v>403.0</v>
+      </c>
+      <c r="J3">
+        <v>2074.0</v>
+      </c>
+      <c r="K3">
+        <v>411767.919</v>
+      </c>
+      <c r="L3">
+        <v>2.891081e6</v>
+      </c>
+      <c r="M3">
+        <v>853.5036</v>
+      </c>
+      <c r="N3">
+        <v>853.5036</v>
+      </c>
+      <c r="O3">
+        <v>1066.8792</v>
+      </c>
+      <c r="P3">
+        <v>21337.59</v>
+      </c>
+      <c r="Q3">
+        <v>26671.98</v>
+      </c>
+      <c r="R3">
+        <v>0.2</v>
+      </c>
+      <c r="S3">
+        <v>1.0433513e6</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>3.7902936e6</v>
+      </c>
+      <c r="V3">
+        <v>1.64156693e6</v>
+      </c>
+      <c r="W3">
+        <v>336810.95</v>
+      </c>
+      <c r="X3">
+        <v>85034.2</v>
+      </c>
+      <c r="Y3">
+        <v>441028.15</v>
+      </c>
+      <c r="Z3">
+        <v>166.0</v>
+      </c>
+      <c r="AA3">
+        <v>1.69319487e6</v>
+      </c>
+      <c r="AB3">
+        <v>0.37</v>
+      </c>
+      <c r="AC3">
+        <v>-819362.37</v>
+      </c>
+      <c r="AD3">
+        <v>6.42073998e6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1804.0</v>
+      </c>
+      <c r="C4">
+        <v>2.38787e6</v>
+      </c>
+      <c r="D4">
+        <v>2.282372e6</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>96018.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>254125.166</v>
+      </c>
+      <c r="I4">
+        <v>398.0</v>
+      </c>
+      <c r="J4">
+        <v>2246.0</v>
+      </c>
+      <c r="K4">
+        <v>348767.327</v>
+      </c>
+      <c r="L4">
+        <v>2.412114e6</v>
+      </c>
+      <c r="M4">
+        <v>746.8156</v>
+      </c>
+      <c r="N4">
+        <v>746.8156</v>
+      </c>
+      <c r="O4">
+        <v>1066.8792</v>
+      </c>
+      <c r="P4">
+        <v>18670.39</v>
+      </c>
+      <c r="Q4">
+        <v>26671.98</v>
+      </c>
+      <c r="R4">
+        <v>0.3</v>
+      </c>
+      <c r="S4">
+        <v>1.80141196e6</v>
+      </c>
+      <c r="T4">
+        <v>0.0</v>
+      </c>
+      <c r="U4">
+        <v>5.66566384e6</v>
+      </c>
+      <c r="V4">
+        <v>2.44019212e6</v>
+      </c>
+      <c r="W4">
+        <v>281011.25</v>
+      </c>
+      <c r="X4">
+        <v>79378.81</v>
+      </c>
+      <c r="Y4">
+        <v>379573.06</v>
+      </c>
+      <c r="Z4">
+        <v>5377.0</v>
+      </c>
+      <c r="AA4">
+        <v>2.25659333e6</v>
+      </c>
+      <c r="AB4">
+        <v>0.49</v>
+      </c>
+      <c r="AC4">
+        <v>-1.0557039e6</v>
+      </c>
+      <c r="AD4">
+        <v>6.67608792e6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C12C3-296F-49A4-8576-75873C4795CB}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
+    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -538,7 +4113,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -606,7 +4181,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -674,7 +4249,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -742,7 +4317,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -810,7 +4385,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -878,7 +4453,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -946,7 +4521,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +4589,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1082,7 +4657,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1150,7 +4725,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1224,14 +4799,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC76175F-69C9-46F5-B83D-04A685BBE32D}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1299,51 +4874,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>388.0</v>
+        <v>388</v>
       </c>
       <c r="C2">
-        <v>513041.0</v>
+        <v>513041</v>
       </c>
       <c r="D2">
-        <v>490374.0</v>
+        <v>490374</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1714.0</v>
+        <v>1714</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2077.939</v>
+        <v>2077.9389999999999</v>
       </c>
       <c r="I2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="J2">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="K2">
-        <v>3687.428</v>
+        <v>3687.4279999999999</v>
       </c>
       <c r="L2">
-        <v>2.554665e6</v>
+        <v>2554665</v>
       </c>
       <c r="M2">
-        <v>877.2916</v>
+        <v>877.29160000000002</v>
       </c>
       <c r="N2">
-        <v>877.2916</v>
+        <v>877.29160000000002</v>
       </c>
       <c r="O2">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P2">
         <v>21932.29</v>
@@ -1352,10 +4927,10 @@
         <v>24369.21</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0.1</v>
@@ -1364,54 +4939,54 @@
         <v>-101132.32</v>
       </c>
       <c r="V2">
-        <v>6.0668851e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>6066885.0999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>754.0</v>
+        <v>754</v>
       </c>
       <c r="C3">
-        <v>998657.0</v>
+        <v>998657</v>
       </c>
       <c r="D3">
-        <v>954535.0</v>
+        <v>954535</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>91344.0</v>
+        <v>91344</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>29741.281</v>
+        <v>29741.280999999999</v>
       </c>
       <c r="I3">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>122.0</v>
+        <v>122</v>
       </c>
       <c r="K3">
         <v>34150.075999999994</v>
       </c>
       <c r="L3">
-        <v>2.183538e6</v>
+        <v>2183538</v>
       </c>
       <c r="M3">
-        <v>779.8148</v>
+        <v>779.81479999999999</v>
       </c>
       <c r="N3">
-        <v>779.8148</v>
+        <v>779.81479999999999</v>
       </c>
       <c r="O3">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P3">
         <v>19495.37</v>
@@ -1420,10 +4995,10 @@
         <v>24369.21</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0.2</v>
@@ -1432,54 +5007,54 @@
         <v>-336370.57</v>
       </c>
       <c r="V3">
-        <v>6.30212335e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>6302123.3499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1068.0</v>
+        <v>1068</v>
       </c>
       <c r="C4">
-        <v>1.414304e6</v>
+        <v>1414304</v>
       </c>
       <c r="D4">
-        <v>1.351819e6</v>
+        <v>1351819</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>281393.0</v>
+        <v>281393</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>122003.81000000001</v>
       </c>
       <c r="I4">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="J4">
-        <v>495.0</v>
+        <v>495</v>
       </c>
       <c r="K4">
-        <v>134090.409</v>
+        <v>134090.40900000001</v>
       </c>
       <c r="L4">
-        <v>1.987469e6</v>
+        <v>1987469</v>
       </c>
       <c r="M4">
-        <v>682.338</v>
+        <v>682.33799999999997</v>
       </c>
       <c r="N4">
-        <v>682.338</v>
+        <v>682.33799999999997</v>
       </c>
       <c r="O4">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P4">
         <v>17058.45</v>
@@ -1488,10 +5063,10 @@
         <v>24369.21</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0.3</v>
@@ -1500,54 +5075,54 @@
         <v>-764792.53</v>
       </c>
       <c r="V4">
-        <v>6.73054531e6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>6730545.3099999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1356.0</v>
+        <v>1356</v>
       </c>
       <c r="C5">
-        <v>1.795117e6</v>
+        <v>1795117</v>
       </c>
       <c r="D5">
-        <v>1.715807e6</v>
+        <v>1715807</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>449974.0</v>
+        <v>449974</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>254114.48000000004</v>
       </c>
       <c r="I5">
-        <v>142.0</v>
+        <v>142</v>
       </c>
       <c r="J5">
-        <v>1014.0</v>
+        <v>1014</v>
       </c>
       <c r="K5">
-        <v>269050.907</v>
+        <v>269050.90700000001</v>
       </c>
       <c r="L5">
-        <v>1.807133e6</v>
+        <v>1807133</v>
       </c>
       <c r="M5">
-        <v>584.8612</v>
+        <v>584.86120000000005</v>
       </c>
       <c r="N5">
-        <v>584.8612</v>
+        <v>584.86120000000005</v>
       </c>
       <c r="O5">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P5">
         <v>14621.53</v>
@@ -1556,66 +5131,66 @@
         <v>24369.21</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0.4</v>
       </c>
       <c r="U5">
-        <v>-1.2423575e6</v>
+        <v>-1242357.5</v>
       </c>
       <c r="V5">
-        <v>7.20811028e6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>7208110.2800000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>1658.0</v>
+        <v>1658</v>
       </c>
       <c r="C6">
-        <v>2.194291e6</v>
+        <v>2194291</v>
       </c>
       <c r="D6">
-        <v>2.097345e6</v>
+        <v>2097345</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>661268.0</v>
+        <v>661268</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>375649.95300000004</v>
       </c>
       <c r="I6">
-        <v>196.0</v>
+        <v>196</v>
       </c>
       <c r="J6">
-        <v>1487.0</v>
+        <v>1487</v>
       </c>
       <c r="K6">
         <v>387143.00800000003</v>
       </c>
       <c r="L6">
-        <v>1.65007e6</v>
+        <v>1650070</v>
       </c>
       <c r="M6">
-        <v>487.3844</v>
+        <v>487.38440000000003</v>
       </c>
       <c r="N6">
-        <v>487.3844</v>
+        <v>487.38440000000003</v>
       </c>
       <c r="O6">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P6">
         <v>12184.61</v>
@@ -1624,66 +5199,66 @@
         <v>24369.21</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0.5</v>
       </c>
       <c r="U6">
-        <v>-1.74189823e6</v>
+        <v>-1741898.23</v>
       </c>
       <c r="V6">
-        <v>7.70765102e6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>7707651.0199999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1960.0</v>
+        <v>1960</v>
       </c>
       <c r="C7">
-        <v>2.594171e6</v>
+        <v>2594171</v>
       </c>
       <c r="D7">
-        <v>2.479558e6</v>
+        <v>2479558</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>878667.0</v>
+        <v>878667</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>500709.77900000004</v>
       </c>
       <c r="I7">
-        <v>250.0</v>
+        <v>250</v>
       </c>
       <c r="J7">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="K7">
-        <v>504261.015</v>
+        <v>504261.01500000001</v>
       </c>
       <c r="L7">
-        <v>1.498325e6</v>
+        <v>1498325</v>
       </c>
       <c r="M7">
-        <v>389.9072</v>
+        <v>389.90719999999999</v>
       </c>
       <c r="N7">
-        <v>389.9072</v>
+        <v>389.90719999999999</v>
       </c>
       <c r="O7">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P7">
         <v>9747.68</v>
@@ -1692,66 +5267,66 @@
         <v>24369.21</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0.6</v>
       </c>
       <c r="U7">
-        <v>-2.25271714e6</v>
+        <v>-2252717.14</v>
       </c>
       <c r="V7">
-        <v>8.21846992e6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>8218469.9199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
-        <v>2274.0</v>
+        <v>2274</v>
       </c>
       <c r="C8">
-        <v>3.010262e6</v>
+        <v>3010262</v>
       </c>
       <c r="D8">
-        <v>2.877266e6</v>
+        <v>2877266</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.128002e6</v>
+        <v>1128002</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>612353.665</v>
+        <v>612353.66500000004</v>
       </c>
       <c r="I8">
-        <v>294.0</v>
+        <v>294</v>
       </c>
       <c r="J8">
-        <v>2392.0</v>
+        <v>2392</v>
       </c>
       <c r="K8">
-        <v>606327.854</v>
+        <v>606327.85400000005</v>
       </c>
       <c r="L8">
-        <v>1.361342e6</v>
+        <v>1361342</v>
       </c>
       <c r="M8">
-        <v>292.4304</v>
+        <v>292.43040000000002</v>
       </c>
       <c r="N8">
-        <v>292.4304</v>
+        <v>292.43040000000002</v>
       </c>
       <c r="O8">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P8">
         <v>7310.76</v>
@@ -1760,66 +5335,66 @@
         <v>24369.21</v>
       </c>
       <c r="R8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0.7</v>
       </c>
       <c r="U8">
-        <v>-2.77174942e6</v>
+        <v>-2771749.42</v>
       </c>
       <c r="V8">
-        <v>8.7375022e6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>8737502.1999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2581.0</v>
+        <v>2581</v>
       </c>
       <c r="C9">
-        <v>3.415949e6</v>
+        <v>3415949</v>
       </c>
       <c r="D9">
-        <v>3.265029e6</v>
+        <v>3265029</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.365079e6</v>
+        <v>1365079</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>735533.864</v>
+        <v>735533.86399999994</v>
       </c>
       <c r="I9">
-        <v>345.0</v>
+        <v>345</v>
       </c>
       <c r="J9">
-        <v>2855.0</v>
+        <v>2855</v>
       </c>
       <c r="K9">
-        <v>718942.387</v>
+        <v>718942.38699999999</v>
       </c>
       <c r="L9">
-        <v>1.223222e6</v>
+        <v>1223222</v>
       </c>
       <c r="M9">
-        <v>194.9536</v>
+        <v>194.95359999999999</v>
       </c>
       <c r="N9">
-        <v>194.9536</v>
+        <v>194.95359999999999</v>
       </c>
       <c r="O9">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P9">
         <v>4873.84</v>
@@ -1828,66 +5403,66 @@
         <v>24369.21</v>
       </c>
       <c r="R9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0.8</v>
       </c>
       <c r="U9">
-        <v>-3.2983813e6</v>
+        <v>-3298381.3</v>
       </c>
       <c r="V9">
-        <v>9.26413409e6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>9264134.0899999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="C10">
-        <v>3.838771e6</v>
+        <v>3838771</v>
       </c>
       <c r="D10">
-        <v>3.669171e6</v>
+        <v>3669171</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.63446e6</v>
+        <v>1634460</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>844780.461</v>
+        <v>844780.46100000001</v>
       </c>
       <c r="I10">
-        <v>391.0</v>
+        <v>391</v>
       </c>
       <c r="J10">
-        <v>3245.0</v>
+        <v>3245</v>
       </c>
       <c r="K10">
-        <v>816071.382</v>
+        <v>816071.38199999998</v>
       </c>
       <c r="L10">
-        <v>1.099304e6</v>
+        <v>1099304</v>
       </c>
       <c r="M10">
-        <v>97.4768</v>
+        <v>97.476799999999997</v>
       </c>
       <c r="N10">
-        <v>97.4768</v>
+        <v>97.476799999999997</v>
       </c>
       <c r="O10">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P10">
         <v>2436.92</v>
@@ -1896,87 +5471,87 @@
         <v>24369.21</v>
       </c>
       <c r="R10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0.9</v>
       </c>
       <c r="U10">
-        <v>-3.83165432e6</v>
+        <v>-3831654.32</v>
       </c>
       <c r="V10">
-        <v>9.7974071e6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>9797407.0999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="C11">
-        <v>3.838771e6</v>
+        <v>3838771</v>
       </c>
       <c r="D11">
-        <v>3.669171e6</v>
+        <v>3669171</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.192888e6</v>
+        <v>1192888</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.3526629700000002e6</v>
+        <v>1352662.9700000002</v>
       </c>
       <c r="I11">
-        <v>682.0</v>
+        <v>682</v>
       </c>
       <c r="J11">
-        <v>5425.0</v>
+        <v>5425</v>
       </c>
       <c r="K11">
-        <v>1.363812997e6</v>
+        <v>1363812.997</v>
       </c>
       <c r="L11">
-        <v>718877.0</v>
+        <v>718877</v>
       </c>
       <c r="M11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>24369.21</v>
       </c>
       <c r="R11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="U11">
-        <v>-4.52482616e6</v>
+        <v>-4524826.16</v>
       </c>
       <c r="V11">
-        <v>1.049057894e7</v>
+        <v>10490578.939999999</v>
       </c>
     </row>
   </sheetData>
@@ -1985,14 +5560,777 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FDD844-4800-40BF-AAAF-E247A3423F40}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>388</v>
+      </c>
+      <c r="C2">
+        <v>513041</v>
+      </c>
+      <c r="D2">
+        <v>490374</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1714</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2077.9389999999999</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>3687.4279999999999</v>
+      </c>
+      <c r="L2">
+        <v>2554665</v>
+      </c>
+      <c r="M2">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="N2">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>21932.29</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.1</v>
+      </c>
+      <c r="U2">
+        <v>-101132.32</v>
+      </c>
+      <c r="V2">
+        <v>6066885.0999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>754</v>
+      </c>
+      <c r="C3">
+        <v>998657</v>
+      </c>
+      <c r="D3">
+        <v>954535</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>91344</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>29741.280999999999</v>
+      </c>
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3">
+        <v>122</v>
+      </c>
+      <c r="K3">
+        <v>34150.075999999994</v>
+      </c>
+      <c r="L3">
+        <v>2183538</v>
+      </c>
+      <c r="M3">
+        <v>779.81479999999999</v>
+      </c>
+      <c r="N3">
+        <v>779.81479999999999</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19495.37</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>-336370.57</v>
+      </c>
+      <c r="V3">
+        <v>6302123.3499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1068</v>
+      </c>
+      <c r="C4">
+        <v>1414304</v>
+      </c>
+      <c r="D4">
+        <v>1351819</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>281393</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>122003.81000000001</v>
+      </c>
+      <c r="I4">
+        <v>70</v>
+      </c>
+      <c r="J4">
+        <v>495</v>
+      </c>
+      <c r="K4">
+        <v>134090.40900000001</v>
+      </c>
+      <c r="L4">
+        <v>1987469</v>
+      </c>
+      <c r="M4">
+        <v>682.33799999999997</v>
+      </c>
+      <c r="N4">
+        <v>682.33799999999997</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>17058.45</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.3</v>
+      </c>
+      <c r="U4">
+        <v>-764792.53</v>
+      </c>
+      <c r="V4">
+        <v>6730545.3099999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>1356</v>
+      </c>
+      <c r="C5">
+        <v>1795117</v>
+      </c>
+      <c r="D5">
+        <v>1715807</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>449974</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>254114.48000000004</v>
+      </c>
+      <c r="I5">
+        <v>142</v>
+      </c>
+      <c r="J5">
+        <v>1014</v>
+      </c>
+      <c r="K5">
+        <v>269050.90700000001</v>
+      </c>
+      <c r="L5">
+        <v>1807133</v>
+      </c>
+      <c r="M5">
+        <v>584.86120000000005</v>
+      </c>
+      <c r="N5">
+        <v>584.86120000000005</v>
+      </c>
+      <c r="O5">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P5">
+        <v>14621.53</v>
+      </c>
+      <c r="Q5">
+        <v>24369.21</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.4</v>
+      </c>
+      <c r="U5">
+        <v>-1242357.5</v>
+      </c>
+      <c r="V5">
+        <v>7208110.2800000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>1658</v>
+      </c>
+      <c r="C6">
+        <v>2194291</v>
+      </c>
+      <c r="D6">
+        <v>2097345</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>661268</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>375649.95300000004</v>
+      </c>
+      <c r="I6">
+        <v>196</v>
+      </c>
+      <c r="J6">
+        <v>1487</v>
+      </c>
+      <c r="K6">
+        <v>387143.00800000003</v>
+      </c>
+      <c r="L6">
+        <v>1650070</v>
+      </c>
+      <c r="M6">
+        <v>487.38440000000003</v>
+      </c>
+      <c r="N6">
+        <v>487.38440000000003</v>
+      </c>
+      <c r="O6">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P6">
+        <v>12184.61</v>
+      </c>
+      <c r="Q6">
+        <v>24369.21</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.5</v>
+      </c>
+      <c r="U6">
+        <v>-1741898.23</v>
+      </c>
+      <c r="V6">
+        <v>7707651.0199999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>1960</v>
+      </c>
+      <c r="C7">
+        <v>2594171</v>
+      </c>
+      <c r="D7">
+        <v>2479558</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>878667</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>500709.77900000004</v>
+      </c>
+      <c r="I7">
+        <v>250</v>
+      </c>
+      <c r="J7">
+        <v>1970</v>
+      </c>
+      <c r="K7">
+        <v>504261.01500000001</v>
+      </c>
+      <c r="L7">
+        <v>1498325</v>
+      </c>
+      <c r="M7">
+        <v>389.90719999999999</v>
+      </c>
+      <c r="N7">
+        <v>389.90719999999999</v>
+      </c>
+      <c r="O7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P7">
+        <v>9747.68</v>
+      </c>
+      <c r="Q7">
+        <v>24369.21</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>-2252717.14</v>
+      </c>
+      <c r="V7">
+        <v>8218469.9199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2274</v>
+      </c>
+      <c r="C8">
+        <v>3010262</v>
+      </c>
+      <c r="D8">
+        <v>2877266</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1128002</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>612353.66500000004</v>
+      </c>
+      <c r="I8">
+        <v>294</v>
+      </c>
+      <c r="J8">
+        <v>2392</v>
+      </c>
+      <c r="K8">
+        <v>606327.85400000005</v>
+      </c>
+      <c r="L8">
+        <v>1361342</v>
+      </c>
+      <c r="M8">
+        <v>292.43040000000002</v>
+      </c>
+      <c r="N8">
+        <v>292.43040000000002</v>
+      </c>
+      <c r="O8">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P8">
+        <v>7310.76</v>
+      </c>
+      <c r="Q8">
+        <v>24369.21</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.7</v>
+      </c>
+      <c r="U8">
+        <v>-2771749.42</v>
+      </c>
+      <c r="V8">
+        <v>8737502.1999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2581</v>
+      </c>
+      <c r="C9">
+        <v>3415949</v>
+      </c>
+      <c r="D9">
+        <v>3265029</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1365079</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>735533.86399999994</v>
+      </c>
+      <c r="I9">
+        <v>345</v>
+      </c>
+      <c r="J9">
+        <v>2855</v>
+      </c>
+      <c r="K9">
+        <v>718942.38699999999</v>
+      </c>
+      <c r="L9">
+        <v>1223222</v>
+      </c>
+      <c r="M9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="N9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="O9">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P9">
+        <v>4873.84</v>
+      </c>
+      <c r="Q9">
+        <v>24369.21</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.8</v>
+      </c>
+      <c r="U9">
+        <v>-3298381.3</v>
+      </c>
+      <c r="V9">
+        <v>9264134.0899999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2900</v>
+      </c>
+      <c r="C10">
+        <v>3838771</v>
+      </c>
+      <c r="D10">
+        <v>3669171</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1634460</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>844780.46100000001</v>
+      </c>
+      <c r="I10">
+        <v>391</v>
+      </c>
+      <c r="J10">
+        <v>3245</v>
+      </c>
+      <c r="K10">
+        <v>816071.38199999998</v>
+      </c>
+      <c r="L10">
+        <v>1099304</v>
+      </c>
+      <c r="M10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="N10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="O10">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P10">
+        <v>2436.92</v>
+      </c>
+      <c r="Q10">
+        <v>24369.21</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.9</v>
+      </c>
+      <c r="U10">
+        <v>-3831654.32</v>
+      </c>
+      <c r="V10">
+        <v>9797407.0999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2900</v>
+      </c>
+      <c r="C11">
+        <v>3838771</v>
+      </c>
+      <c r="D11">
+        <v>3669171</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1192888</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1352662.9700000002</v>
+      </c>
+      <c r="I11">
+        <v>682</v>
+      </c>
+      <c r="J11">
+        <v>5425</v>
+      </c>
+      <c r="K11">
+        <v>1363812.997</v>
+      </c>
+      <c r="L11">
+        <v>718877</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24369.21</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>-4524826.16</v>
+      </c>
+      <c r="V11">
+        <v>10490578.939999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED67EC8-8823-49AF-880B-F2A80A23ED5F}">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:22" dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2060,51 +6398,2726 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>388.0</v>
+        <v>2845</v>
       </c>
       <c r="C2">
-        <v>513041.0</v>
+        <v>3766166</v>
       </c>
       <c r="D2">
-        <v>490374.0</v>
+        <v>3599773</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1714.0</v>
+        <v>2349945</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2077.939</v>
+        <v>6270.5930000000008</v>
       </c>
       <c r="I2">
-        <v>10.0</v>
+        <v>14</v>
       </c>
       <c r="J2">
-        <v>13.0</v>
+        <v>18</v>
       </c>
       <c r="K2">
-        <v>3687.428</v>
+        <v>5644.4420000000009</v>
       </c>
       <c r="L2">
-        <v>2.554665e6</v>
+        <v>1793717</v>
       </c>
       <c r="M2">
-        <v>877.2916</v>
+        <v>264.46600000000001</v>
       </c>
       <c r="N2">
-        <v>877.2916</v>
+        <v>264.46600000000001</v>
       </c>
       <c r="O2">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>6611.65</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0.73</v>
+      </c>
+      <c r="U2">
+        <v>1553992.05</v>
+      </c>
+      <c r="V2">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2845</v>
+      </c>
+      <c r="C3">
+        <v>3766166</v>
+      </c>
+      <c r="D3">
+        <v>3599773</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2349945</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L3">
+        <v>1793717</v>
+      </c>
+      <c r="M3">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N3">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>6611.65</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0.73</v>
+      </c>
+      <c r="U3">
+        <v>1553992.05</v>
+      </c>
+      <c r="V3">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2845</v>
+      </c>
+      <c r="C4">
+        <v>3766166</v>
+      </c>
+      <c r="D4">
+        <v>3599773</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2349945</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L4">
+        <v>1793717</v>
+      </c>
+      <c r="M4">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N4">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>6611.65</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.73</v>
+      </c>
+      <c r="U4">
+        <v>1553992.05</v>
+      </c>
+      <c r="V4">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2845</v>
+      </c>
+      <c r="C5">
+        <v>3766166</v>
+      </c>
+      <c r="D5">
+        <v>3599773</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2349945</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L5">
+        <v>1793717</v>
+      </c>
+      <c r="M5">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N5">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O5">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P5">
+        <v>6611.65</v>
+      </c>
+      <c r="Q5">
+        <v>24369.21</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0.73</v>
+      </c>
+      <c r="U5">
+        <v>1553992.05</v>
+      </c>
+      <c r="V5">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2845</v>
+      </c>
+      <c r="C6">
+        <v>3766166</v>
+      </c>
+      <c r="D6">
+        <v>3599773</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2349945</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L6">
+        <v>1793717</v>
+      </c>
+      <c r="M6">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N6">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O6">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P6">
+        <v>6611.65</v>
+      </c>
+      <c r="Q6">
+        <v>24369.21</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0.73</v>
+      </c>
+      <c r="U6">
+        <v>1553992.05</v>
+      </c>
+      <c r="V6">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2845</v>
+      </c>
+      <c r="C7">
+        <v>3766166</v>
+      </c>
+      <c r="D7">
+        <v>3599773</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2349945</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L7">
+        <v>1793717</v>
+      </c>
+      <c r="M7">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N7">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P7">
+        <v>6611.65</v>
+      </c>
+      <c r="Q7">
+        <v>24369.21</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.73</v>
+      </c>
+      <c r="U7">
+        <v>1553992.05</v>
+      </c>
+      <c r="V7">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2845</v>
+      </c>
+      <c r="C8">
+        <v>3766166</v>
+      </c>
+      <c r="D8">
+        <v>3599773</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2349945</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L8">
+        <v>1793717</v>
+      </c>
+      <c r="M8">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N8">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O8">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P8">
+        <v>6611.65</v>
+      </c>
+      <c r="Q8">
+        <v>24369.21</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0.73</v>
+      </c>
+      <c r="U8">
+        <v>1553992.05</v>
+      </c>
+      <c r="V8">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2900</v>
+      </c>
+      <c r="C9">
+        <v>3838771</v>
+      </c>
+      <c r="D9">
+        <v>3669171</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2349945</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>258798.26899999997</v>
+      </c>
+      <c r="I9">
+        <v>132</v>
+      </c>
+      <c r="J9">
+        <v>1077</v>
+      </c>
+      <c r="K9">
+        <v>292487.22100000002</v>
+      </c>
+      <c r="L9">
+        <v>1756367</v>
+      </c>
+      <c r="M9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="N9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="O9">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P9">
+        <v>4873.84</v>
+      </c>
+      <c r="Q9">
+        <v>24369.21</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.8</v>
+      </c>
+      <c r="U9">
+        <v>1211270.8</v>
+      </c>
+      <c r="V9">
+        <v>4754481.9800000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2900</v>
+      </c>
+      <c r="C10">
+        <v>3838771</v>
+      </c>
+      <c r="D10">
+        <v>3669171</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2110935</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>648968.44600000011</v>
+      </c>
+      <c r="I10">
+        <v>385</v>
+      </c>
+      <c r="J10">
+        <v>3075</v>
+      </c>
+      <c r="K10">
+        <v>799303.85</v>
+      </c>
+      <c r="L10">
+        <v>1573940</v>
+      </c>
+      <c r="M10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="N10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="O10">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P10">
+        <v>2436.92</v>
+      </c>
+      <c r="Q10">
+        <v>24369.21</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.9</v>
+      </c>
+      <c r="U10">
+        <v>379794.25</v>
+      </c>
+      <c r="V10">
+        <v>5585958.5300000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2900</v>
+      </c>
+      <c r="C11">
+        <v>3838771</v>
+      </c>
+      <c r="D11">
+        <v>3669171</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1797039</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1048909.6779999998</v>
+      </c>
+      <c r="I11">
+        <v>654</v>
+      </c>
+      <c r="J11">
+        <v>5119</v>
+      </c>
+      <c r="K11">
+        <v>1349716.3050000002</v>
+      </c>
+      <c r="L11">
+        <v>1321534</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24369.21</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>-662933.18999999994</v>
+      </c>
+      <c r="V11">
+        <v>6628685.9699999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59858E5-D030-4DB8-8C14-7FED6ABC01D8}">
+  <dimension ref="A1:V13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2845</v>
+      </c>
+      <c r="C2">
+        <v>3766166</v>
+      </c>
+      <c r="D2">
+        <v>3599773</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2349945</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I2">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L2">
+        <v>1793717</v>
+      </c>
+      <c r="M2">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N2">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>6611.65</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V2">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2845</v>
+      </c>
+      <c r="C3">
+        <v>3766166</v>
+      </c>
+      <c r="D3">
+        <v>3599773</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2349945</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+      <c r="J3">
+        <v>18</v>
+      </c>
+      <c r="K3">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L3">
+        <v>1793717</v>
+      </c>
+      <c r="M3">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N3">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>6611.65</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U3" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V3">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2845</v>
+      </c>
+      <c r="C4">
+        <v>3766166</v>
+      </c>
+      <c r="D4">
+        <v>3599773</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2349945</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I4">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+      <c r="K4">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L4">
+        <v>1793717</v>
+      </c>
+      <c r="M4">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N4">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>6611.65</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V4">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2845</v>
+      </c>
+      <c r="C5">
+        <v>3766166</v>
+      </c>
+      <c r="D5">
+        <v>3599773</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2349945</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>18</v>
+      </c>
+      <c r="K5">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L5">
+        <v>1793717</v>
+      </c>
+      <c r="M5">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N5">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O5">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P5">
+        <v>6611.65</v>
+      </c>
+      <c r="Q5">
+        <v>24369.21</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V5">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>2845</v>
+      </c>
+      <c r="C6">
+        <v>3766166</v>
+      </c>
+      <c r="D6">
+        <v>3599773</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>2349945</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L6">
+        <v>1793717</v>
+      </c>
+      <c r="M6">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N6">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O6">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P6">
+        <v>6611.65</v>
+      </c>
+      <c r="Q6">
+        <v>24369.21</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V6">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>2845</v>
+      </c>
+      <c r="C7">
+        <v>3766166</v>
+      </c>
+      <c r="D7">
+        <v>3599773</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2349945</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>18</v>
+      </c>
+      <c r="K7">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L7">
+        <v>1793717</v>
+      </c>
+      <c r="M7">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N7">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P7">
+        <v>6611.65</v>
+      </c>
+      <c r="Q7">
+        <v>24369.21</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U7" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V7">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>2845</v>
+      </c>
+      <c r="C8">
+        <v>3766166</v>
+      </c>
+      <c r="D8">
+        <v>3599773</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>2349945</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>6270.5930000000008</v>
+      </c>
+      <c r="I8">
+        <v>14</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>5644.4420000000009</v>
+      </c>
+      <c r="L8">
+        <v>1793717</v>
+      </c>
+      <c r="M8">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="N8">
+        <v>264.46600000000001</v>
+      </c>
+      <c r="O8">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P8">
+        <v>6611.65</v>
+      </c>
+      <c r="Q8">
+        <v>24369.21</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1553992.05</v>
+      </c>
+      <c r="V8">
+        <v>4411760.7300000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>2900</v>
+      </c>
+      <c r="C9">
+        <v>3838771</v>
+      </c>
+      <c r="D9">
+        <v>3669171</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>2349945</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>258798.26899999997</v>
+      </c>
+      <c r="I9">
+        <v>132</v>
+      </c>
+      <c r="J9">
+        <v>1077</v>
+      </c>
+      <c r="K9">
+        <v>292487.22100000002</v>
+      </c>
+      <c r="L9">
+        <v>1756367</v>
+      </c>
+      <c r="M9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="N9">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="O9">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P9">
+        <v>4873.84</v>
+      </c>
+      <c r="Q9">
+        <v>24369.21</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U9" s="1">
+        <v>1211270.8</v>
+      </c>
+      <c r="V9">
+        <v>4754481.9800000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>2900</v>
+      </c>
+      <c r="C10">
+        <v>3838771</v>
+      </c>
+      <c r="D10">
+        <v>3669171</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2110935</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>648968.44600000011</v>
+      </c>
+      <c r="I10">
+        <v>385</v>
+      </c>
+      <c r="J10">
+        <v>3075</v>
+      </c>
+      <c r="K10">
+        <v>799303.85</v>
+      </c>
+      <c r="L10">
+        <v>1573940</v>
+      </c>
+      <c r="M10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="N10">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="O10">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P10">
+        <v>2436.92</v>
+      </c>
+      <c r="Q10">
+        <v>24369.21</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U10" s="1">
+        <v>379794.25</v>
+      </c>
+      <c r="V10">
+        <v>5585958.5300000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2900</v>
+      </c>
+      <c r="C11">
+        <v>3838771</v>
+      </c>
+      <c r="D11">
+        <v>3669171</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1797039</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1048909.6779999998</v>
+      </c>
+      <c r="I11">
+        <v>654</v>
+      </c>
+      <c r="J11">
+        <v>5119</v>
+      </c>
+      <c r="K11">
+        <v>1349716.3050000002</v>
+      </c>
+      <c r="L11">
+        <v>1321534</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>24369.21</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-662933.18999999994</v>
+      </c>
+      <c r="V11">
+        <v>6628685.9699999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" dyDescent="0.35">
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3362E3-3CF1-4192-BCB0-5A02C3DED047}">
+  <dimension ref="A1:AD6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A83216-A95D-4978-933C-FD0DF65CDF1E}">
+  <dimension ref="A1:AD6"/>
+  <sheetViews>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="28" max="28" width="10.90625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U1" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" t="s">
+        <v>14</v>
+      </c>
+      <c r="X1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>2405</v>
+      </c>
+      <c r="C2">
+        <v>3183584</v>
+      </c>
+      <c r="D2">
+        <v>3042930</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1836382</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>134.21699999999998</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>189.089</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>1836382</v>
+      </c>
+      <c r="Q2">
+        <v>22691</v>
+      </c>
+      <c r="R2">
+        <v>30255</v>
+      </c>
+      <c r="S2">
+        <v>22691</v>
+      </c>
+      <c r="T2">
+        <v>30255</v>
+      </c>
+      <c r="U2">
+        <v>1980.6248000000001</v>
+      </c>
+      <c r="V2">
+        <v>374.5752</v>
+      </c>
+      <c r="W2">
+        <v>2580.8180000000002</v>
+      </c>
+      <c r="X2">
+        <v>49515.62</v>
+      </c>
+      <c r="Y2">
+        <v>64520.45</v>
+      </c>
+      <c r="Z2">
+        <v>40151.230000000003</v>
+      </c>
+      <c r="AA2">
+        <v>1606</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="AC2">
+        <v>1318306.19</v>
+      </c>
+      <c r="AD2">
+        <v>7861753.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>2405</v>
+      </c>
+      <c r="C3">
+        <v>3183584</v>
+      </c>
+      <c r="D3">
+        <v>3042930</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1836382</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>134.21699999999998</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>189.089</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>1836382</v>
+      </c>
+      <c r="Q3">
+        <v>22691</v>
+      </c>
+      <c r="R3">
+        <v>30255</v>
+      </c>
+      <c r="S3">
+        <v>22691</v>
+      </c>
+      <c r="T3">
+        <v>30255</v>
+      </c>
+      <c r="U3">
+        <v>1980.6248000000001</v>
+      </c>
+      <c r="V3">
+        <v>374.5752</v>
+      </c>
+      <c r="W3">
+        <v>2580.8180000000002</v>
+      </c>
+      <c r="X3">
+        <v>49515.62</v>
+      </c>
+      <c r="Y3">
+        <v>64520.45</v>
+      </c>
+      <c r="Z3">
+        <v>40151.230000000003</v>
+      </c>
+      <c r="AA3">
+        <v>1606</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="AC3">
+        <v>1318306.19</v>
+      </c>
+      <c r="AD3">
+        <v>7861753.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2900</v>
+      </c>
+      <c r="C4">
+        <v>3838771</v>
+      </c>
+      <c r="D4">
+        <v>3669171</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>2178912</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>267366.14500000002</v>
+      </c>
+      <c r="I4">
+        <v>117</v>
+      </c>
+      <c r="J4">
+        <v>970</v>
+      </c>
+      <c r="K4">
+        <v>263729.679</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1582121</v>
+      </c>
+      <c r="Q4">
+        <v>22691</v>
+      </c>
+      <c r="R4">
+        <v>30255</v>
+      </c>
+      <c r="S4">
+        <v>22691</v>
+      </c>
+      <c r="T4">
+        <v>30255</v>
+      </c>
+      <c r="U4">
+        <v>1806.5724</v>
+      </c>
+      <c r="V4">
+        <v>200.5232</v>
+      </c>
+      <c r="W4">
+        <v>2580.8180000000002</v>
+      </c>
+      <c r="X4">
+        <v>45164.31</v>
+      </c>
+      <c r="Y4">
+        <v>64520.45</v>
+      </c>
+      <c r="Z4">
+        <v>40151.230000000003</v>
+      </c>
+      <c r="AA4">
+        <v>1606</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="AC4">
+        <v>610337.57999999996</v>
+      </c>
+      <c r="AD4">
+        <v>8569721.6500000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>2900</v>
+      </c>
+      <c r="C5">
+        <v>3838771</v>
+      </c>
+      <c r="D5">
+        <v>3669171</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1152094</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1561644.0530000001</v>
+      </c>
+      <c r="I5">
+        <v>953</v>
+      </c>
+      <c r="J5">
+        <v>6775</v>
+      </c>
+      <c r="K5">
+        <v>1806034.6479999998</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>727580</v>
+      </c>
+      <c r="Q5">
+        <v>22691</v>
+      </c>
+      <c r="R5">
+        <v>30255</v>
+      </c>
+      <c r="S5">
+        <v>22691</v>
+      </c>
+      <c r="T5">
+        <v>30255</v>
+      </c>
+      <c r="U5">
+        <v>1548.4908</v>
+      </c>
+      <c r="V5">
+        <v>-57.558799999999998</v>
+      </c>
+      <c r="W5">
+        <v>2580.8180000000002</v>
+      </c>
+      <c r="X5">
+        <v>38712.269999999997</v>
+      </c>
+      <c r="Y5">
+        <v>64520.45</v>
+      </c>
+      <c r="Z5">
+        <v>40151.230000000003</v>
+      </c>
+      <c r="AA5">
+        <v>1606</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AC5">
+        <v>-2139855.15</v>
+      </c>
+      <c r="AD5">
+        <v>11319914.380000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747F270-801F-4C2D-B02D-D3767742756A}">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>388</v>
+      </c>
+      <c r="C2">
+        <v>513036</v>
+      </c>
+      <c r="D2">
+        <v>490370</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1714</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2200.4279999999999</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>3700.6710000000003</v>
+      </c>
+      <c r="L2">
+        <v>2554671</v>
+      </c>
+      <c r="M2">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="N2">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
       </c>
       <c r="P2">
         <v>21932.29</v>
@@ -2113,66 +9126,66 @@
         <v>24369.21</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0.1</v>
       </c>
-      <c r="U2">
-        <v>-101132.32</v>
+      <c r="U2" s="1">
+        <v>-170580.06</v>
       </c>
       <c r="V2">
-        <v>6.0668851e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>6136332.8399999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>754.0</v>
+        <v>765</v>
       </c>
       <c r="C3">
-        <v>998657.0</v>
+        <v>1012105</v>
       </c>
       <c r="D3">
-        <v>954535.0</v>
+        <v>967389</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>91344.0</v>
+        <v>105656</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>29741.281</v>
+        <v>19181.775999999998</v>
       </c>
       <c r="I3">
-        <v>31.0</v>
+        <v>27</v>
       </c>
       <c r="J3">
-        <v>122.0</v>
+        <v>75</v>
       </c>
       <c r="K3">
-        <v>34150.075999999994</v>
+        <v>21480.557000000001</v>
       </c>
       <c r="L3">
-        <v>2.183538e6</v>
+        <v>2183583</v>
       </c>
       <c r="M3">
-        <v>779.8148</v>
+        <v>779.81479999999999</v>
       </c>
       <c r="N3">
-        <v>779.8148</v>
+        <v>779.81479999999999</v>
       </c>
       <c r="O3">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P3">
         <v>19495.37</v>
@@ -2181,66 +9194,66 @@
         <v>24369.21</v>
       </c>
       <c r="R3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0.2</v>
       </c>
-      <c r="U3">
-        <v>-336370.57</v>
+      <c r="U3" s="1">
+        <v>-428495.77</v>
       </c>
       <c r="V3">
-        <v>6.30212335e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>6394248.5499999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1068.0</v>
+        <v>1169</v>
       </c>
       <c r="C4">
-        <v>1.414304e6</v>
+        <v>1546990</v>
       </c>
       <c r="D4">
-        <v>1.351819e6</v>
+        <v>1478643</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>281393.0</v>
+        <v>471732</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>122003.81000000001</v>
+        <v>3625.3410000000003</v>
       </c>
       <c r="I4">
-        <v>70.0</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>495.0</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>134090.409</v>
+        <v>3793.5209999999997</v>
       </c>
       <c r="L4">
-        <v>1.987469e6</v>
+        <v>2036427</v>
       </c>
       <c r="M4">
-        <v>682.338</v>
+        <v>682.33799999999997</v>
       </c>
       <c r="N4">
-        <v>682.338</v>
+        <v>682.33799999999997</v>
       </c>
       <c r="O4">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P4">
         <v>17058.45</v>
@@ -2249,66 +9262,66 @@
         <v>24369.21</v>
       </c>
       <c r="R4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0.3</v>
       </c>
-      <c r="U4">
-        <v>-764792.53</v>
+      <c r="U4" s="1">
+        <v>-565360.07999999996</v>
       </c>
       <c r="V4">
-        <v>6.73054531e6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>6531112.8600000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>1356.0</v>
+        <v>1559</v>
       </c>
       <c r="C5">
-        <v>1.795117e6</v>
+        <v>2063963</v>
       </c>
       <c r="D5">
-        <v>1.715807e6</v>
+        <v>1972775</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>449974.0</v>
+        <v>877576</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>254114.48000000004</v>
+        <v>3770.9449999999997</v>
       </c>
       <c r="I5">
-        <v>142.0</v>
+        <v>10</v>
       </c>
       <c r="J5">
-        <v>1014.0</v>
+        <v>14</v>
       </c>
       <c r="K5">
-        <v>269050.907</v>
+        <v>3846.8900000000003</v>
       </c>
       <c r="L5">
-        <v>1.807133e6</v>
+        <v>1948144</v>
       </c>
       <c r="M5">
-        <v>584.8612</v>
+        <v>584.86120000000005</v>
       </c>
       <c r="N5">
-        <v>584.8612</v>
+        <v>584.86120000000005</v>
       </c>
       <c r="O5">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P5">
         <v>14621.53</v>
@@ -2317,66 +9330,66 @@
         <v>24369.21</v>
       </c>
       <c r="R5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0.4</v>
       </c>
-      <c r="U5">
-        <v>-1.2423575e6</v>
+      <c r="U5" s="1">
+        <v>-766364.03</v>
       </c>
       <c r="V5">
-        <v>7.20811028e6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>6732116.8099999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.35">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>1658.0</v>
+        <v>1950</v>
       </c>
       <c r="C6">
-        <v>2.194291e6</v>
+        <v>2581211</v>
       </c>
       <c r="D6">
-        <v>2.097345e6</v>
+        <v>2467171</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>661268.0</v>
+        <v>1310363</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>375649.95300000004</v>
+        <v>3665.1689999999999</v>
       </c>
       <c r="I6">
-        <v>196.0</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>1487.0</v>
+        <v>13</v>
       </c>
       <c r="K6">
-        <v>387143.00800000003</v>
+        <v>3659.5749999999998</v>
       </c>
       <c r="L6">
-        <v>1.65007e6</v>
+        <v>1886515</v>
       </c>
       <c r="M6">
-        <v>487.3844</v>
+        <v>487.38440000000003</v>
       </c>
       <c r="N6">
-        <v>487.3844</v>
+        <v>487.38440000000003</v>
       </c>
       <c r="O6">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P6">
         <v>12184.61</v>
@@ -2385,66 +9398,66 @@
         <v>24369.21</v>
       </c>
       <c r="R6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0.5</v>
       </c>
-      <c r="U6">
-        <v>-1.74189823e6</v>
+      <c r="U6" s="1">
+        <v>-967545.04</v>
       </c>
       <c r="V6">
-        <v>7.70765102e6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>6933297.8200000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.35">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>1960.0</v>
+        <v>2340</v>
       </c>
       <c r="C7">
-        <v>2.594171e6</v>
+        <v>3098070</v>
       </c>
       <c r="D7">
-        <v>2.479558e6</v>
+        <v>2961195</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>878667.0</v>
+        <v>1757659</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>500709.77900000004</v>
+        <v>3911.6420000000007</v>
       </c>
       <c r="I7">
-        <v>250.0</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>1970.0</v>
+        <v>14</v>
       </c>
       <c r="K7">
-        <v>504261.015</v>
+        <v>3829.1820000000007</v>
       </c>
       <c r="L7">
-        <v>1.498325e6</v>
+        <v>1839806</v>
       </c>
       <c r="M7">
-        <v>389.9072</v>
+        <v>389.90719999999999</v>
       </c>
       <c r="N7">
-        <v>389.9072</v>
+        <v>389.90719999999999</v>
       </c>
       <c r="O7">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P7">
         <v>9747.68</v>
@@ -2453,66 +9466,66 @@
         <v>24369.21</v>
       </c>
       <c r="R7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0.6</v>
       </c>
-      <c r="U7">
-        <v>-2.25271714e6</v>
+      <c r="U7" s="1">
+        <v>-1168835.2</v>
       </c>
       <c r="V7">
-        <v>8.21846992e6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>7134587.9800000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.35">
       <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
-        <v>2274.0</v>
+        <v>2441</v>
       </c>
       <c r="C8">
-        <v>3.010262e6</v>
+        <v>3231149</v>
       </c>
       <c r="D8">
-        <v>2.877266e6</v>
+        <v>3088394</v>
       </c>
       <c r="E8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.128002e6</v>
+        <v>1539276</v>
       </c>
       <c r="G8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>612353.665</v>
+        <v>378451.15</v>
       </c>
       <c r="I8">
-        <v>294.0</v>
+        <v>183</v>
       </c>
       <c r="J8">
-        <v>2392.0</v>
+        <v>1423</v>
       </c>
       <c r="K8">
-        <v>606327.854</v>
+        <v>382211.56200000003</v>
       </c>
       <c r="L8">
-        <v>1.361342e6</v>
+        <v>1536494</v>
       </c>
       <c r="M8">
-        <v>292.4304</v>
+        <v>292.43040000000002</v>
       </c>
       <c r="N8">
-        <v>292.4304</v>
+        <v>292.43040000000002</v>
       </c>
       <c r="O8">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P8">
         <v>7310.76</v>
@@ -2521,66 +9534,66 @@
         <v>24369.21</v>
       </c>
       <c r="R8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T8">
         <v>0.7</v>
       </c>
-      <c r="U8">
-        <v>-2.77174942e6</v>
+      <c r="U8" s="1">
+        <v>-1733179.86</v>
       </c>
       <c r="V8">
-        <v>8.7375022e6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>7698932.6399999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="B9">
-        <v>2581.0</v>
+        <v>2792</v>
       </c>
       <c r="C9">
-        <v>3.415949e6</v>
+        <v>3696456</v>
       </c>
       <c r="D9">
-        <v>3.265029e6</v>
+        <v>3533143</v>
       </c>
       <c r="E9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1.365079e6</v>
+        <v>1896242</v>
       </c>
       <c r="G9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>735533.864</v>
+        <v>437622.43499999994</v>
       </c>
       <c r="I9">
-        <v>345.0</v>
+        <v>208</v>
       </c>
       <c r="J9">
-        <v>2855.0</v>
+        <v>1614</v>
       </c>
       <c r="K9">
-        <v>718942.387</v>
+        <v>433382.68299999996</v>
       </c>
       <c r="L9">
-        <v>1.223222e6</v>
+        <v>1454426</v>
       </c>
       <c r="M9">
-        <v>194.9536</v>
+        <v>194.95359999999999</v>
       </c>
       <c r="N9">
-        <v>194.9536</v>
+        <v>194.95359999999999</v>
       </c>
       <c r="O9">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P9">
         <v>4873.84</v>
@@ -2589,66 +9602,66 @@
         <v>24369.21</v>
       </c>
       <c r="R9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0.8</v>
       </c>
-      <c r="U9">
-        <v>-3.2983813e6</v>
+      <c r="U9" s="1">
+        <v>-2457692.7200000002</v>
       </c>
       <c r="V9">
-        <v>9.26413409e6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>8423445.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.35">
       <c r="A10" t="s">
         <v>22</v>
       </c>
       <c r="B10">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="C10">
-        <v>3.838771e6</v>
+        <v>3838771</v>
       </c>
       <c r="D10">
-        <v>3.669171e6</v>
+        <v>3669171</v>
       </c>
       <c r="E10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1.63446e6</v>
+        <v>1686319</v>
       </c>
       <c r="G10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>844780.461</v>
+        <v>810425.25400000019</v>
       </c>
       <c r="I10">
-        <v>391.0</v>
+        <v>384</v>
       </c>
       <c r="J10">
-        <v>3245.0</v>
+        <v>3084</v>
       </c>
       <c r="K10">
-        <v>816071.382</v>
+        <v>801340.09299999999</v>
       </c>
       <c r="L10">
-        <v>1.099304e6</v>
+        <v>1149551</v>
       </c>
       <c r="M10">
-        <v>97.4768</v>
+        <v>97.476799999999997</v>
       </c>
       <c r="N10">
-        <v>97.4768</v>
+        <v>97.476799999999997</v>
       </c>
       <c r="O10">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P10">
         <v>2436.92</v>
@@ -2657,87 +9670,87 @@
         <v>24369.21</v>
       </c>
       <c r="R10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0.9</v>
       </c>
-      <c r="U10">
-        <v>-3.83165432e6</v>
+      <c r="U10" s="1">
+        <v>-3236706.18</v>
       </c>
       <c r="V10">
-        <v>9.7974071e6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>9202458.9600000009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
       <c r="B11">
-        <v>2900.0</v>
+        <v>2900</v>
       </c>
       <c r="C11">
-        <v>3.838771e6</v>
+        <v>3838771</v>
       </c>
       <c r="D11">
-        <v>3.669171e6</v>
+        <v>3669171</v>
       </c>
       <c r="E11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1.192888e6</v>
+        <v>1204574</v>
       </c>
       <c r="G11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>1.3526629700000002e6</v>
+        <v>1339709.443</v>
       </c>
       <c r="I11">
-        <v>682.0</v>
+        <v>708</v>
       </c>
       <c r="J11">
-        <v>5425.0</v>
+        <v>5311</v>
       </c>
       <c r="K11">
-        <v>1.363812997e6</v>
+        <v>1355711.91</v>
       </c>
       <c r="L11">
-        <v>718877.0</v>
+        <v>729685</v>
       </c>
       <c r="M11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>24369.21</v>
       </c>
       <c r="R11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1.0</v>
-      </c>
-      <c r="U11">
-        <v>-4.52482616e6</v>
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-4367591.8</v>
       </c>
       <c r="V11">
-        <v>1.049057894e7</v>
+        <v>10333344.58</v>
       </c>
     </row>
   </sheetData>

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3641D6-F71A-4A68-9184-B86B21F5167A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A876D-E98D-4EAC-A744-DF8416E231B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29955" yWindow="2100" windowWidth="24765" windowHeight="11325" firstSheet="7" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,9 +28,11 @@
     <sheet name="CermakA_9" sheetId="13" r:id="rId13"/>
     <sheet name="MarkhamA_0" sheetId="14" r:id="rId14"/>
     <sheet name="ProvdientA_0" sheetId="15" r:id="rId15"/>
-    <sheet name="CermakA_10" r:id="rId19" sheetId="16"/>
-    <sheet name="CermakA_11" r:id="rId20" sheetId="17"/>
-    <sheet name="MarkhamA_1" r:id="rId21" sheetId="18"/>
+    <sheet name="CermakA_10" sheetId="16" r:id="rId16"/>
+    <sheet name="CermakA_11" sheetId="17" r:id="rId17"/>
+    <sheet name="MarkhamA_1" sheetId="18" r:id="rId18"/>
+    <sheet name="CermakA_12" sheetId="19" r:id="rId19"/>
+    <sheet name="CermakA_13" r:id="rId23" sheetId="20"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -220,7 +222,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -229,6 +231,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -511,26 +514,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA964F5-22A3-40D1-AB06-AFBEBB75862F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F44987-8967-4F82-B499-B08EE46AADA3}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1A6BA5A-74EC-4048-8866-CD4783046B65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186E2A5B-B098-48A5-BC5B-582E1D2D8F5A}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.35">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +625,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -714,7 +717,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -806,7 +809,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -904,14 +907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D01766-C67C-4811-9DA6-7E4451338287}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD512D-EE06-4A1B-A754-341FAFD27C50}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.35">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1095,7 +1098,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1285,14 +1288,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{575334A3-624A-4963-8976-7AA4F247D326}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F526AE-2CA5-41A2-88DF-4CC4C4F8E2CA}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.35">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1476,7 +1479,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1568,7 +1571,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1666,34 +1669,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172447A0-90B8-43F5-A1F1-97262D10F867}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5A63-9179-449E-9504-7BA1562FB978}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1785,7 +1788,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1972,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>7270693.1299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.35">
+    <row r="7" spans="1:30" dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2072,32 +2075,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8D2D9F-430C-4FCC-9780-43AED13C7C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B085B3-AC50-4D7A-87EA-0BCBC3515858}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2189,7 +2192,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2281,7 +2284,7 @@
         <v>6233671.2000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2373,7 +2376,7 @@
         <v>6420739.9800000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2465,7 +2468,7 @@
         <v>7152790.2599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.35">
+    <row r="7" spans="1:30" dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2476,33 +2479,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC6EA555-5A3D-4477-ADDD-9438F79720CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817BE38-6650-40FC-A588-8A41483F30AA}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="58" dyDescent="0.35" s="2" customFormat="1">
+    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2686,7 +2689,7 @@
         <v>17442687.25</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2778,7 +2781,7 @@
         <v>19579566.420000002</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2870,7 +2873,7 @@
         <v>21759024.399999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.35">
+    <row r="7" spans="1:30" dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2881,6 +2884,2322 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D4DBC8-23FC-4879-88ED-4DE38D637482}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>884944</v>
+      </c>
+      <c r="D3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>1713</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2234609</v>
+      </c>
+      <c r="M3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158</v>
+      </c>
+      <c r="C4">
+        <v>1532530</v>
+      </c>
+      <c r="D4">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256</v>
+      </c>
+      <c r="J4">
+        <v>2075</v>
+      </c>
+      <c r="K4">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4">
+        <v>1892870</v>
+      </c>
+      <c r="M4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569</v>
+      </c>
+      <c r="AA4">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039C6BB-C701-49A9-84B8-77669F5B192E}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2789.58</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31347.8</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>669</v>
+      </c>
+      <c r="C3">
+        <v>884944</v>
+      </c>
+      <c r="D3">
+        <v>845846</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>23913</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>86082.755000000005</v>
+      </c>
+      <c r="I3">
+        <v>181</v>
+      </c>
+      <c r="J3">
+        <v>1713</v>
+      </c>
+      <c r="K3">
+        <v>125530.327</v>
+      </c>
+      <c r="L3">
+        <v>2234609</v>
+      </c>
+      <c r="M3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="N3">
+        <v>787.08759999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>19677.189999999999</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.19</v>
+      </c>
+      <c r="S3">
+        <v>1135150.02</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3642148.32</v>
+      </c>
+      <c r="V3">
+        <v>1593461.56</v>
+      </c>
+      <c r="W3">
+        <v>250499.72</v>
+      </c>
+      <c r="X3">
+        <v>39088.76</v>
+      </c>
+      <c r="Y3">
+        <v>518381.48</v>
+      </c>
+      <c r="Z3">
+        <v>2678</v>
+      </c>
+      <c r="AA3">
+        <v>837114.04</v>
+      </c>
+      <c r="AB3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC3">
+        <v>-870841.99</v>
+      </c>
+      <c r="AD3">
+        <v>6877347.7800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1158</v>
+      </c>
+      <c r="C4">
+        <v>1532530</v>
+      </c>
+      <c r="D4">
+        <v>1464821</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>290830</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>205444.057</v>
+      </c>
+      <c r="I4">
+        <v>256</v>
+      </c>
+      <c r="J4">
+        <v>2075</v>
+      </c>
+      <c r="K4">
+        <v>217953.83600000001</v>
+      </c>
+      <c r="L4">
+        <v>1892870</v>
+      </c>
+      <c r="M4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="N4">
+        <v>646.74839999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>16168.71</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.34</v>
+      </c>
+      <c r="S4">
+        <v>1965833.15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5850073.3600000003</v>
+      </c>
+      <c r="V4">
+        <v>2529886.98</v>
+      </c>
+      <c r="W4">
+        <v>212190.73</v>
+      </c>
+      <c r="X4">
+        <v>35747.54</v>
+      </c>
+      <c r="Y4">
+        <v>476731.27</v>
+      </c>
+      <c r="Z4">
+        <v>32569</v>
+      </c>
+      <c r="AA4">
+        <v>1443981.69</v>
+      </c>
+      <c r="AB4">
+        <v>0.47</v>
+      </c>
+      <c r="AC4">
+        <v>-1244829.75</v>
+      </c>
+      <c r="AD4">
+        <v>7270693.1299999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D71AFD2-4444-411C-B7A3-7BD27CC2B07B}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1036</v>
+      </c>
+      <c r="C2">
+        <v>1371495</v>
+      </c>
+      <c r="D2">
+        <v>1310901</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>126652.283</v>
+      </c>
+      <c r="I2">
+        <v>377</v>
+      </c>
+      <c r="J2">
+        <v>1854</v>
+      </c>
+      <c r="K2">
+        <v>285660.78200000001</v>
+      </c>
+      <c r="L2">
+        <v>3280567</v>
+      </c>
+      <c r="M2">
+        <v>960.19119999999998</v>
+      </c>
+      <c r="N2">
+        <v>960.19119999999998</v>
+      </c>
+      <c r="O2">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P2">
+        <v>24004.78</v>
+      </c>
+      <c r="Q2">
+        <v>26671.98</v>
+      </c>
+      <c r="R2">
+        <v>0.1</v>
+      </c>
+      <c r="S2">
+        <v>497669.94</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>2369556.48</v>
+      </c>
+      <c r="V2">
+        <v>1036462.67</v>
+      </c>
+      <c r="W2">
+        <v>382186</v>
+      </c>
+      <c r="X2">
+        <v>92100.38</v>
+      </c>
+      <c r="Y2">
+        <v>493469.38</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>1298053.18</v>
+      </c>
+      <c r="AB2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC2">
+        <v>-672770.65</v>
+      </c>
+      <c r="AD2">
+        <v>6233671.2000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1357</v>
+      </c>
+      <c r="C3">
+        <v>1796899</v>
+      </c>
+      <c r="D3">
+        <v>1717510</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2957</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>239700.48199999999</v>
+      </c>
+      <c r="I3">
+        <v>403</v>
+      </c>
+      <c r="J3">
+        <v>2074</v>
+      </c>
+      <c r="K3">
+        <v>411767.91899999999</v>
+      </c>
+      <c r="L3">
+        <v>2891081</v>
+      </c>
+      <c r="M3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="N3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="O3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P3">
+        <v>21337.59</v>
+      </c>
+      <c r="Q3">
+        <v>26671.98</v>
+      </c>
+      <c r="R3">
+        <v>0.2</v>
+      </c>
+      <c r="S3">
+        <v>1043351.3</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>3790293.6</v>
+      </c>
+      <c r="V3">
+        <v>1641566.93</v>
+      </c>
+      <c r="W3">
+        <v>336810.95</v>
+      </c>
+      <c r="X3">
+        <v>85034.2</v>
+      </c>
+      <c r="Y3">
+        <v>441028.15</v>
+      </c>
+      <c r="Z3">
+        <v>166</v>
+      </c>
+      <c r="AA3">
+        <v>1693194.87</v>
+      </c>
+      <c r="AB3">
+        <v>0.37</v>
+      </c>
+      <c r="AC3">
+        <v>-819362.37</v>
+      </c>
+      <c r="AD3">
+        <v>6420739.9800000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1804</v>
+      </c>
+      <c r="C4">
+        <v>2387870</v>
+      </c>
+      <c r="D4">
+        <v>2282372</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>96018</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>254125.166</v>
+      </c>
+      <c r="I4">
+        <v>398</v>
+      </c>
+      <c r="J4">
+        <v>2246</v>
+      </c>
+      <c r="K4">
+        <v>348767.32699999999</v>
+      </c>
+      <c r="L4">
+        <v>2412114</v>
+      </c>
+      <c r="M4">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="N4">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="O4">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P4">
+        <v>18670.39</v>
+      </c>
+      <c r="Q4">
+        <v>26671.98</v>
+      </c>
+      <c r="R4">
+        <v>0.3</v>
+      </c>
+      <c r="S4">
+        <v>1801411.96</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>5665663.8399999999</v>
+      </c>
+      <c r="V4">
+        <v>2440192.12</v>
+      </c>
+      <c r="W4">
+        <v>281011.25</v>
+      </c>
+      <c r="X4">
+        <v>79378.81</v>
+      </c>
+      <c r="Y4">
+        <v>379573.06</v>
+      </c>
+      <c r="Z4">
+        <v>5377</v>
+      </c>
+      <c r="AA4">
+        <v>2256593.33</v>
+      </c>
+      <c r="AB4">
+        <v>0.49</v>
+      </c>
+      <c r="AC4">
+        <v>-1055703.8999999999</v>
+      </c>
+      <c r="AD4">
+        <v>6676087.9199999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A73001-1384-4C5A-BA55-6E9699C086D9}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3">
+        <v>33093</v>
+      </c>
+      <c r="D2" s="3">
+        <v>31631</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2892.4520000000002</v>
+      </c>
+      <c r="I2" s="3">
+        <v>204</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1532</v>
+      </c>
+      <c r="K2" s="3">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2" s="3">
+        <v>3015398</v>
+      </c>
+      <c r="M2" s="3">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2" s="3">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R2" s="6">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>42449.42</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>983597.42</v>
+      </c>
+      <c r="V2" s="1">
+        <v>462308.36</v>
+      </c>
+      <c r="W2" s="1">
+        <v>338026.17</v>
+      </c>
+      <c r="X2" s="1">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>31337.37</v>
+      </c>
+      <c r="AB2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>175</v>
+      </c>
+      <c r="C3" s="3">
+        <v>231650</v>
+      </c>
+      <c r="D3" s="3">
+        <v>221416</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>35368.813000000002</v>
+      </c>
+      <c r="I3" s="3">
+        <v>186</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2630</v>
+      </c>
+      <c r="K3" s="3">
+        <v>79483.80799999999</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2829639</v>
+      </c>
+      <c r="M3" s="3">
+        <v>923.65359999999998</v>
+      </c>
+      <c r="N3" s="3">
+        <v>923.65359999999998</v>
+      </c>
+      <c r="O3" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3" s="3">
+        <v>23091.34</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S3" s="1">
+        <v>297145.90999999997</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>2072513.31</v>
+      </c>
+      <c r="V3" s="1">
+        <v>979362.5</v>
+      </c>
+      <c r="W3" s="1">
+        <v>317202.52</v>
+      </c>
+      <c r="X3" s="1">
+        <v>40979.949999999997</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>586975.47</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>217827.64</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-951378.55</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>6957884.3399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>175</v>
+      </c>
+      <c r="C4" s="3">
+        <v>231650</v>
+      </c>
+      <c r="D4" s="3">
+        <v>221416</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>35568.172999999995</v>
+      </c>
+      <c r="I4" s="3">
+        <v>188</v>
+      </c>
+      <c r="J4" s="3">
+        <v>4005</v>
+      </c>
+      <c r="K4" s="3">
+        <v>86324.998999999996</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2829976</v>
+      </c>
+      <c r="M4" s="3">
+        <v>923.72760000000005</v>
+      </c>
+      <c r="N4" s="3">
+        <v>923.72760000000005</v>
+      </c>
+      <c r="O4" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4" s="3">
+        <v>23093.19</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="1">
+        <v>297145.90999999997</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>2699344.77</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1313386.47</v>
+      </c>
+      <c r="W4" s="1">
+        <v>317240.32000000001</v>
+      </c>
+      <c r="X4" s="1">
+        <v>40824.83</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>586858.15</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>217807.42</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1411012.54</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7436875.9100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99ECDBF-DC42-4DB5-9B60-9F881A8C05B8}">
+  <dimension ref="A1:V11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>388</v>
+      </c>
+      <c r="C2" s="3">
+        <v>513041</v>
+      </c>
+      <c r="D2" s="3">
+        <v>490374</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1714</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2077.9389999999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>10</v>
+      </c>
+      <c r="J2" s="3">
+        <v>13</v>
+      </c>
+      <c r="K2" s="3">
+        <v>3687.4279999999999</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2554665</v>
+      </c>
+      <c r="M2" s="3">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="N2" s="3">
+        <v>877.29160000000002</v>
+      </c>
+      <c r="O2" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2" s="3">
+        <v>21932.29</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U2" s="1">
+        <v>-101132.32</v>
+      </c>
+      <c r="V2" s="1">
+        <v>6066885.0999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>754</v>
+      </c>
+      <c r="C3" s="3">
+        <v>998657</v>
+      </c>
+      <c r="D3" s="3">
+        <v>954535</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>91344</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>29741.280999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>31</v>
+      </c>
+      <c r="J3" s="3">
+        <v>122</v>
+      </c>
+      <c r="K3" s="3">
+        <v>34150.075999999994</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2183538</v>
+      </c>
+      <c r="M3" s="3">
+        <v>779.81479999999999</v>
+      </c>
+      <c r="N3" s="3">
+        <v>779.81479999999999</v>
+      </c>
+      <c r="O3" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3" s="3">
+        <v>19495.37</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-336370.57</v>
+      </c>
+      <c r="V3" s="1">
+        <v>6302123.3499999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1068</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1414304</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1351819</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>281393</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>122003.81000000001</v>
+      </c>
+      <c r="I4" s="3">
+        <v>70</v>
+      </c>
+      <c r="J4" s="3">
+        <v>495</v>
+      </c>
+      <c r="K4" s="3">
+        <v>134090.40900000001</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1987469</v>
+      </c>
+      <c r="M4" s="3">
+        <v>682.33799999999997</v>
+      </c>
+      <c r="N4" s="3">
+        <v>682.33799999999997</v>
+      </c>
+      <c r="O4" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4" s="3">
+        <v>17058.45</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U4" s="1">
+        <v>-764792.53</v>
+      </c>
+      <c r="V4" s="1">
+        <v>6730545.3099999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1356</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1795117</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1715807</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>449974</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>254114.48000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>142</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1014</v>
+      </c>
+      <c r="K5" s="3">
+        <v>269050.90700000001</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1807133</v>
+      </c>
+      <c r="M5" s="3">
+        <v>584.86120000000005</v>
+      </c>
+      <c r="N5" s="3">
+        <v>584.86120000000005</v>
+      </c>
+      <c r="O5" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P5" s="3">
+        <v>14621.53</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-1242357.5</v>
+      </c>
+      <c r="V5" s="1">
+        <v>7208110.2800000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1658</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2194291</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2097345</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>661268</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>375649.95300000004</v>
+      </c>
+      <c r="I6" s="3">
+        <v>196</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1487</v>
+      </c>
+      <c r="K6" s="3">
+        <v>387143.00800000003</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1650070</v>
+      </c>
+      <c r="M6" s="3">
+        <v>487.38440000000003</v>
+      </c>
+      <c r="N6" s="3">
+        <v>487.38440000000003</v>
+      </c>
+      <c r="O6" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P6" s="3">
+        <v>12184.61</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-1741898.23</v>
+      </c>
+      <c r="V6" s="1">
+        <v>7707651.0199999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1960</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2594171</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2479558</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>878667</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>500709.77900000004</v>
+      </c>
+      <c r="I7" s="3">
+        <v>250</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1970</v>
+      </c>
+      <c r="K7" s="3">
+        <v>504261.01500000001</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1498325</v>
+      </c>
+      <c r="M7" s="3">
+        <v>389.90719999999999</v>
+      </c>
+      <c r="N7" s="3">
+        <v>389.90719999999999</v>
+      </c>
+      <c r="O7" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P7" s="3">
+        <v>9747.68</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-2252717.14</v>
+      </c>
+      <c r="V7" s="1">
+        <v>8218469.9199999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2274</v>
+      </c>
+      <c r="C8" s="3">
+        <v>3010262</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2877266</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1128002</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>612353.66500000004</v>
+      </c>
+      <c r="I8" s="3">
+        <v>294</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2392</v>
+      </c>
+      <c r="K8" s="3">
+        <v>606327.85400000005</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1361342</v>
+      </c>
+      <c r="M8" s="3">
+        <v>292.43040000000002</v>
+      </c>
+      <c r="N8" s="3">
+        <v>292.43040000000002</v>
+      </c>
+      <c r="O8" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P8" s="3">
+        <v>7310.76</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-2771749.42</v>
+      </c>
+      <c r="V8" s="1">
+        <v>8737502.1999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2581</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3415949</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3265029</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1365079</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>735533.86399999994</v>
+      </c>
+      <c r="I9" s="3">
+        <v>345</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2855</v>
+      </c>
+      <c r="K9" s="3">
+        <v>718942.38699999999</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1223222</v>
+      </c>
+      <c r="M9" s="3">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>194.95359999999999</v>
+      </c>
+      <c r="O9" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P9" s="3">
+        <v>4873.84</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-3298381.3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>9264134.0899999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3838771</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3669171</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1634460</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>844780.46100000001</v>
+      </c>
+      <c r="I10" s="3">
+        <v>391</v>
+      </c>
+      <c r="J10" s="3">
+        <v>3245</v>
+      </c>
+      <c r="K10" s="3">
+        <v>816071.38199999998</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1099304</v>
+      </c>
+      <c r="M10" s="3">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="N10" s="3">
+        <v>97.476799999999997</v>
+      </c>
+      <c r="O10" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P10" s="3">
+        <v>2436.92</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-3831654.32</v>
+      </c>
+      <c r="V10" s="1">
+        <v>9797407.0999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>2900</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3838771</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3669171</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1192888</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1352662.9700000002</v>
+      </c>
+      <c r="I11" s="3">
+        <v>682</v>
+      </c>
+      <c r="J11" s="3">
+        <v>5425</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1363812.997</v>
+      </c>
+      <c r="L11" s="3">
+        <v>718877</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>24369.21</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>1</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-4524826.16</v>
+      </c>
+      <c r="V11" s="1">
+        <v>10490578.939999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
@@ -3003,7 +5322,7 @@
         <v>0.0</v>
       </c>
       <c r="H2">
-        <v>2789.58</v>
+        <v>2892.452</v>
       </c>
       <c r="I2">
         <v>204.0</v>
@@ -3060,7 +5379,7 @@
         <v>-0.0</v>
       </c>
       <c r="AA2">
-        <v>31347.8</v>
+        <v>31337.37</v>
       </c>
       <c r="AB2">
         <v>0.01</v>
@@ -3077,91 +5396,91 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>669.0</v>
+        <v>175.0</v>
       </c>
       <c r="C3">
-        <v>884944.0</v>
+        <v>231650.0</v>
       </c>
       <c r="D3">
-        <v>845846.0</v>
+        <v>221416.0</v>
       </c>
       <c r="E3">
         <v>0.0</v>
       </c>
       <c r="F3">
-        <v>23913.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3">
         <v>0.0</v>
       </c>
       <c r="H3">
-        <v>86082.755</v>
+        <v>35368.813</v>
       </c>
       <c r="I3">
-        <v>181.0</v>
+        <v>186.0</v>
       </c>
       <c r="J3">
-        <v>1713.0</v>
+        <v>2630.0</v>
       </c>
       <c r="K3">
-        <v>125530.327</v>
+        <v>79483.80799999999</v>
       </c>
       <c r="L3">
-        <v>2.234609e6</v>
+        <v>2.829639e6</v>
       </c>
       <c r="M3">
-        <v>787.0876</v>
+        <v>923.6536</v>
       </c>
       <c r="N3">
-        <v>787.0876</v>
+        <v>923.6536</v>
       </c>
       <c r="O3">
         <v>974.7684</v>
       </c>
       <c r="P3">
-        <v>19677.19</v>
+        <v>23091.34</v>
       </c>
       <c r="Q3">
         <v>24369.21</v>
       </c>
       <c r="R3">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="S3">
-        <v>1.13515002e6</v>
+        <v>297145.91</v>
       </c>
       <c r="T3">
         <v>0.0</v>
       </c>
       <c r="U3">
-        <v>3.64214832e6</v>
+        <v>2.07251331e6</v>
       </c>
       <c r="V3">
-        <v>1.59346156e6</v>
+        <v>979362.5</v>
       </c>
       <c r="W3">
-        <v>250499.72</v>
+        <v>317202.52</v>
       </c>
       <c r="X3">
-        <v>39088.76</v>
+        <v>40979.95</v>
       </c>
       <c r="Y3">
-        <v>518381.48</v>
+        <v>586975.47</v>
       </c>
       <c r="Z3">
-        <v>2678.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AA3">
-        <v>837114.04</v>
+        <v>217827.64</v>
       </c>
       <c r="AB3">
-        <v>0.28</v>
+        <v>0.07</v>
       </c>
       <c r="AC3">
-        <v>-870841.99</v>
+        <v>-951378.55</v>
       </c>
       <c r="AD3">
-        <v>6.87734778e6</v>
+        <v>6.95788434e6</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -3169,1628 +5488,91 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>1158.0</v>
+        <v>175.0</v>
       </c>
       <c r="C4">
-        <v>1.53253e6</v>
+        <v>231650.0</v>
       </c>
       <c r="D4">
-        <v>1.464821e6</v>
+        <v>221416.0</v>
       </c>
       <c r="E4">
         <v>0.0</v>
       </c>
       <c r="F4">
-        <v>290830.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4">
         <v>0.0</v>
       </c>
       <c r="H4">
-        <v>205444.057</v>
+        <v>35568.172999999995</v>
       </c>
       <c r="I4">
-        <v>256.0</v>
+        <v>188.0</v>
       </c>
       <c r="J4">
-        <v>2075.0</v>
+        <v>4005.0</v>
       </c>
       <c r="K4">
-        <v>217953.836</v>
+        <v>86324.999</v>
       </c>
       <c r="L4">
-        <v>1.89287e6</v>
+        <v>2.829976e6</v>
       </c>
       <c r="M4">
-        <v>646.7484</v>
+        <v>923.7276</v>
       </c>
       <c r="N4">
-        <v>646.7484</v>
+        <v>923.7276</v>
       </c>
       <c r="O4">
         <v>974.7684</v>
       </c>
       <c r="P4">
-        <v>16168.71</v>
+        <v>23093.19</v>
       </c>
       <c r="Q4">
         <v>24369.21</v>
       </c>
       <c r="R4">
-        <v>0.34</v>
+        <v>0.05</v>
       </c>
       <c r="S4">
-        <v>1.96583315e6</v>
+        <v>297145.91</v>
       </c>
       <c r="T4">
         <v>0.0</v>
       </c>
       <c r="U4">
-        <v>5.85007336e6</v>
+        <v>2.69934477e6</v>
       </c>
       <c r="V4">
-        <v>2.52988698e6</v>
+        <v>1.31338647e6</v>
       </c>
       <c r="W4">
-        <v>212190.73</v>
+        <v>317240.32</v>
       </c>
       <c r="X4">
-        <v>35747.54</v>
+        <v>40824.83</v>
       </c>
       <c r="Y4">
-        <v>476731.27</v>
+        <v>586858.15</v>
       </c>
       <c r="Z4">
-        <v>32569.0</v>
+        <v>-0.0</v>
       </c>
       <c r="AA4">
-        <v>1.44398169e6</v>
+        <v>217807.42</v>
       </c>
       <c r="AB4">
-        <v>0.47</v>
+        <v>0.07</v>
       </c>
       <c r="AC4">
-        <v>-1.24482975e6</v>
+        <v>-1.41101254e6</v>
       </c>
       <c r="AD4">
-        <v>7.27069313e6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AD4"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>25.0</v>
-      </c>
-      <c r="C2">
-        <v>33093.0</v>
-      </c>
-      <c r="D2">
-        <v>31631.0</v>
-      </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-      <c r="G2">
-        <v>0.0</v>
-      </c>
-      <c r="H2">
-        <v>2789.58</v>
-      </c>
-      <c r="I2">
-        <v>204.0</v>
-      </c>
-      <c r="J2">
-        <v>1532.0</v>
-      </c>
-      <c r="K2">
-        <v>40750.753</v>
-      </c>
-      <c r="L2">
-        <v>3.015398e6</v>
-      </c>
-      <c r="M2">
-        <v>974.7676</v>
-      </c>
-      <c r="N2">
-        <v>974.7676</v>
-      </c>
-      <c r="O2">
-        <v>974.7684</v>
-      </c>
-      <c r="P2">
-        <v>24369.19</v>
-      </c>
-      <c r="Q2">
-        <v>24369.21</v>
-      </c>
-      <c r="R2">
-        <v>0.0</v>
-      </c>
-      <c r="S2">
-        <v>42449.42</v>
-      </c>
-      <c r="T2">
-        <v>0.0</v>
-      </c>
-      <c r="U2">
-        <v>983597.42</v>
-      </c>
-      <c r="V2">
-        <v>462308.36</v>
-      </c>
-      <c r="W2">
-        <v>338026.17</v>
-      </c>
-      <c r="X2">
-        <v>43862.82</v>
-      </c>
-      <c r="Y2">
-        <v>610681.99</v>
-      </c>
-      <c r="Z2">
-        <v>-0.0</v>
-      </c>
-      <c r="AA2">
-        <v>31347.8</v>
-      </c>
-      <c r="AB2">
-        <v>0.01</v>
-      </c>
-      <c r="AC2">
-        <v>-544848.07</v>
-      </c>
-      <c r="AD2">
-        <v>6.52940404e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>669.0</v>
-      </c>
-      <c r="C3">
-        <v>884944.0</v>
-      </c>
-      <c r="D3">
-        <v>845846.0</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>23913.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>86082.755</v>
-      </c>
-      <c r="I3">
-        <v>181.0</v>
-      </c>
-      <c r="J3">
-        <v>1713.0</v>
-      </c>
-      <c r="K3">
-        <v>125530.327</v>
-      </c>
-      <c r="L3">
-        <v>2.234609e6</v>
-      </c>
-      <c r="M3">
-        <v>787.0876</v>
-      </c>
-      <c r="N3">
-        <v>787.0876</v>
-      </c>
-      <c r="O3">
-        <v>974.7684</v>
-      </c>
-      <c r="P3">
-        <v>19677.19</v>
-      </c>
-      <c r="Q3">
-        <v>24369.21</v>
-      </c>
-      <c r="R3">
-        <v>0.19</v>
-      </c>
-      <c r="S3">
-        <v>1.13515002e6</v>
-      </c>
-      <c r="T3">
-        <v>0.0</v>
-      </c>
-      <c r="U3">
-        <v>3.64214832e6</v>
-      </c>
-      <c r="V3">
-        <v>1.59346156e6</v>
-      </c>
-      <c r="W3">
-        <v>250499.72</v>
-      </c>
-      <c r="X3">
-        <v>39088.76</v>
-      </c>
-      <c r="Y3">
-        <v>518381.48</v>
-      </c>
-      <c r="Z3">
-        <v>2678.0</v>
-      </c>
-      <c r="AA3">
-        <v>837114.04</v>
-      </c>
-      <c r="AB3">
-        <v>0.28</v>
-      </c>
-      <c r="AC3">
-        <v>-870841.99</v>
-      </c>
-      <c r="AD3">
-        <v>6.87734778e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>1158.0</v>
-      </c>
-      <c r="C4">
-        <v>1.53253e6</v>
-      </c>
-      <c r="D4">
-        <v>1.464821e6</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>290830.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>205444.057</v>
-      </c>
-      <c r="I4">
-        <v>256.0</v>
-      </c>
-      <c r="J4">
-        <v>2075.0</v>
-      </c>
-      <c r="K4">
-        <v>217953.836</v>
-      </c>
-      <c r="L4">
-        <v>1.89287e6</v>
-      </c>
-      <c r="M4">
-        <v>646.7484</v>
-      </c>
-      <c r="N4">
-        <v>646.7484</v>
-      </c>
-      <c r="O4">
-        <v>974.7684</v>
-      </c>
-      <c r="P4">
-        <v>16168.71</v>
-      </c>
-      <c r="Q4">
-        <v>24369.21</v>
-      </c>
-      <c r="R4">
-        <v>0.34</v>
-      </c>
-      <c r="S4">
-        <v>1.96583315e6</v>
-      </c>
-      <c r="T4">
-        <v>0.0</v>
-      </c>
-      <c r="U4">
-        <v>5.85007336e6</v>
-      </c>
-      <c r="V4">
-        <v>2.52988698e6</v>
-      </c>
-      <c r="W4">
-        <v>212190.73</v>
-      </c>
-      <c r="X4">
-        <v>35747.54</v>
-      </c>
-      <c r="Y4">
-        <v>476731.27</v>
-      </c>
-      <c r="Z4">
-        <v>32569.0</v>
-      </c>
-      <c r="AA4">
-        <v>1.44398169e6</v>
-      </c>
-      <c r="AB4">
-        <v>0.47</v>
-      </c>
-      <c r="AC4">
-        <v>-1.24482975e6</v>
-      </c>
-      <c r="AD4">
-        <v>7.27069313e6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AD4"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:30">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1036.0</v>
-      </c>
-      <c r="C2">
-        <v>1.371495e6</v>
-      </c>
-      <c r="D2">
-        <v>1.310901e6</v>
-      </c>
-      <c r="E2">
-        <v>0.0</v>
-      </c>
-      <c r="F2">
-        <v>0.0</v>
-      </c>
-      <c r="G2">
-        <v>0.0</v>
-      </c>
-      <c r="H2">
-        <v>126652.283</v>
-      </c>
-      <c r="I2">
-        <v>377.0</v>
-      </c>
-      <c r="J2">
-        <v>1854.0</v>
-      </c>
-      <c r="K2">
-        <v>285660.782</v>
-      </c>
-      <c r="L2">
-        <v>3.280567e6</v>
-      </c>
-      <c r="M2">
-        <v>960.1912</v>
-      </c>
-      <c r="N2">
-        <v>960.1912</v>
-      </c>
-      <c r="O2">
-        <v>1066.8792</v>
-      </c>
-      <c r="P2">
-        <v>24004.78</v>
-      </c>
-      <c r="Q2">
-        <v>26671.98</v>
-      </c>
-      <c r="R2">
-        <v>0.1</v>
-      </c>
-      <c r="S2">
-        <v>497669.94</v>
-      </c>
-      <c r="T2">
-        <v>0.0</v>
-      </c>
-      <c r="U2">
-        <v>2.36955648e6</v>
-      </c>
-      <c r="V2">
-        <v>1.03646267e6</v>
-      </c>
-      <c r="W2">
-        <v>382186.0</v>
-      </c>
-      <c r="X2">
-        <v>92100.38</v>
-      </c>
-      <c r="Y2">
-        <v>493469.38</v>
-      </c>
-      <c r="Z2">
-        <v>-0.0</v>
-      </c>
-      <c r="AA2">
-        <v>1.29805318e6</v>
-      </c>
-      <c r="AB2">
-        <v>0.28</v>
-      </c>
-      <c r="AC2">
-        <v>-672770.65</v>
-      </c>
-      <c r="AD2">
-        <v>6.2336712e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>1357.0</v>
-      </c>
-      <c r="C3">
-        <v>1.796899e6</v>
-      </c>
-      <c r="D3">
-        <v>1.71751e6</v>
-      </c>
-      <c r="E3">
-        <v>0.0</v>
-      </c>
-      <c r="F3">
-        <v>2957.0</v>
-      </c>
-      <c r="G3">
-        <v>0.0</v>
-      </c>
-      <c r="H3">
-        <v>239700.482</v>
-      </c>
-      <c r="I3">
-        <v>403.0</v>
-      </c>
-      <c r="J3">
-        <v>2074.0</v>
-      </c>
-      <c r="K3">
-        <v>411767.919</v>
-      </c>
-      <c r="L3">
-        <v>2.891081e6</v>
-      </c>
-      <c r="M3">
-        <v>853.5036</v>
-      </c>
-      <c r="N3">
-        <v>853.5036</v>
-      </c>
-      <c r="O3">
-        <v>1066.8792</v>
-      </c>
-      <c r="P3">
-        <v>21337.59</v>
-      </c>
-      <c r="Q3">
-        <v>26671.98</v>
-      </c>
-      <c r="R3">
-        <v>0.2</v>
-      </c>
-      <c r="S3">
-        <v>1.0433513e6</v>
-      </c>
-      <c r="T3">
-        <v>0.0</v>
-      </c>
-      <c r="U3">
-        <v>3.7902936e6</v>
-      </c>
-      <c r="V3">
-        <v>1.64156693e6</v>
-      </c>
-      <c r="W3">
-        <v>336810.95</v>
-      </c>
-      <c r="X3">
-        <v>85034.2</v>
-      </c>
-      <c r="Y3">
-        <v>441028.15</v>
-      </c>
-      <c r="Z3">
-        <v>166.0</v>
-      </c>
-      <c r="AA3">
-        <v>1.69319487e6</v>
-      </c>
-      <c r="AB3">
-        <v>0.37</v>
-      </c>
-      <c r="AC3">
-        <v>-819362.37</v>
-      </c>
-      <c r="AD3">
-        <v>6.42073998e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>1804.0</v>
-      </c>
-      <c r="C4">
-        <v>2.38787e6</v>
-      </c>
-      <c r="D4">
-        <v>2.282372e6</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>96018.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>254125.166</v>
-      </c>
-      <c r="I4">
-        <v>398.0</v>
-      </c>
-      <c r="J4">
-        <v>2246.0</v>
-      </c>
-      <c r="K4">
-        <v>348767.327</v>
-      </c>
-      <c r="L4">
-        <v>2.412114e6</v>
-      </c>
-      <c r="M4">
-        <v>746.8156</v>
-      </c>
-      <c r="N4">
-        <v>746.8156</v>
-      </c>
-      <c r="O4">
-        <v>1066.8792</v>
-      </c>
-      <c r="P4">
-        <v>18670.39</v>
-      </c>
-      <c r="Q4">
-        <v>26671.98</v>
-      </c>
-      <c r="R4">
-        <v>0.3</v>
-      </c>
-      <c r="S4">
-        <v>1.80141196e6</v>
-      </c>
-      <c r="T4">
-        <v>0.0</v>
-      </c>
-      <c r="U4">
-        <v>5.66566384e6</v>
-      </c>
-      <c r="V4">
-        <v>2.44019212e6</v>
-      </c>
-      <c r="W4">
-        <v>281011.25</v>
-      </c>
-      <c r="X4">
-        <v>79378.81</v>
-      </c>
-      <c r="Y4">
-        <v>379573.06</v>
-      </c>
-      <c r="Z4">
-        <v>5377.0</v>
-      </c>
-      <c r="AA4">
-        <v>2.25659333e6</v>
-      </c>
-      <c r="AB4">
-        <v>0.49</v>
-      </c>
-      <c r="AC4">
-        <v>-1.0557039e6</v>
-      </c>
-      <c r="AD4">
-        <v>6.67608792e6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B9C12C3-296F-49A4-8576-75873C4795CB}">
-  <dimension ref="A1:V11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.26953125" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s" s="2">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="2">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3">
-        <v>388</v>
-      </c>
-      <c r="C2" s="3">
-        <v>513041</v>
-      </c>
-      <c r="D2" s="3">
-        <v>490374</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1714</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>2077.9389999999999</v>
-      </c>
-      <c r="I2" s="3">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3">
-        <v>13</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3687.4279999999999</v>
-      </c>
-      <c r="L2" s="3">
-        <v>2554665</v>
-      </c>
-      <c r="M2" s="3">
-        <v>877.29160000000002</v>
-      </c>
-      <c r="N2" s="3">
-        <v>877.29160000000002</v>
-      </c>
-      <c r="O2" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P2" s="3">
-        <v>21932.29</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-101132.32</v>
-      </c>
-      <c r="V2" s="1">
-        <v>6066885.0999999996</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3">
-        <v>754</v>
-      </c>
-      <c r="C3" s="3">
-        <v>998657</v>
-      </c>
-      <c r="D3" s="3">
-        <v>954535</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>91344</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>29741.280999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>31</v>
-      </c>
-      <c r="J3" s="3">
-        <v>122</v>
-      </c>
-      <c r="K3" s="3">
-        <v>34150.075999999994</v>
-      </c>
-      <c r="L3" s="3">
-        <v>2183538</v>
-      </c>
-      <c r="M3" s="3">
-        <v>779.81479999999999</v>
-      </c>
-      <c r="N3" s="3">
-        <v>779.81479999999999</v>
-      </c>
-      <c r="O3" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P3" s="3">
-        <v>19495.37</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="U3" s="1">
-        <v>-336370.57</v>
-      </c>
-      <c r="V3" s="1">
-        <v>6302123.3499999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1068</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1414304</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1351819</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>281393</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>122003.81000000001</v>
-      </c>
-      <c r="I4" s="3">
-        <v>70</v>
-      </c>
-      <c r="J4" s="3">
-        <v>495</v>
-      </c>
-      <c r="K4" s="3">
-        <v>134090.40900000001</v>
-      </c>
-      <c r="L4" s="3">
-        <v>1987469</v>
-      </c>
-      <c r="M4" s="3">
-        <v>682.33799999999997</v>
-      </c>
-      <c r="N4" s="3">
-        <v>682.33799999999997</v>
-      </c>
-      <c r="O4" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P4" s="3">
-        <v>17058.45</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="U4" s="1">
-        <v>-764792.53</v>
-      </c>
-      <c r="V4" s="1">
-        <v>6730545.3099999996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1356</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1795117</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1715807</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>449974</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>254114.48000000004</v>
-      </c>
-      <c r="I5" s="3">
-        <v>142</v>
-      </c>
-      <c r="J5" s="3">
-        <v>1014</v>
-      </c>
-      <c r="K5" s="3">
-        <v>269050.90700000001</v>
-      </c>
-      <c r="L5" s="3">
-        <v>1807133</v>
-      </c>
-      <c r="M5" s="3">
-        <v>584.86120000000005</v>
-      </c>
-      <c r="N5" s="3">
-        <v>584.86120000000005</v>
-      </c>
-      <c r="O5" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P5" s="3">
-        <v>14621.53</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-1242357.5</v>
-      </c>
-      <c r="V5" s="1">
-        <v>7208110.2800000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1658</v>
-      </c>
-      <c r="C6" s="3">
-        <v>2194291</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2097345</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>661268</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>375649.95300000004</v>
-      </c>
-      <c r="I6" s="3">
-        <v>196</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1487</v>
-      </c>
-      <c r="K6" s="3">
-        <v>387143.00800000003</v>
-      </c>
-      <c r="L6" s="3">
-        <v>1650070</v>
-      </c>
-      <c r="M6" s="3">
-        <v>487.38440000000003</v>
-      </c>
-      <c r="N6" s="3">
-        <v>487.38440000000003</v>
-      </c>
-      <c r="O6" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P6" s="3">
-        <v>12184.61</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-1741898.23</v>
-      </c>
-      <c r="V6" s="1">
-        <v>7707651.0199999996</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1960</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2594171</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2479558</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>878667</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>500709.77900000004</v>
-      </c>
-      <c r="I7" s="3">
-        <v>250</v>
-      </c>
-      <c r="J7" s="3">
-        <v>1970</v>
-      </c>
-      <c r="K7" s="3">
-        <v>504261.01500000001</v>
-      </c>
-      <c r="L7" s="3">
-        <v>1498325</v>
-      </c>
-      <c r="M7" s="3">
-        <v>389.90719999999999</v>
-      </c>
-      <c r="N7" s="3">
-        <v>389.90719999999999</v>
-      </c>
-      <c r="O7" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P7" s="3">
-        <v>9747.68</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="U7" s="1">
-        <v>-2252717.14</v>
-      </c>
-      <c r="V7" s="1">
-        <v>8218469.9199999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2274</v>
-      </c>
-      <c r="C8" s="3">
-        <v>3010262</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2877266</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1128002</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>612353.66500000004</v>
-      </c>
-      <c r="I8" s="3">
-        <v>294</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2392</v>
-      </c>
-      <c r="K8" s="3">
-        <v>606327.85400000005</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1361342</v>
-      </c>
-      <c r="M8" s="3">
-        <v>292.43040000000002</v>
-      </c>
-      <c r="N8" s="3">
-        <v>292.43040000000002</v>
-      </c>
-      <c r="O8" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P8" s="3">
-        <v>7310.76</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-2771749.42</v>
-      </c>
-      <c r="V8" s="1">
-        <v>8737502.1999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="3">
-        <v>2581</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3415949</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3265029</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1365079</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>735533.86399999994</v>
-      </c>
-      <c r="I9" s="3">
-        <v>345</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2855</v>
-      </c>
-      <c r="K9" s="3">
-        <v>718942.38699999999</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1223222</v>
-      </c>
-      <c r="M9" s="3">
-        <v>194.95359999999999</v>
-      </c>
-      <c r="N9" s="3">
-        <v>194.95359999999999</v>
-      </c>
-      <c r="O9" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P9" s="3">
-        <v>4873.84</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-3298381.3</v>
-      </c>
-      <c r="V9" s="1">
-        <v>9264134.0899999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2900</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3838771</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3669171</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1634460</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>844780.46100000001</v>
-      </c>
-      <c r="I10" s="3">
-        <v>391</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3245</v>
-      </c>
-      <c r="K10" s="3">
-        <v>816071.38199999998</v>
-      </c>
-      <c r="L10" s="3">
-        <v>1099304</v>
-      </c>
-      <c r="M10" s="3">
-        <v>97.476799999999997</v>
-      </c>
-      <c r="N10" s="3">
-        <v>97.476799999999997</v>
-      </c>
-      <c r="O10" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2436.92</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="U10" s="1">
-        <v>-3831654.32</v>
-      </c>
-      <c r="V10" s="1">
-        <v>9797407.0999999996</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3">
-        <v>2900</v>
-      </c>
-      <c r="C11" s="3">
-        <v>3838771</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3669171</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1192888</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>1352662.9700000002</v>
-      </c>
-      <c r="I11" s="3">
-        <v>682</v>
-      </c>
-      <c r="J11" s="3">
-        <v>5425</v>
-      </c>
-      <c r="K11" s="3">
-        <v>1363812.997</v>
-      </c>
-      <c r="L11" s="3">
-        <v>718877</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3">
-        <v>974.76840000000004</v>
-      </c>
-      <c r="P11" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3">
-        <v>24369.21</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11" s="5">
-        <v>1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-4524826.16</v>
-      </c>
-      <c r="V11" s="1">
-        <v>10490578.939999999</v>
+        <v>7.43687591e6</v>
       </c>
     </row>
   </sheetData>
@@ -4799,14 +5581,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC76175F-69C9-46F5-B83D-04A685BBE32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4FBA5-81DA-4DB0-B751-52F486B5E88E}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.35">
+    <row r="1" spans="1:22" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4874,7 +5656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
+    <row r="2" spans="1:22" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4942,7 +5724,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
+    <row r="3" spans="1:22" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5010,7 +5792,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
+    <row r="4" spans="1:22" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5078,7 +5860,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
+    <row r="5" spans="1:22" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5928,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
+    <row r="6" spans="1:22" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5214,7 +5996,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
+    <row r="7" spans="1:22" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -5282,7 +6064,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
+    <row r="8" spans="1:22" dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5350,7 +6132,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
+    <row r="9" spans="1:22" dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5418,7 +6200,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
+    <row r="10" spans="1:22" dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5486,7 +6268,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
+    <row r="11" spans="1:22" dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5560,16 +6342,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FDD844-4800-40BF-AAAF-E247A3423F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2435AA-F490-42DD-8DD9-AD9577A82ABF}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
+    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -5637,7 +6419,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
+    <row r="2" spans="1:22" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5705,7 +6487,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
+    <row r="3" spans="1:22" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5773,7 +6555,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
+    <row r="4" spans="1:22" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5841,7 +6623,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
+    <row r="5" spans="1:22" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -5909,7 +6691,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
+    <row r="6" spans="1:22" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5977,7 +6759,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
+    <row r="7" spans="1:22" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6045,7 +6827,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
+    <row r="8" spans="1:22" dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -6113,7 +6895,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
+    <row r="9" spans="1:22" dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -6181,7 +6963,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
+    <row r="10" spans="1:22" dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -6249,7 +7031,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
+    <row r="11" spans="1:22" dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -6323,14 +7105,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED67EC8-8823-49AF-880B-F2A80A23ED5F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF931F-658B-4DDB-AEE9-99A380D24E12}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.35">
+    <row r="1" spans="1:22" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6398,7 +7180,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
+    <row r="2" spans="1:22" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6466,7 +7248,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
+    <row r="3" spans="1:22" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6534,7 +7316,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
+    <row r="4" spans="1:22" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6602,7 +7384,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
+    <row r="5" spans="1:22" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -6670,7 +7452,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
+    <row r="6" spans="1:22" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -6738,7 +7520,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
+    <row r="7" spans="1:22" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -6806,7 +7588,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
+    <row r="8" spans="1:22" dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -6874,7 +7656,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
+    <row r="9" spans="1:22" dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -6942,7 +7724,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
+    <row r="10" spans="1:22" dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -7010,7 +7792,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
+    <row r="11" spans="1:22" dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7084,19 +7866,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B59858E5-D030-4DB8-8C14-7FED6ABC01D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADAA323-43C5-45F6-AD76-2E6D7D521166}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="58" dyDescent="0.35" s="2" customFormat="1">
+    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -7164,7 +7946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
+    <row r="2" spans="1:22" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7232,7 +8014,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
+    <row r="3" spans="1:22" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7300,7 +8082,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
+    <row r="4" spans="1:22" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7368,7 +8150,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
+    <row r="5" spans="1:22" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -7436,7 +8218,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
+    <row r="6" spans="1:22" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7504,7 +8286,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
+    <row r="7" spans="1:22" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -7572,7 +8354,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
+    <row r="8" spans="1:22" dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -7640,7 +8422,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
+    <row r="9" spans="1:22" dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -7708,7 +8490,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
+    <row r="10" spans="1:22" dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -7776,7 +8558,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
+    <row r="11" spans="1:22" dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7844,10 +8626,10 @@
         <v>6628685.9699999997</v>
       </c>
     </row>
-    <row r="12" spans="1:22" dyDescent="0.35">
+    <row r="12" spans="1:22" dyDescent="0.25">
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" dyDescent="0.35">
+    <row r="13" spans="1:22" dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7858,14 +8640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3362E3-3CF1-4192-BCB0-5A02C3DED047}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823D2B4-58A8-4575-B987-B50A0B911031}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.35">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7957,7 +8739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8049,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8141,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8233,7 +9015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" dyDescent="0.35">
+    <row r="5" spans="1:30" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8325,7 +9107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" dyDescent="0.35">
+    <row r="6" spans="1:30" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8423,19 +9205,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07A83216-A95D-4978-933C-FD0DF65CDF1E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C74D3-3B30-4482-8369-7CB47B714AB8}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="28" max="28" width="10.90625" style="5"/>
+    <col min="28" max="28" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.35">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8527,7 +9309,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.35">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8619,7 +9401,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.35">
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8711,7 +9493,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.35">
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8803,7 +9585,7 @@
         <v>8569721.6500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:30" dyDescent="0.35">
+    <row r="5" spans="1:30" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -8895,7 +9677,7 @@
         <v>11319914.380000001</v>
       </c>
     </row>
-    <row r="6" spans="1:30" dyDescent="0.35">
+    <row r="6" spans="1:30" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -8993,19 +9775,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E747F270-801F-4C2D-B02D-D3767742756A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61992C23-4C49-42A2-99A3-3EFFE681E7F4}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="21" max="21" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.35">
+    <row r="1" spans="1:22" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9073,7 +9855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.35">
+    <row r="2" spans="1:22" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9141,7 +9923,7 @@
         <v>6136332.8399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.35">
+    <row r="3" spans="1:22" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -9209,7 +9991,7 @@
         <v>6394248.5499999998</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.35">
+    <row r="4" spans="1:22" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9277,7 +10059,7 @@
         <v>6531112.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.35">
+    <row r="5" spans="1:22" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -9345,7 +10127,7 @@
         <v>6732116.8099999996</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.35">
+    <row r="6" spans="1:22" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9413,7 +10195,7 @@
         <v>6933297.8200000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.35">
+    <row r="7" spans="1:22" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -9481,7 +10263,7 @@
         <v>7134587.9800000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.35">
+    <row r="8" spans="1:22" dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -9549,7 +10331,7 @@
         <v>7698932.6399999997</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.35">
+    <row r="9" spans="1:22" dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9617,7 +10399,7 @@
         <v>8423445.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.35">
+    <row r="10" spans="1:22" dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -9685,7 +10467,7 @@
         <v>9202458.9600000009</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.35">
+    <row r="11" spans="1:22" dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6A876D-E98D-4EAC-A744-DF8416E231B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F0D1C-5606-406D-8780-81D851A66BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,20 @@
     <sheet name="CermakA_11" sheetId="17" r:id="rId17"/>
     <sheet name="MarkhamA_1" sheetId="18" r:id="rId18"/>
     <sheet name="CermakA_12" sheetId="19" r:id="rId19"/>
-    <sheet name="CermakA_13" r:id="rId23" sheetId="20"/>
+    <sheet name="CermakA_13" sheetId="20" r:id="rId20"/>
+    <sheet name="CermakA_14" sheetId="21" r:id="rId21"/>
+    <sheet name="CermakA_15" sheetId="22" r:id="rId22"/>
+    <sheet name="CermakA_16" sheetId="23" r:id="rId23"/>
+    <sheet name="MarkhamA_2" sheetId="24" r:id="rId24"/>
+    <sheet name="ProvidentA_10" sheetId="25" r:id="rId25"/>
+    <sheet name="CermakA_17" sheetId="26" r:id="rId26"/>
+    <sheet name="MarkhamA_3" sheetId="27" r:id="rId27"/>
+    <sheet name="ProvidentA_11" sheetId="28" r:id="rId28"/>
+    <sheet name="CermakA_18" sheetId="29" r:id="rId29"/>
+    <sheet name="MarkhamA_4" sheetId="30" r:id="rId30"/>
+    <sheet name="CermakA_19" r:id="rId34" sheetId="31"/>
+    <sheet name="MarkhamA_5" r:id="rId35" sheetId="32"/>
+    <sheet name="ProvdientA_2" r:id="rId36" sheetId="33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -44,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>City</t>
   </si>
@@ -173,6 +186,21 @@
   </si>
   <si>
     <t>outage durations = 8, 16, 24 hour durations</t>
+  </si>
+  <si>
+    <t>Generator_size</t>
+  </si>
+  <si>
+    <t>Generator_annual_fuel_consumption</t>
+  </si>
+  <si>
+    <t>Generator_annual_energy_produced</t>
+  </si>
+  <si>
+    <t>Generator_size_kw</t>
+  </si>
+  <si>
+    <t>Battery_initial_capex_cost</t>
   </si>
 </sst>
 </file>
@@ -514,7 +542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10F44987-8967-4F82-B499-B08EE46AADA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1CCC17-14D7-4D66-BC8D-DD8663B10AF4}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -526,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{186E2A5B-B098-48A5-BC5B-582E1D2D8F5A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10272B7E-4F89-435D-93C4-8A0CF33D0D9E}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -907,7 +935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AD512D-EE06-4A1B-A754-341FAFD27C50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13AFB-273F-439D-9595-5E13EFB7467F}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1288,7 +1316,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9F526AE-2CA5-41A2-88DF-4CC4C4F8E2CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E012F0-390D-4897-B237-4CE0E7A0181F}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1669,7 +1697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BF5A63-9179-449E-9504-7BA1562FB978}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B7139B-D2D1-4ABE-BA1A-F2DEDCB25DC1}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2075,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B085B3-AC50-4D7A-87EA-0BCBC3515858}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221D8A2C-41ED-411F-B338-51A8A50EABCE}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2479,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5817BE38-6650-40FC-A588-8A41483F30AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F245E-E83E-4EBA-B3A7-4B3620D2E2A1}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2884,7 +2912,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89D4DBC8-23FC-4879-88ED-4DE38D637482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF486877-1F5F-4B4C-A437-9B52C4215B35}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3265,7 +3293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C039C6BB-C701-49A9-84B8-77669F5B192E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52602D4D-F299-472C-AB63-14637D78AE96}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3646,7 +3674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D71AFD2-4444-411C-B7A3-7BD27CC2B07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939F298-9477-4D54-BE3C-0E156555AA9C}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4027,10 +4055,10 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A73001-1384-4C5A-BA55-6E9699C086D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E186615-0987-4D37-9B2A-25313CBB2735}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -4425,7 +4453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A99ECDBF-DC42-4DB5-9B60-9F881A8C05B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495CD5A-729E-426F-A992-19975BE302FC}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5200,14 +5228,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C88CB5-C289-4EE8-91B3-A2D262E5B864}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5299,51 +5327,51 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D2">
-        <v>31631.0</v>
+        <v>31631</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2892.452</v>
+        <v>2892.4520000000002</v>
       </c>
       <c r="I2">
-        <v>204.0</v>
+        <v>204</v>
       </c>
       <c r="J2">
-        <v>1532.0</v>
+        <v>1532</v>
       </c>
       <c r="K2">
-        <v>40750.753</v>
+        <v>40750.752999999997</v>
       </c>
       <c r="L2">
-        <v>3.015398e6</v>
+        <v>3015398</v>
       </c>
       <c r="M2">
-        <v>974.7676</v>
+        <v>974.76760000000002</v>
       </c>
       <c r="N2">
-        <v>974.7676</v>
+        <v>974.76760000000002</v>
       </c>
       <c r="O2">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P2">
         <v>24369.19</v>
@@ -5352,13 +5380,13 @@
         <v>24369.21</v>
       </c>
       <c r="R2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>42449.42</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>983597.42</v>
@@ -5376,7 +5404,7 @@
         <v>610681.99</v>
       </c>
       <c r="Z2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>31337.37</v>
@@ -5385,57 +5413,57 @@
         <v>0.01</v>
       </c>
       <c r="AC2">
-        <v>-544848.07</v>
+        <v>-544848.06999999995</v>
       </c>
       <c r="AD2">
-        <v>6.52940404e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="C3">
-        <v>231650.0</v>
+        <v>231650</v>
       </c>
       <c r="D3">
-        <v>221416.0</v>
+        <v>221416</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>35368.813</v>
+        <v>35368.813000000002</v>
       </c>
       <c r="I3">
-        <v>186.0</v>
+        <v>186</v>
       </c>
       <c r="J3">
-        <v>2630.0</v>
+        <v>2630</v>
       </c>
       <c r="K3">
         <v>79483.80799999999</v>
       </c>
       <c r="L3">
-        <v>2.829639e6</v>
+        <v>2829639</v>
       </c>
       <c r="M3">
-        <v>923.6536</v>
+        <v>923.65359999999998</v>
       </c>
       <c r="N3">
-        <v>923.6536</v>
+        <v>923.65359999999998</v>
       </c>
       <c r="O3">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P3">
         <v>23091.34</v>
@@ -5447,13 +5475,13 @@
         <v>0.05</v>
       </c>
       <c r="S3">
-        <v>297145.91</v>
+        <v>297145.90999999997</v>
       </c>
       <c r="T3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>2.07251331e6</v>
+        <v>2072513.31</v>
       </c>
       <c r="V3">
         <v>979362.5</v>
@@ -5462,72 +5490,72 @@
         <v>317202.52</v>
       </c>
       <c r="X3">
-        <v>40979.95</v>
+        <v>40979.949999999997</v>
       </c>
       <c r="Y3">
         <v>586975.47</v>
       </c>
       <c r="Z3">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>217827.64</v>
       </c>
       <c r="AB3">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC3">
         <v>-951378.55</v>
       </c>
       <c r="AD3">
-        <v>6.95788434e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>6957884.3399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="C4">
-        <v>231650.0</v>
+        <v>231650</v>
       </c>
       <c r="D4">
-        <v>221416.0</v>
+        <v>221416</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>35568.172999999995</v>
       </c>
       <c r="I4">
-        <v>188.0</v>
+        <v>188</v>
       </c>
       <c r="J4">
-        <v>4005.0</v>
+        <v>4005</v>
       </c>
       <c r="K4">
-        <v>86324.999</v>
+        <v>86324.998999999996</v>
       </c>
       <c r="L4">
-        <v>2.829976e6</v>
+        <v>2829976</v>
       </c>
       <c r="M4">
-        <v>923.7276</v>
+        <v>923.72760000000005</v>
       </c>
       <c r="N4">
-        <v>923.7276</v>
+        <v>923.72760000000005</v>
       </c>
       <c r="O4">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="P4">
         <v>23093.19</v>
@@ -5539,19 +5567,19 @@
         <v>0.05</v>
       </c>
       <c r="S4">
-        <v>297145.91</v>
+        <v>297145.90999999997</v>
       </c>
       <c r="T4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>2.69934477e6</v>
+        <v>2699344.77</v>
       </c>
       <c r="V4">
-        <v>1.31338647e6</v>
+        <v>1313386.47</v>
       </c>
       <c r="W4">
-        <v>317240.32</v>
+        <v>317240.32000000001</v>
       </c>
       <c r="X4">
         <v>40824.83</v>
@@ -5560,19 +5588,3716 @@
         <v>586858.15</v>
       </c>
       <c r="Z4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AA4">
         <v>217807.42</v>
       </c>
       <c r="AB4">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AC4">
-        <v>-1.41101254e6</v>
+        <v>-1411012.54</v>
       </c>
       <c r="AD4">
-        <v>7.43687591e6</v>
+        <v>7436875.9100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4688C147-FDE1-4E97-911E-CD1C8A9D454D}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:30" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>2892.4520000000002</v>
+      </c>
+      <c r="I2">
+        <v>204</v>
+      </c>
+      <c r="J2">
+        <v>1532</v>
+      </c>
+      <c r="K2">
+        <v>40750.752999999997</v>
+      </c>
+      <c r="L2">
+        <v>3015398</v>
+      </c>
+      <c r="M2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="N2">
+        <v>974.76760000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24369.19</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>42449.42</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>983597.42</v>
+      </c>
+      <c r="V2">
+        <v>462308.36</v>
+      </c>
+      <c r="W2">
+        <v>338026.17</v>
+      </c>
+      <c r="X2">
+        <v>43862.82</v>
+      </c>
+      <c r="Y2">
+        <v>610681.99</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31337.37</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2">
+        <v>-544848.06999999995</v>
+      </c>
+      <c r="AD2">
+        <v>6529404.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>175</v>
+      </c>
+      <c r="C3">
+        <v>231650</v>
+      </c>
+      <c r="D3">
+        <v>221416</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>35368.813000000002</v>
+      </c>
+      <c r="I3">
+        <v>186</v>
+      </c>
+      <c r="J3">
+        <v>2630</v>
+      </c>
+      <c r="K3">
+        <v>79483.80799999999</v>
+      </c>
+      <c r="L3">
+        <v>2829639</v>
+      </c>
+      <c r="M3">
+        <v>923.65359999999998</v>
+      </c>
+      <c r="N3">
+        <v>923.65359999999998</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>23091.34</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3">
+        <v>0.05</v>
+      </c>
+      <c r="S3">
+        <v>297145.90999999997</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>2072513.31</v>
+      </c>
+      <c r="V3">
+        <v>979362.5</v>
+      </c>
+      <c r="W3">
+        <v>317202.52</v>
+      </c>
+      <c r="X3">
+        <v>40979.949999999997</v>
+      </c>
+      <c r="Y3">
+        <v>586975.47</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>217827.64</v>
+      </c>
+      <c r="AB3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC3">
+        <v>-951378.55</v>
+      </c>
+      <c r="AD3">
+        <v>6957884.3399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>175</v>
+      </c>
+      <c r="C4">
+        <v>231650</v>
+      </c>
+      <c r="D4">
+        <v>221416</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>35568.172999999995</v>
+      </c>
+      <c r="I4">
+        <v>188</v>
+      </c>
+      <c r="J4">
+        <v>4005</v>
+      </c>
+      <c r="K4">
+        <v>86324.998999999996</v>
+      </c>
+      <c r="L4">
+        <v>2829976</v>
+      </c>
+      <c r="M4">
+        <v>923.72760000000005</v>
+      </c>
+      <c r="N4">
+        <v>923.72760000000005</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>23093.19</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4">
+        <v>0.05</v>
+      </c>
+      <c r="S4">
+        <v>297145.90999999997</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>2699344.77</v>
+      </c>
+      <c r="V4">
+        <v>1313386.47</v>
+      </c>
+      <c r="W4">
+        <v>317240.32000000001</v>
+      </c>
+      <c r="X4">
+        <v>40824.83</v>
+      </c>
+      <c r="Y4">
+        <v>586858.15</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>217807.42</v>
+      </c>
+      <c r="AB4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AC4">
+        <v>-1411012.54</v>
+      </c>
+      <c r="AD4">
+        <v>7436875.9100000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEE5820-F897-4A9A-84D7-6EC385E67ACA}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2:AD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2">
+        <v>3011330</v>
+      </c>
+      <c r="M2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="N2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="O2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P2">
+        <v>24213.37</v>
+      </c>
+      <c r="Q2">
+        <v>24369.21</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S2">
+        <v>160073.42000000001</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>249405.08</v>
+      </c>
+      <c r="V2">
+        <v>171877.89</v>
+      </c>
+      <c r="W2">
+        <v>337570.09</v>
+      </c>
+      <c r="X2">
+        <v>50286.34</v>
+      </c>
+      <c r="Y2">
+        <v>616649.43000000005</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>31607.73</v>
+      </c>
+      <c r="AB2">
+        <v>0.01</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-144035.66</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6128591.6200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>52158</v>
+      </c>
+      <c r="D3">
+        <v>49854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>172.76300000000001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L3">
+        <v>2993088</v>
+      </c>
+      <c r="M3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="N3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="O3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P3">
+        <v>24123.42</v>
+      </c>
+      <c r="Q3">
+        <v>24369.21</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S3">
+        <v>190890.6</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>304624.52</v>
+      </c>
+      <c r="V3">
+        <v>199434.86</v>
+      </c>
+      <c r="W3">
+        <v>335525.13</v>
+      </c>
+      <c r="X3">
+        <v>50250.12</v>
+      </c>
+      <c r="Y3">
+        <v>614568.25</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>49836.5</v>
+      </c>
+      <c r="AB3">
+        <v>0.02</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-132257.9</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>6138763.6900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>52158</v>
+      </c>
+      <c r="D4">
+        <v>49854</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L4">
+        <v>2993088</v>
+      </c>
+      <c r="M4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="N4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="O4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="P4">
+        <v>24123.42</v>
+      </c>
+      <c r="Q4">
+        <v>24369.21</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="S4">
+        <v>190890.6</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>304624.52</v>
+      </c>
+      <c r="V4">
+        <v>199434.86</v>
+      </c>
+      <c r="W4">
+        <v>335525.13</v>
+      </c>
+      <c r="X4">
+        <v>50250.12</v>
+      </c>
+      <c r="Y4">
+        <v>614568.25</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>49838.89</v>
+      </c>
+      <c r="AB4">
+        <v>0.02</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-113332.79</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>6139196.1600000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D5BD06-5749-4630-84BA-F2166A75C175}">
+  <dimension ref="A1:AG4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2" s="3">
+        <v>180.96</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>3011330</v>
+      </c>
+      <c r="P2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="Q2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="R2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="S2">
+        <v>24213.37</v>
+      </c>
+      <c r="T2">
+        <v>24369.21</v>
+      </c>
+      <c r="U2">
+        <v>0.01</v>
+      </c>
+      <c r="V2">
+        <v>160073.42000000001</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>249405.08</v>
+      </c>
+      <c r="Y2">
+        <v>171877.89</v>
+      </c>
+      <c r="Z2">
+        <v>337570.09</v>
+      </c>
+      <c r="AA2">
+        <v>50286.34</v>
+      </c>
+      <c r="AB2">
+        <v>616649.43000000005</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>31607.73</v>
+      </c>
+      <c r="AE2">
+        <v>0.01</v>
+      </c>
+      <c r="AF2">
+        <v>-144035.66</v>
+      </c>
+      <c r="AG2">
+        <v>6128591.6200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>52158</v>
+      </c>
+      <c r="D3">
+        <v>49854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>172.76300000000001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3" s="3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L3" s="3">
+        <v>190.75</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>2993088</v>
+      </c>
+      <c r="P3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="Q3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="S3">
+        <v>24123.42</v>
+      </c>
+      <c r="T3">
+        <v>24369.21</v>
+      </c>
+      <c r="U3">
+        <v>0.01</v>
+      </c>
+      <c r="V3">
+        <v>190890.6</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>304624.52</v>
+      </c>
+      <c r="Y3">
+        <v>199434.86</v>
+      </c>
+      <c r="Z3">
+        <v>335525.13</v>
+      </c>
+      <c r="AA3">
+        <v>50250.12</v>
+      </c>
+      <c r="AB3">
+        <v>614568.25</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>49836.5</v>
+      </c>
+      <c r="AE3">
+        <v>0.02</v>
+      </c>
+      <c r="AF3">
+        <v>-132257.9</v>
+      </c>
+      <c r="AG3">
+        <v>6138763.6900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>52158</v>
+      </c>
+      <c r="D4">
+        <v>49854</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4" s="3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L4" s="3">
+        <v>190.75</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>2993088</v>
+      </c>
+      <c r="P4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="Q4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="S4">
+        <v>24123.42</v>
+      </c>
+      <c r="T4">
+        <v>24369.21</v>
+      </c>
+      <c r="U4">
+        <v>0.01</v>
+      </c>
+      <c r="V4">
+        <v>190890.6</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>304624.52</v>
+      </c>
+      <c r="Y4">
+        <v>199434.86</v>
+      </c>
+      <c r="Z4">
+        <v>335525.13</v>
+      </c>
+      <c r="AA4">
+        <v>50250.12</v>
+      </c>
+      <c r="AB4">
+        <v>614568.25</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>49838.89</v>
+      </c>
+      <c r="AE4">
+        <v>0.02</v>
+      </c>
+      <c r="AF4">
+        <v>-113332.79</v>
+      </c>
+      <c r="AG4">
+        <v>6139196.1600000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01A6B4-8D42-4E15-8078-3B83305CA44A}">
+  <dimension ref="A1:AD4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1486</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1967039</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1880133</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>28685</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>117347.66699999999</v>
+      </c>
+      <c r="I2" s="3">
+        <v>355</v>
+      </c>
+      <c r="J2" s="3">
+        <v>1854</v>
+      </c>
+      <c r="K2" s="3">
+        <v>141040.44500000001</v>
+      </c>
+      <c r="L2" s="3">
+        <v>2723692</v>
+      </c>
+      <c r="M2" s="3">
+        <v>872.51160000000004</v>
+      </c>
+      <c r="N2" s="3">
+        <v>872.51160000000004</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P2" s="3">
+        <v>21812.79</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R2" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1587289.92</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
+        <v>4165840.93</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2121030.17</v>
+      </c>
+      <c r="W2" s="1">
+        <v>317310.15000000002</v>
+      </c>
+      <c r="X2" s="1">
+        <v>85438.33</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>421931.48</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>1606</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>1868229.76</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>-1130499.54</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>6691400.0899999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1486</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1967039</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1880133</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>21745</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>163773.07500000001</v>
+      </c>
+      <c r="I3" s="3">
+        <v>401</v>
+      </c>
+      <c r="J3" s="3">
+        <v>2058</v>
+      </c>
+      <c r="K3" s="3">
+        <v>216851.55</v>
+      </c>
+      <c r="L3" s="3">
+        <v>2725246</v>
+      </c>
+      <c r="M3" s="3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="N3" s="3">
+        <v>853.50360000000001</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P3" s="3">
+        <v>21337.59</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R3" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1587289.92</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4300447.2</v>
+      </c>
+      <c r="V3" s="1">
+        <v>2181306.19</v>
+      </c>
+      <c r="W3" s="1">
+        <v>317491.18</v>
+      </c>
+      <c r="X3" s="1">
+        <v>83715.95</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>420390.13</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1218</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>1863520.37</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>-1171831.48</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>6773209.0899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1486</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1967039</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1880133</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>11096</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>438864.69400000002</v>
+      </c>
+      <c r="I4" s="3">
+        <v>401</v>
+      </c>
+      <c r="J4" s="3">
+        <v>2864</v>
+      </c>
+      <c r="K4" s="3">
+        <v>727260.51</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2771963</v>
+      </c>
+      <c r="M4" s="3">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="N4" s="3">
+        <v>746.81560000000002</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="P4" s="3">
+        <v>18670.39</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>26671.98</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1587289.92</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4667216.17</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2376958.1800000002</v>
+      </c>
+      <c r="W4" s="1">
+        <v>322933.73</v>
+      </c>
+      <c r="X4" s="1">
+        <v>108688.12</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>450804.85</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>621</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>1835615.06</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>-1731088.5</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>7351472.5199999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7631D23-3A2D-4B4C-9B09-557DE99E7C27}">
+  <dimension ref="A1:AG4"/>
+  <sheetViews>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:33" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>50639</v>
+      </c>
+      <c r="D2">
+        <v>48402</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>65.358000000000004</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L2">
+        <v>11323322</v>
+      </c>
+      <c r="M2">
+        <v>808.23</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="Q2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R2">
+        <v>3641.0904</v>
+      </c>
+      <c r="S2">
+        <v>90788.67</v>
+      </c>
+      <c r="T2">
+        <v>91027.26</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>590306.34</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>694245.1</v>
+      </c>
+      <c r="Y2">
+        <v>595639.43000000005</v>
+      </c>
+      <c r="Z2">
+        <v>1319167.04</v>
+      </c>
+      <c r="AA2">
+        <v>220602.28</v>
+      </c>
+      <c r="AB2">
+        <v>1558952.32</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>48395.35</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>-601719.55000000005</v>
+      </c>
+      <c r="AG2">
+        <v>15703993.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>50639</v>
+      </c>
+      <c r="D3">
+        <v>48402</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>75.307000000000002</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L3">
+        <v>11323322</v>
+      </c>
+      <c r="M3">
+        <v>868.65</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="Q3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R3">
+        <v>3641.0904</v>
+      </c>
+      <c r="S3">
+        <v>90788.67</v>
+      </c>
+      <c r="T3">
+        <v>91027.26</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>629582.59</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>733521.35</v>
+      </c>
+      <c r="Y3">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="Z3">
+        <v>1319167.04</v>
+      </c>
+      <c r="AA3">
+        <v>220602.28</v>
+      </c>
+      <c r="AB3">
+        <v>1558952.32</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>48394.34</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>-566729.71</v>
+      </c>
+      <c r="AG3">
+        <v>15757096.460000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>50639</v>
+      </c>
+      <c r="D4">
+        <v>48402</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>70.024000000000001</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L4">
+        <v>11323322</v>
+      </c>
+      <c r="M4">
+        <v>868.66</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="Q4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R4">
+        <v>3641.0904</v>
+      </c>
+      <c r="S4">
+        <v>90788.67</v>
+      </c>
+      <c r="T4">
+        <v>91027.26</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>629582.59</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>733521.35</v>
+      </c>
+      <c r="Y4">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="Z4">
+        <v>1319167.04</v>
+      </c>
+      <c r="AA4">
+        <v>220602.28</v>
+      </c>
+      <c r="AB4">
+        <v>1558952.32</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>48394.87</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>-484663.97</v>
+      </c>
+      <c r="AG4">
+        <v>15759016.710000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC737FC0-38E9-4EEC-BBCB-2E38A08718FC}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2">
+        <v>30885</v>
+      </c>
+      <c r="M2">
+        <v>181</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3011330</v>
+      </c>
+      <c r="Q2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="R2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="S2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T2">
+        <v>24213.37</v>
+      </c>
+      <c r="U2">
+        <v>24369.21</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>160073.42000000001</v>
+      </c>
+      <c r="X2">
+        <v>19491.75</v>
+      </c>
+      <c r="Y2">
+        <v>249405.08</v>
+      </c>
+      <c r="Z2">
+        <v>171877.89</v>
+      </c>
+      <c r="AA2">
+        <v>337570.09</v>
+      </c>
+      <c r="AB2">
+        <v>50286.34</v>
+      </c>
+      <c r="AC2">
+        <v>616649.43000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>31607.73</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>-144035.66</v>
+      </c>
+      <c r="AH2">
+        <v>6128591.6200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>52158</v>
+      </c>
+      <c r="D3">
+        <v>49854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>172.76300000000001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L3">
+        <v>21608</v>
+      </c>
+      <c r="M3">
+        <v>191</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2993088</v>
+      </c>
+      <c r="Q3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T3">
+        <v>24123.42</v>
+      </c>
+      <c r="U3">
+        <v>24369.21</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>190890.6</v>
+      </c>
+      <c r="X3">
+        <v>13893.38</v>
+      </c>
+      <c r="Y3">
+        <v>304624.52</v>
+      </c>
+      <c r="Z3">
+        <v>199434.86</v>
+      </c>
+      <c r="AA3">
+        <v>335525.13</v>
+      </c>
+      <c r="AB3">
+        <v>50250.12</v>
+      </c>
+      <c r="AC3">
+        <v>614568.25</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>49836.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>-132257.9</v>
+      </c>
+      <c r="AH3">
+        <v>6138763.6900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>52158</v>
+      </c>
+      <c r="D4">
+        <v>49854</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L4">
+        <v>21608</v>
+      </c>
+      <c r="M4">
+        <v>191</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2993088</v>
+      </c>
+      <c r="Q4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T4">
+        <v>24123.42</v>
+      </c>
+      <c r="U4">
+        <v>24369.21</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>190890.6</v>
+      </c>
+      <c r="X4">
+        <v>13893.38</v>
+      </c>
+      <c r="Y4">
+        <v>304624.52</v>
+      </c>
+      <c r="Z4">
+        <v>199434.86</v>
+      </c>
+      <c r="AA4">
+        <v>335525.13</v>
+      </c>
+      <c r="AB4">
+        <v>50250.12</v>
+      </c>
+      <c r="AC4">
+        <v>614568.25</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>49838.89</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>-113332.79</v>
+      </c>
+      <c r="AH4">
+        <v>6139196.1600000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0653974D-B8DF-4C0E-B54F-F62E59D81248}">
+  <dimension ref="A1:AE18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>1486</v>
+      </c>
+      <c r="C2">
+        <v>1967039</v>
+      </c>
+      <c r="D2">
+        <v>1880133</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>28685</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>118704.246</v>
+      </c>
+      <c r="I2">
+        <v>355</v>
+      </c>
+      <c r="J2">
+        <v>1854</v>
+      </c>
+      <c r="K2">
+        <v>141040.44500000001</v>
+      </c>
+      <c r="L2">
+        <v>1167093.2</v>
+      </c>
+      <c r="M2">
+        <v>2723692</v>
+      </c>
+      <c r="N2">
+        <v>872.51160000000004</v>
+      </c>
+      <c r="O2">
+        <v>872.51160000000004</v>
+      </c>
+      <c r="P2">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q2">
+        <v>21812.79</v>
+      </c>
+      <c r="R2">
+        <v>26671.98</v>
+      </c>
+      <c r="S2">
+        <v>0.18</v>
+      </c>
+      <c r="T2">
+        <v>1587289.92</v>
+      </c>
+      <c r="U2">
+        <v>815036.81</v>
+      </c>
+      <c r="V2">
+        <v>4165840.93</v>
+      </c>
+      <c r="W2">
+        <v>2121030.17</v>
+      </c>
+      <c r="X2">
+        <v>317310.15000000002</v>
+      </c>
+      <c r="Y2">
+        <v>85438.33</v>
+      </c>
+      <c r="Z2">
+        <v>421931.48</v>
+      </c>
+      <c r="AA2">
+        <v>1606</v>
+      </c>
+      <c r="AB2">
+        <v>1868092.15</v>
+      </c>
+      <c r="AC2">
+        <v>0.41</v>
+      </c>
+      <c r="AD2">
+        <v>-1130499.54</v>
+      </c>
+      <c r="AE2">
+        <v>6691400.0899999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1486</v>
+      </c>
+      <c r="C3">
+        <v>1967039</v>
+      </c>
+      <c r="D3">
+        <v>1880133</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>21752</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>125566.465</v>
+      </c>
+      <c r="I3">
+        <v>401</v>
+      </c>
+      <c r="J3">
+        <v>2058</v>
+      </c>
+      <c r="K3">
+        <v>155115.64299999998</v>
+      </c>
+      <c r="L3">
+        <v>1301700.3999999999</v>
+      </c>
+      <c r="M3">
+        <v>2718284</v>
+      </c>
+      <c r="N3">
+        <v>872.89880000000005</v>
+      </c>
+      <c r="O3">
+        <v>872.89880000000005</v>
+      </c>
+      <c r="P3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q3">
+        <v>21822.47</v>
+      </c>
+      <c r="R3">
+        <v>26671.98</v>
+      </c>
+      <c r="S3">
+        <v>0.18</v>
+      </c>
+      <c r="T3">
+        <v>1587289.92</v>
+      </c>
+      <c r="U3">
+        <v>907891.21</v>
+      </c>
+      <c r="V3">
+        <v>4300447.2</v>
+      </c>
+      <c r="W3">
+        <v>2181306.19</v>
+      </c>
+      <c r="X3">
+        <v>316680.05</v>
+      </c>
+      <c r="Y3">
+        <v>83715.95</v>
+      </c>
+      <c r="Z3">
+        <v>419579</v>
+      </c>
+      <c r="AA3">
+        <v>1218</v>
+      </c>
+      <c r="AB3">
+        <v>1867396.05</v>
+      </c>
+      <c r="AC3">
+        <v>0.41</v>
+      </c>
+      <c r="AD3">
+        <v>-1164055.3899999999</v>
+      </c>
+      <c r="AE3">
+        <v>6765433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>1486</v>
+      </c>
+      <c r="C4">
+        <v>1967039</v>
+      </c>
+      <c r="D4">
+        <v>1880133</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>5795</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>143010.32500000001</v>
+      </c>
+      <c r="I4">
+        <v>401</v>
+      </c>
+      <c r="J4">
+        <v>2864</v>
+      </c>
+      <c r="K4">
+        <v>211486.65899999999</v>
+      </c>
+      <c r="L4">
+        <v>1668471.35</v>
+      </c>
+      <c r="M4">
+        <v>2708436</v>
+      </c>
+      <c r="N4">
+        <v>878.54520000000002</v>
+      </c>
+      <c r="O4">
+        <v>878.54520000000002</v>
+      </c>
+      <c r="P4">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q4">
+        <v>21963.63</v>
+      </c>
+      <c r="R4">
+        <v>26671.98</v>
+      </c>
+      <c r="S4">
+        <v>0.18</v>
+      </c>
+      <c r="T4">
+        <v>1587289.92</v>
+      </c>
+      <c r="U4">
+        <v>1189001.73</v>
+      </c>
+      <c r="V4">
+        <v>4667216.17</v>
+      </c>
+      <c r="W4">
+        <v>2376958.1800000002</v>
+      </c>
+      <c r="X4">
+        <v>315532.79999999999</v>
+      </c>
+      <c r="Y4">
+        <v>77275.38</v>
+      </c>
+      <c r="Z4">
+        <v>411991.18</v>
+      </c>
+      <c r="AA4">
+        <v>325</v>
+      </c>
+      <c r="AB4">
+        <v>1865626.54</v>
+      </c>
+      <c r="AC4">
+        <v>0.41</v>
+      </c>
+      <c r="AD4">
+        <v>-1362013.89</v>
+      </c>
+      <c r="AE4">
+        <v>6982397.9199999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" dyDescent="0.25">
+      <c r="G18">
+        <v>1486</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF4FE7C-7938-476B-AC78-7EBDE5CC47D5}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>50639</v>
+      </c>
+      <c r="D2">
+        <v>48402</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>65.358000000000004</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L2">
+        <v>14496</v>
+      </c>
+      <c r="M2">
+        <v>11323322</v>
+      </c>
+      <c r="N2">
+        <v>808</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90788.67</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>590306.34</v>
+      </c>
+      <c r="X2">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y2">
+        <v>694245.1</v>
+      </c>
+      <c r="Z2">
+        <v>595639.43000000005</v>
+      </c>
+      <c r="AA2">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB2">
+        <v>220602.28</v>
+      </c>
+      <c r="AC2">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>48395.35</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>-601719.55000000005</v>
+      </c>
+      <c r="AH2">
+        <v>15703993.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>50639</v>
+      </c>
+      <c r="D3">
+        <v>48402</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>75.307000000000002</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L3">
+        <v>14496</v>
+      </c>
+      <c r="M3">
+        <v>11323322</v>
+      </c>
+      <c r="N3">
+        <v>869</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90788.67</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>629582.59</v>
+      </c>
+      <c r="X3">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y3">
+        <v>733521.35</v>
+      </c>
+      <c r="Z3">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="AA3">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB3">
+        <v>220602.28</v>
+      </c>
+      <c r="AC3">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>48394.34</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-566729.71</v>
+      </c>
+      <c r="AH3">
+        <v>15757096.460000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>50639</v>
+      </c>
+      <c r="D4">
+        <v>48402</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>70.024000000000001</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L4">
+        <v>14496</v>
+      </c>
+      <c r="M4">
+        <v>11323322</v>
+      </c>
+      <c r="N4">
+        <v>869</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90788.67</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>629582.59</v>
+      </c>
+      <c r="X4">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y4">
+        <v>733521.35</v>
+      </c>
+      <c r="Z4">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="AA4">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB4">
+        <v>220602.28</v>
+      </c>
+      <c r="AC4">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>48394.87</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-484663.97</v>
+      </c>
+      <c r="AH4">
+        <v>15759016.710000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20094AAF-74BB-414B-A137-1F8048777FAA}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2">
+        <v>30885</v>
+      </c>
+      <c r="M2">
+        <v>181</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3011330</v>
+      </c>
+      <c r="Q2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="R2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="S2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T2">
+        <v>24213.37</v>
+      </c>
+      <c r="U2">
+        <v>24369.21</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>160073.42000000001</v>
+      </c>
+      <c r="X2">
+        <v>19491.75</v>
+      </c>
+      <c r="Y2">
+        <v>249405.08</v>
+      </c>
+      <c r="Z2">
+        <v>171877.89</v>
+      </c>
+      <c r="AA2">
+        <v>337570.09</v>
+      </c>
+      <c r="AB2">
+        <v>50286.34</v>
+      </c>
+      <c r="AC2">
+        <v>616649.43000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>31607.73</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>-144035.66</v>
+      </c>
+      <c r="AH2">
+        <v>6128591.6200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>52158</v>
+      </c>
+      <c r="D3">
+        <v>49854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>172.76300000000001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L3">
+        <v>21608</v>
+      </c>
+      <c r="M3">
+        <v>191</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2993088</v>
+      </c>
+      <c r="Q3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T3">
+        <v>24123.42</v>
+      </c>
+      <c r="U3">
+        <v>24369.21</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>190890.6</v>
+      </c>
+      <c r="X3">
+        <v>13893.38</v>
+      </c>
+      <c r="Y3">
+        <v>304624.52</v>
+      </c>
+      <c r="Z3">
+        <v>199434.86</v>
+      </c>
+      <c r="AA3">
+        <v>335525.13</v>
+      </c>
+      <c r="AB3">
+        <v>50250.12</v>
+      </c>
+      <c r="AC3">
+        <v>614568.25</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>49836.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>-132257.9</v>
+      </c>
+      <c r="AH3">
+        <v>6138763.6900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>52158</v>
+      </c>
+      <c r="D4">
+        <v>49854</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L4">
+        <v>21608</v>
+      </c>
+      <c r="M4">
+        <v>191</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2993088</v>
+      </c>
+      <c r="Q4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T4">
+        <v>24123.42</v>
+      </c>
+      <c r="U4">
+        <v>24369.21</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>190890.6</v>
+      </c>
+      <c r="X4">
+        <v>13893.38</v>
+      </c>
+      <c r="Y4">
+        <v>304624.52</v>
+      </c>
+      <c r="Z4">
+        <v>199434.86</v>
+      </c>
+      <c r="AA4">
+        <v>335525.13</v>
+      </c>
+      <c r="AB4">
+        <v>50250.12</v>
+      </c>
+      <c r="AC4">
+        <v>614568.25</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>49838.89</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>-113332.79</v>
+      </c>
+      <c r="AH4">
+        <v>6139196.1600000001</v>
       </c>
     </row>
   </sheetData>
@@ -5581,7 +9306,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4FBA5-81DA-4DB0-B751-52F486B5E88E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819F569-9B23-4F7F-9BA4-D6C7403E4C62}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -6341,8 +10066,1654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4066860-EFB2-4E92-91C7-D17563F2F3F4}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>743</v>
+      </c>
+      <c r="C2">
+        <v>983520</v>
+      </c>
+      <c r="D2">
+        <v>940067</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6677.9869999999992</v>
+      </c>
+      <c r="I2">
+        <v>355</v>
+      </c>
+      <c r="J2">
+        <v>1854</v>
+      </c>
+      <c r="K2">
+        <v>121686.20699999999</v>
+      </c>
+      <c r="L2">
+        <v>1167093.2</v>
+      </c>
+      <c r="M2">
+        <v>3632889</v>
+      </c>
+      <c r="N2">
+        <v>1092.1556</v>
+      </c>
+      <c r="O2">
+        <v>1092.1556</v>
+      </c>
+      <c r="P2">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q2">
+        <v>27303.89</v>
+      </c>
+      <c r="R2">
+        <v>26671.98</v>
+      </c>
+      <c r="S2">
+        <v>-0.02</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>815036.81</v>
+      </c>
+      <c r="V2">
+        <v>1167092.93</v>
+      </c>
+      <c r="W2">
+        <v>533740.25</v>
+      </c>
+      <c r="X2">
+        <v>423231.59</v>
+      </c>
+      <c r="Y2">
+        <v>100596.81</v>
+      </c>
+      <c r="Z2">
+        <v>543011.4</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>939389.34</v>
+      </c>
+      <c r="AC2">
+        <v>0.21</v>
+      </c>
+      <c r="AD2">
+        <v>-588084.67000000004</v>
+      </c>
+      <c r="AE2">
+        <v>6148985.2199999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>743</v>
+      </c>
+      <c r="C3">
+        <v>983520</v>
+      </c>
+      <c r="D3">
+        <v>940067</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6002.05</v>
+      </c>
+      <c r="I3">
+        <v>411</v>
+      </c>
+      <c r="J3">
+        <v>2948</v>
+      </c>
+      <c r="K3">
+        <v>235258.19500000001</v>
+      </c>
+      <c r="L3">
+        <v>1715086.1</v>
+      </c>
+      <c r="M3">
+        <v>3645364</v>
+      </c>
+      <c r="N3">
+        <v>1116.6192000000001</v>
+      </c>
+      <c r="O3">
+        <v>1116.6192000000001</v>
+      </c>
+      <c r="P3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q3">
+        <v>27915.48</v>
+      </c>
+      <c r="R3">
+        <v>26671.98</v>
+      </c>
+      <c r="S3">
+        <v>-0.05</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1222716.67</v>
+      </c>
+      <c r="V3">
+        <v>1715090.56</v>
+      </c>
+      <c r="W3">
+        <v>812282.27</v>
+      </c>
+      <c r="X3">
+        <v>424684.94</v>
+      </c>
+      <c r="Y3">
+        <v>92913.73</v>
+      </c>
+      <c r="Z3">
+        <v>536781.67000000004</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>939457.91</v>
+      </c>
+      <c r="AC3">
+        <v>0.21</v>
+      </c>
+      <c r="AD3">
+        <v>-895593.18</v>
+      </c>
+      <c r="AE3">
+        <v>6496970.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>743</v>
+      </c>
+      <c r="C4">
+        <v>983520</v>
+      </c>
+      <c r="D4">
+        <v>940067</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4931.8719999999994</v>
+      </c>
+      <c r="I4">
+        <v>411</v>
+      </c>
+      <c r="J4">
+        <v>4414</v>
+      </c>
+      <c r="K4">
+        <v>372791.924</v>
+      </c>
+      <c r="L4">
+        <v>2381783.9500000002</v>
+      </c>
+      <c r="M4">
+        <v>3660427</v>
+      </c>
+      <c r="N4">
+        <v>1149.0627999999999</v>
+      </c>
+      <c r="O4">
+        <v>1149.0627999999999</v>
+      </c>
+      <c r="P4">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q4">
+        <v>28726.57</v>
+      </c>
+      <c r="R4">
+        <v>26671.98</v>
+      </c>
+      <c r="S4">
+        <v>-0.08</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1733705.7</v>
+      </c>
+      <c r="V4">
+        <v>2381785.35</v>
+      </c>
+      <c r="W4">
+        <v>1167928.93</v>
+      </c>
+      <c r="X4">
+        <v>426439.74</v>
+      </c>
+      <c r="Y4">
+        <v>85792.7</v>
+      </c>
+      <c r="Z4">
+        <v>531415.43999999994</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>939566.47</v>
+      </c>
+      <c r="AC4">
+        <v>0.21</v>
+      </c>
+      <c r="AD4">
+        <v>-1336155.71</v>
+      </c>
+      <c r="AE4">
+        <v>6956539.7300000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25.0</v>
+      </c>
+      <c r="C2">
+        <v>33093.0</v>
+      </c>
+      <c r="D2">
+        <v>31631.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19.0</v>
+      </c>
+      <c r="J2">
+        <v>31.0</v>
+      </c>
+      <c r="K2">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2">
+        <v>30885.0</v>
+      </c>
+      <c r="M2">
+        <v>180.96</v>
+      </c>
+      <c r="N2">
+        <v>0.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>3.01133e6</v>
+      </c>
+      <c r="Q2">
+        <v>968.5348</v>
+      </c>
+      <c r="R2">
+        <v>968.5348</v>
+      </c>
+      <c r="S2">
+        <v>974.7684</v>
+      </c>
+      <c r="T2">
+        <v>24213.37</v>
+      </c>
+      <c r="U2">
+        <v>24369.21</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>160073.42</v>
+      </c>
+      <c r="X2">
+        <v>19491.75</v>
+      </c>
+      <c r="Y2">
+        <v>249405.08</v>
+      </c>
+      <c r="Z2">
+        <v>171877.89</v>
+      </c>
+      <c r="AA2">
+        <v>337570.09</v>
+      </c>
+      <c r="AB2">
+        <v>50286.34</v>
+      </c>
+      <c r="AC2">
+        <v>616649.43</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0</v>
+      </c>
+      <c r="AE2">
+        <v>31607.73</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>-144035.66</v>
+      </c>
+      <c r="AH2">
+        <v>6.12859162e6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39.0</v>
+      </c>
+      <c r="C3">
+        <v>52158.0</v>
+      </c>
+      <c r="D3">
+        <v>49854.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>172.763</v>
+      </c>
+      <c r="I3">
+        <v>12.0</v>
+      </c>
+      <c r="J3">
+        <v>24.0</v>
+      </c>
+      <c r="K3">
+        <v>314.806</v>
+      </c>
+      <c r="L3">
+        <v>21608.0</v>
+      </c>
+      <c r="M3">
+        <v>190.75</v>
+      </c>
+      <c r="N3">
+        <v>0.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>2.993088e6</v>
+      </c>
+      <c r="Q3">
+        <v>964.9368</v>
+      </c>
+      <c r="R3">
+        <v>964.9368</v>
+      </c>
+      <c r="S3">
+        <v>974.7684</v>
+      </c>
+      <c r="T3">
+        <v>24123.42</v>
+      </c>
+      <c r="U3">
+        <v>24369.21</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>190890.6</v>
+      </c>
+      <c r="X3">
+        <v>13893.38</v>
+      </c>
+      <c r="Y3">
+        <v>304624.52</v>
+      </c>
+      <c r="Z3">
+        <v>199434.86</v>
+      </c>
+      <c r="AA3">
+        <v>335525.13</v>
+      </c>
+      <c r="AB3">
+        <v>50250.12</v>
+      </c>
+      <c r="AC3">
+        <v>614568.25</v>
+      </c>
+      <c r="AD3">
+        <v>-0.0</v>
+      </c>
+      <c r="AE3">
+        <v>49836.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>-132257.9</v>
+      </c>
+      <c r="AH3">
+        <v>6.13876369e6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39.0</v>
+      </c>
+      <c r="C4">
+        <v>52158.0</v>
+      </c>
+      <c r="D4">
+        <v>49854.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12.0</v>
+      </c>
+      <c r="J4">
+        <v>24.0</v>
+      </c>
+      <c r="K4">
+        <v>314.806</v>
+      </c>
+      <c r="L4">
+        <v>21608.0</v>
+      </c>
+      <c r="M4">
+        <v>190.75</v>
+      </c>
+      <c r="N4">
+        <v>0.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>2.993088e6</v>
+      </c>
+      <c r="Q4">
+        <v>964.9368</v>
+      </c>
+      <c r="R4">
+        <v>964.9368</v>
+      </c>
+      <c r="S4">
+        <v>974.7684</v>
+      </c>
+      <c r="T4">
+        <v>24123.42</v>
+      </c>
+      <c r="U4">
+        <v>24369.21</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>190890.6</v>
+      </c>
+      <c r="X4">
+        <v>13893.38</v>
+      </c>
+      <c r="Y4">
+        <v>304624.52</v>
+      </c>
+      <c r="Z4">
+        <v>199434.86</v>
+      </c>
+      <c r="AA4">
+        <v>335525.13</v>
+      </c>
+      <c r="AB4">
+        <v>50250.12</v>
+      </c>
+      <c r="AC4">
+        <v>614568.25</v>
+      </c>
+      <c r="AD4">
+        <v>-0.0</v>
+      </c>
+      <c r="AE4">
+        <v>49838.89</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>-113332.79</v>
+      </c>
+      <c r="AH4">
+        <v>6.13919616e6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>743.0</v>
+      </c>
+      <c r="C2">
+        <v>983520.0</v>
+      </c>
+      <c r="D2">
+        <v>940067.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>6677.986999999999</v>
+      </c>
+      <c r="I2">
+        <v>355.0</v>
+      </c>
+      <c r="J2">
+        <v>1854.0</v>
+      </c>
+      <c r="K2">
+        <v>121686.207</v>
+      </c>
+      <c r="L2">
+        <v>1.1670932e6</v>
+      </c>
+      <c r="M2">
+        <v>3.632889e6</v>
+      </c>
+      <c r="N2">
+        <v>1092.1556</v>
+      </c>
+      <c r="O2">
+        <v>1092.1556</v>
+      </c>
+      <c r="P2">
+        <v>1066.8792</v>
+      </c>
+      <c r="Q2">
+        <v>27303.89</v>
+      </c>
+      <c r="R2">
+        <v>26671.98</v>
+      </c>
+      <c r="S2">
+        <v>-0.02</v>
+      </c>
+      <c r="T2">
+        <v>0.0</v>
+      </c>
+      <c r="U2">
+        <v>815036.81</v>
+      </c>
+      <c r="V2">
+        <v>1.16709293e6</v>
+      </c>
+      <c r="W2">
+        <v>533740.25</v>
+      </c>
+      <c r="X2">
+        <v>423231.59</v>
+      </c>
+      <c r="Y2">
+        <v>100596.81</v>
+      </c>
+      <c r="Z2">
+        <v>543011.4</v>
+      </c>
+      <c r="AA2">
+        <v>-0.0</v>
+      </c>
+      <c r="AB2">
+        <v>939389.34</v>
+      </c>
+      <c r="AC2">
+        <v>0.21</v>
+      </c>
+      <c r="AD2">
+        <v>-588084.67</v>
+      </c>
+      <c r="AE2">
+        <v>6.14898522e6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>743.0</v>
+      </c>
+      <c r="C3">
+        <v>983520.0</v>
+      </c>
+      <c r="D3">
+        <v>940067.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>6002.05</v>
+      </c>
+      <c r="I3">
+        <v>411.0</v>
+      </c>
+      <c r="J3">
+        <v>2948.0</v>
+      </c>
+      <c r="K3">
+        <v>235258.195</v>
+      </c>
+      <c r="L3">
+        <v>1.7150861e6</v>
+      </c>
+      <c r="M3">
+        <v>3.645364e6</v>
+      </c>
+      <c r="N3">
+        <v>1116.6192</v>
+      </c>
+      <c r="O3">
+        <v>1116.6192</v>
+      </c>
+      <c r="P3">
+        <v>1066.8792</v>
+      </c>
+      <c r="Q3">
+        <v>27915.48</v>
+      </c>
+      <c r="R3">
+        <v>26671.98</v>
+      </c>
+      <c r="S3">
+        <v>-0.05</v>
+      </c>
+      <c r="T3">
+        <v>0.0</v>
+      </c>
+      <c r="U3">
+        <v>1.22271667e6</v>
+      </c>
+      <c r="V3">
+        <v>1.71509056e6</v>
+      </c>
+      <c r="W3">
+        <v>812282.27</v>
+      </c>
+      <c r="X3">
+        <v>424684.94</v>
+      </c>
+      <c r="Y3">
+        <v>92913.73</v>
+      </c>
+      <c r="Z3">
+        <v>536781.67</v>
+      </c>
+      <c r="AA3">
+        <v>-0.0</v>
+      </c>
+      <c r="AB3">
+        <v>939457.91</v>
+      </c>
+      <c r="AC3">
+        <v>0.21</v>
+      </c>
+      <c r="AD3">
+        <v>-895593.18</v>
+      </c>
+      <c r="AE3">
+        <v>6.49697079e6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>743.0</v>
+      </c>
+      <c r="C4">
+        <v>983520.0</v>
+      </c>
+      <c r="D4">
+        <v>940067.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>4931.871999999999</v>
+      </c>
+      <c r="I4">
+        <v>411.0</v>
+      </c>
+      <c r="J4">
+        <v>4414.0</v>
+      </c>
+      <c r="K4">
+        <v>372791.924</v>
+      </c>
+      <c r="L4">
+        <v>2.38178395e6</v>
+      </c>
+      <c r="M4">
+        <v>3.660427e6</v>
+      </c>
+      <c r="N4">
+        <v>1149.0628</v>
+      </c>
+      <c r="O4">
+        <v>1149.0628</v>
+      </c>
+      <c r="P4">
+        <v>1066.8792</v>
+      </c>
+      <c r="Q4">
+        <v>28726.57</v>
+      </c>
+      <c r="R4">
+        <v>26671.98</v>
+      </c>
+      <c r="S4">
+        <v>-0.08</v>
+      </c>
+      <c r="T4">
+        <v>0.0</v>
+      </c>
+      <c r="U4">
+        <v>1.7337057e6</v>
+      </c>
+      <c r="V4">
+        <v>2.38178535e6</v>
+      </c>
+      <c r="W4">
+        <v>1.16792893e6</v>
+      </c>
+      <c r="X4">
+        <v>426439.74</v>
+      </c>
+      <c r="Y4">
+        <v>85792.7</v>
+      </c>
+      <c r="Z4">
+        <v>531415.44</v>
+      </c>
+      <c r="AA4">
+        <v>-0.0</v>
+      </c>
+      <c r="AB4">
+        <v>939566.47</v>
+      </c>
+      <c r="AC4">
+        <v>0.21</v>
+      </c>
+      <c r="AD4">
+        <v>-1.33615571e6</v>
+      </c>
+      <c r="AE4">
+        <v>6.95653973e6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>38.0</v>
+      </c>
+      <c r="C2">
+        <v>50639.0</v>
+      </c>
+      <c r="D2">
+        <v>48402.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>65.358</v>
+      </c>
+      <c r="I2">
+        <v>10.0</v>
+      </c>
+      <c r="J2">
+        <v>13.0</v>
+      </c>
+      <c r="K2">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L2">
+        <v>14496.0</v>
+      </c>
+      <c r="M2">
+        <v>1.1323322e7</v>
+      </c>
+      <c r="N2">
+        <v>808.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>3631.5468</v>
+      </c>
+      <c r="R2">
+        <v>3631.5468</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90788.67</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.0</v>
+      </c>
+      <c r="W2">
+        <v>590306.34</v>
+      </c>
+      <c r="X2">
+        <v>8963.71</v>
+      </c>
+      <c r="Y2">
+        <v>694245.1</v>
+      </c>
+      <c r="Z2">
+        <v>595639.43</v>
+      </c>
+      <c r="AA2">
+        <v>1.31916704e6</v>
+      </c>
+      <c r="AB2">
+        <v>220602.28</v>
+      </c>
+      <c r="AC2">
+        <v>1.55895232e6</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0</v>
+      </c>
+      <c r="AE2">
+        <v>48395.35</v>
+      </c>
+      <c r="AF2">
+        <v>0.0</v>
+      </c>
+      <c r="AG2">
+        <v>-601719.55</v>
+      </c>
+      <c r="AH2">
+        <v>1.570399352e7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>38.0</v>
+      </c>
+      <c r="C3">
+        <v>50639.0</v>
+      </c>
+      <c r="D3">
+        <v>48402.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>75.307</v>
+      </c>
+      <c r="I3">
+        <v>10.0</v>
+      </c>
+      <c r="J3">
+        <v>13.0</v>
+      </c>
+      <c r="K3">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L3">
+        <v>14496.0</v>
+      </c>
+      <c r="M3">
+        <v>1.1323322e7</v>
+      </c>
+      <c r="N3">
+        <v>869.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>3631.5468</v>
+      </c>
+      <c r="R3">
+        <v>3631.5468</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90788.67</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.0</v>
+      </c>
+      <c r="W3">
+        <v>629582.59</v>
+      </c>
+      <c r="X3">
+        <v>8963.71</v>
+      </c>
+      <c r="Y3">
+        <v>733521.35</v>
+      </c>
+      <c r="Z3">
+        <v>634915.68</v>
+      </c>
+      <c r="AA3">
+        <v>1.31916704e6</v>
+      </c>
+      <c r="AB3">
+        <v>220602.28</v>
+      </c>
+      <c r="AC3">
+        <v>1.55895232e6</v>
+      </c>
+      <c r="AD3">
+        <v>-0.0</v>
+      </c>
+      <c r="AE3">
+        <v>48394.34</v>
+      </c>
+      <c r="AF3">
+        <v>0.0</v>
+      </c>
+      <c r="AG3">
+        <v>-566729.71</v>
+      </c>
+      <c r="AH3">
+        <v>1.575709646e7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>38.0</v>
+      </c>
+      <c r="C4">
+        <v>50639.0</v>
+      </c>
+      <c r="D4">
+        <v>48402.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>70.024</v>
+      </c>
+      <c r="I4">
+        <v>10.0</v>
+      </c>
+      <c r="J4">
+        <v>13.0</v>
+      </c>
+      <c r="K4">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L4">
+        <v>14496.0</v>
+      </c>
+      <c r="M4">
+        <v>1.1323322e7</v>
+      </c>
+      <c r="N4">
+        <v>869.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>3631.5468</v>
+      </c>
+      <c r="R4">
+        <v>3631.5468</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90788.67</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.0</v>
+      </c>
+      <c r="W4">
+        <v>629582.59</v>
+      </c>
+      <c r="X4">
+        <v>8963.71</v>
+      </c>
+      <c r="Y4">
+        <v>733521.35</v>
+      </c>
+      <c r="Z4">
+        <v>634915.68</v>
+      </c>
+      <c r="AA4">
+        <v>1.31916704e6</v>
+      </c>
+      <c r="AB4">
+        <v>220602.28</v>
+      </c>
+      <c r="AC4">
+        <v>1.55895232e6</v>
+      </c>
+      <c r="AD4">
+        <v>-0.0</v>
+      </c>
+      <c r="AE4">
+        <v>48394.87</v>
+      </c>
+      <c r="AF4">
+        <v>0.0</v>
+      </c>
+      <c r="AG4">
+        <v>-484663.97</v>
+      </c>
+      <c r="AH4">
+        <v>1.575901671e7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2435AA-F490-42DD-8DD9-AD9577A82ABF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302FF9D4-3188-4892-9E56-3D854CA9A79A}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7105,7 +12476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBF931F-658B-4DDB-AEE9-99A380D24E12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DB6B4-8272-45AB-973C-CC0B390E0A39}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -7866,7 +13237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADAA323-43C5-45F6-AD76-2E6D7D521166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F603744F-F068-43C4-BBF9-47A053CAA1D0}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8640,7 +14011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D823D2B4-58A8-4575-B987-B50A0B911031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2613A67B-BD10-45F0-8C80-E78184959700}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9205,7 +14576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7C74D3-3B30-4482-8369-7CB47B714AB8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89326CDB-1FF1-4FEC-AD86-B28961BFB3FB}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -9775,7 +15146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61992C23-4C49-42A2-99A3-3EFFE681E7F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC494A4-779E-4B61-A2D7-C8CF6AFC5679}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4F0D1C-5606-406D-8780-81D851A66BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E05D6-53BC-4FDC-920E-E992CD223930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="21" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="29" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,11 @@
     <sheet name="ProvidentA_11" sheetId="28" r:id="rId28"/>
     <sheet name="CermakA_18" sheetId="29" r:id="rId29"/>
     <sheet name="MarkhamA_4" sheetId="30" r:id="rId30"/>
-    <sheet name="CermakA_19" r:id="rId34" sheetId="31"/>
-    <sheet name="MarkhamA_5" r:id="rId35" sheetId="32"/>
-    <sheet name="ProvdientA_2" r:id="rId36" sheetId="33"/>
+    <sheet name="CermakA_19" sheetId="31" r:id="rId31"/>
+    <sheet name="MarkhamA_5" sheetId="32" r:id="rId32"/>
+    <sheet name="ProvdientA_2" sheetId="33" r:id="rId33"/>
+    <sheet name="CermakA_20" r:id="rId37" sheetId="34"/>
+    <sheet name="MarkhamA_6" r:id="rId38" sheetId="35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -542,7 +544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D1CCC17-14D7-4D66-BC8D-DD8663B10AF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EDFB6-003B-40D3-916A-4887B5533161}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -554,7 +556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10272B7E-4F89-435D-93C4-8A0CF33D0D9E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8756D2-00F7-49A6-B485-9C8F37BF7F26}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -935,7 +937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF13AFB-273F-439D-9595-5E13EFB7467F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB89762-FA85-40AA-93AB-3F1F2C6F2614}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1316,7 +1318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E012F0-390D-4897-B237-4CE0E7A0181F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502B9D57-D36C-4348-808E-B7A02FBB9E82}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1697,7 +1699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B7139B-D2D1-4ABE-BA1A-F2DEDCB25DC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF35C8-05F2-4A34-887D-1D4B9F00E383}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2105,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{221D8A2C-41ED-411F-B338-51A8A50EABCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180F6AB2-A78E-469B-A11D-ED155315C590}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2507,7 +2509,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646F245E-E83E-4EBA-B3A7-4B3620D2E2A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DD933C-CFD5-46C3-9169-FC1CB9E35E29}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2912,7 +2914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF486877-1F5F-4B4C-A437-9B52C4215B35}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9AA68E-9590-45F3-A7F4-27FA5B180704}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3293,7 +3295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52602D4D-F299-472C-AB63-14637D78AE96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B94A597-7A5B-4908-A476-B75C6FC47E11}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3674,7 +3676,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D939F298-9477-4D54-BE3C-0E156555AA9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE4E0-CEE1-4A84-8AA7-61E11679A67C}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4055,7 +4057,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E186615-0987-4D37-9B2A-25313CBB2735}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C6D17-56A6-4BA2-B722-DE11F5F206E1}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -4453,7 +4455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7495CD5A-729E-426F-A992-19975BE302FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A938C5-C8E7-4878-8ECD-A83678743801}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5228,7 +5230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C88CB5-C289-4EE8-91B3-A2D262E5B864}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03F61E-B8D1-4747-98F5-1CC0561FAF83}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5609,7 +5611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4688C147-FDE1-4E97-911E-CD1C8A9D454D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD938BB-57BA-45DD-AE00-99660DEACE24}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5990,7 +5992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFEE5820-F897-4A9A-84D7-6EC385E67ACA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46E5DF6-0883-4AF4-9352-8A8412CDD9C5}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6377,7 +6379,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D5BD06-5749-4630-84BA-F2166A75C175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6C63A-2377-479B-8A9D-48F635E47E76}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6799,7 +6801,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C01A6B4-8D42-4E15-8078-3B83305CA44A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED5C59-9DC8-45AB-9765-B999BFCBECA3}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7196,7 +7198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7631D23-3A2D-4B4C-9B09-557DE99E7C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD98B9F5-5407-40D5-B7F3-BC7CE9C6C852}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
@@ -7615,7 +7617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC737FC0-38E9-4EEC-BBCB-2E38A08718FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D273866-75D1-405A-89B5-852C74CF1AB7}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8046,7 +8048,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0653974D-B8DF-4C0E-B54F-F62E59D81248}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E0429B-BC45-441F-B020-B4077C5A6834}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8446,7 +8448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF4FE7C-7938-476B-AC78-7EBDE5CC47D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB01698-0FD7-4317-8279-AA5227B1E049}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8877,7 +8879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20094AAF-74BB-414B-A137-1F8048777FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C74EC0-CF53-40AA-BA70-6A11A835101A}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9306,7 +9308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B819F569-9B23-4F7F-9BA4-D6C7403E4C62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E02C8-42F4-4C40-B0F8-663F071CBB48}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10067,10 +10069,10 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4066860-EFB2-4E92-91C7-D17563F2F3F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB0FE2-231F-4657-BA92-FAB7737D10FE}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
@@ -10462,8 +10464,1259 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA522B-6EB7-44F7-8AEB-EC6D625D6D56}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>33093</v>
+      </c>
+      <c r="D2">
+        <v>31631</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>227.185</v>
+      </c>
+      <c r="I2">
+        <v>19</v>
+      </c>
+      <c r="J2">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>503.09000000000003</v>
+      </c>
+      <c r="L2">
+        <v>30885</v>
+      </c>
+      <c r="M2">
+        <v>180.96</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>3011330</v>
+      </c>
+      <c r="Q2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="R2">
+        <v>968.53480000000002</v>
+      </c>
+      <c r="S2">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T2">
+        <v>24213.37</v>
+      </c>
+      <c r="U2">
+        <v>24369.21</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>160073.42000000001</v>
+      </c>
+      <c r="X2">
+        <v>19491.75</v>
+      </c>
+      <c r="Y2">
+        <v>249405.08</v>
+      </c>
+      <c r="Z2">
+        <v>171877.89</v>
+      </c>
+      <c r="AA2">
+        <v>337570.09</v>
+      </c>
+      <c r="AB2">
+        <v>50286.34</v>
+      </c>
+      <c r="AC2">
+        <v>616649.43000000005</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>31607.73</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>-144035.66</v>
+      </c>
+      <c r="AH2">
+        <v>6128591.6200000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>39</v>
+      </c>
+      <c r="C3">
+        <v>52158</v>
+      </c>
+      <c r="D3">
+        <v>49854</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>172.76300000000001</v>
+      </c>
+      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>24</v>
+      </c>
+      <c r="K3">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L3">
+        <v>21608</v>
+      </c>
+      <c r="M3">
+        <v>190.75</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>2993088</v>
+      </c>
+      <c r="Q3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R3">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S3">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T3">
+        <v>24123.42</v>
+      </c>
+      <c r="U3">
+        <v>24369.21</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>190890.6</v>
+      </c>
+      <c r="X3">
+        <v>13893.38</v>
+      </c>
+      <c r="Y3">
+        <v>304624.52</v>
+      </c>
+      <c r="Z3">
+        <v>199434.86</v>
+      </c>
+      <c r="AA3">
+        <v>335525.13</v>
+      </c>
+      <c r="AB3">
+        <v>50250.12</v>
+      </c>
+      <c r="AC3">
+        <v>614568.25</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>49836.5</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>-132257.9</v>
+      </c>
+      <c r="AH3">
+        <v>6138763.6900000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39</v>
+      </c>
+      <c r="C4">
+        <v>52158</v>
+      </c>
+      <c r="D4">
+        <v>49854</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>149.19099999999997</v>
+      </c>
+      <c r="I4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>24</v>
+      </c>
+      <c r="K4">
+        <v>314.80599999999998</v>
+      </c>
+      <c r="L4">
+        <v>21608</v>
+      </c>
+      <c r="M4">
+        <v>190.75</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>2993088</v>
+      </c>
+      <c r="Q4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="R4">
+        <v>964.93679999999995</v>
+      </c>
+      <c r="S4">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T4">
+        <v>24123.42</v>
+      </c>
+      <c r="U4">
+        <v>24369.21</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>190890.6</v>
+      </c>
+      <c r="X4">
+        <v>13893.38</v>
+      </c>
+      <c r="Y4">
+        <v>304624.52</v>
+      </c>
+      <c r="Z4">
+        <v>199434.86</v>
+      </c>
+      <c r="AA4">
+        <v>335525.13</v>
+      </c>
+      <c r="AB4">
+        <v>50250.12</v>
+      </c>
+      <c r="AC4">
+        <v>614568.25</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>49838.89</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>-113332.79</v>
+      </c>
+      <c r="AH4">
+        <v>6139196.1600000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36546FEB-7917-4111-9751-B9CF3FC6FA22}">
+  <dimension ref="A1:AE4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:31" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" t="s">
+        <v>34</v>
+      </c>
+      <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>743</v>
+      </c>
+      <c r="C2">
+        <v>983520</v>
+      </c>
+      <c r="D2">
+        <v>940067</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>6677.9869999999992</v>
+      </c>
+      <c r="I2">
+        <v>355</v>
+      </c>
+      <c r="J2">
+        <v>1854</v>
+      </c>
+      <c r="K2">
+        <v>121686.20699999999</v>
+      </c>
+      <c r="L2">
+        <v>1167093.2</v>
+      </c>
+      <c r="M2">
+        <v>3632889</v>
+      </c>
+      <c r="N2">
+        <v>1092.1556</v>
+      </c>
+      <c r="O2">
+        <v>1092.1556</v>
+      </c>
+      <c r="P2">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q2">
+        <v>27303.89</v>
+      </c>
+      <c r="R2">
+        <v>26671.98</v>
+      </c>
+      <c r="S2">
+        <v>-0.02</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>815036.81</v>
+      </c>
+      <c r="V2">
+        <v>1167092.93</v>
+      </c>
+      <c r="W2">
+        <v>533740.25</v>
+      </c>
+      <c r="X2">
+        <v>423231.59</v>
+      </c>
+      <c r="Y2">
+        <v>100596.81</v>
+      </c>
+      <c r="Z2">
+        <v>543011.4</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>939389.34</v>
+      </c>
+      <c r="AC2">
+        <v>0.21</v>
+      </c>
+      <c r="AD2">
+        <v>-588084.67000000004</v>
+      </c>
+      <c r="AE2">
+        <v>6148985.2199999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>743</v>
+      </c>
+      <c r="C3">
+        <v>983520</v>
+      </c>
+      <c r="D3">
+        <v>940067</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>6002.05</v>
+      </c>
+      <c r="I3">
+        <v>411</v>
+      </c>
+      <c r="J3">
+        <v>2948</v>
+      </c>
+      <c r="K3">
+        <v>235258.19500000001</v>
+      </c>
+      <c r="L3">
+        <v>1715086.1</v>
+      </c>
+      <c r="M3">
+        <v>3645364</v>
+      </c>
+      <c r="N3">
+        <v>1116.6192000000001</v>
+      </c>
+      <c r="O3">
+        <v>1116.6192000000001</v>
+      </c>
+      <c r="P3">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q3">
+        <v>27915.48</v>
+      </c>
+      <c r="R3">
+        <v>26671.98</v>
+      </c>
+      <c r="S3">
+        <v>-0.05</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>1222716.67</v>
+      </c>
+      <c r="V3">
+        <v>1715090.56</v>
+      </c>
+      <c r="W3">
+        <v>812282.27</v>
+      </c>
+      <c r="X3">
+        <v>424684.94</v>
+      </c>
+      <c r="Y3">
+        <v>92913.73</v>
+      </c>
+      <c r="Z3">
+        <v>536781.67000000004</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>939457.91</v>
+      </c>
+      <c r="AC3">
+        <v>0.21</v>
+      </c>
+      <c r="AD3">
+        <v>-895593.18</v>
+      </c>
+      <c r="AE3">
+        <v>6496970.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>743</v>
+      </c>
+      <c r="C4">
+        <v>983520</v>
+      </c>
+      <c r="D4">
+        <v>940067</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4931.8719999999994</v>
+      </c>
+      <c r="I4">
+        <v>411</v>
+      </c>
+      <c r="J4">
+        <v>4414</v>
+      </c>
+      <c r="K4">
+        <v>372791.924</v>
+      </c>
+      <c r="L4">
+        <v>2381783.9500000002</v>
+      </c>
+      <c r="M4">
+        <v>3660427</v>
+      </c>
+      <c r="N4">
+        <v>1149.0627999999999</v>
+      </c>
+      <c r="O4">
+        <v>1149.0627999999999</v>
+      </c>
+      <c r="P4">
+        <v>1066.8792000000001</v>
+      </c>
+      <c r="Q4">
+        <v>28726.57</v>
+      </c>
+      <c r="R4">
+        <v>26671.98</v>
+      </c>
+      <c r="S4">
+        <v>-0.08</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>1733705.7</v>
+      </c>
+      <c r="V4">
+        <v>2381785.35</v>
+      </c>
+      <c r="W4">
+        <v>1167928.93</v>
+      </c>
+      <c r="X4">
+        <v>426439.74</v>
+      </c>
+      <c r="Y4">
+        <v>85792.7</v>
+      </c>
+      <c r="Z4">
+        <v>531415.43999999994</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>939566.47</v>
+      </c>
+      <c r="AC4">
+        <v>0.21</v>
+      </c>
+      <c r="AD4">
+        <v>-1336155.71</v>
+      </c>
+      <c r="AE4">
+        <v>6956539.7300000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9EF7D-1E58-46AB-BB89-34AB7F3EB371}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>38</v>
+      </c>
+      <c r="C2">
+        <v>50639</v>
+      </c>
+      <c r="D2">
+        <v>48402</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>65.358000000000004</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L2">
+        <v>14496</v>
+      </c>
+      <c r="M2">
+        <v>11323322</v>
+      </c>
+      <c r="N2">
+        <v>808</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R2">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90788.67</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>590306.34</v>
+      </c>
+      <c r="X2">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y2">
+        <v>694245.1</v>
+      </c>
+      <c r="Z2">
+        <v>595639.43000000005</v>
+      </c>
+      <c r="AA2">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB2">
+        <v>220602.28</v>
+      </c>
+      <c r="AC2">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>48395.35</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>-601719.55000000005</v>
+      </c>
+      <c r="AH2">
+        <v>15703993.52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>50639</v>
+      </c>
+      <c r="D3">
+        <v>48402</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>75.307000000000002</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L3">
+        <v>14496</v>
+      </c>
+      <c r="M3">
+        <v>11323322</v>
+      </c>
+      <c r="N3">
+        <v>869</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R3">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90788.67</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>629582.59</v>
+      </c>
+      <c r="X3">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y3">
+        <v>733521.35</v>
+      </c>
+      <c r="Z3">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="AA3">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB3">
+        <v>220602.28</v>
+      </c>
+      <c r="AC3">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>48394.34</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>-566729.71</v>
+      </c>
+      <c r="AH3">
+        <v>15757096.460000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4">
+        <v>50639</v>
+      </c>
+      <c r="D4">
+        <v>48402</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>70.024000000000001</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>154.42600000000002</v>
+      </c>
+      <c r="L4">
+        <v>14496</v>
+      </c>
+      <c r="M4">
+        <v>11323322</v>
+      </c>
+      <c r="N4">
+        <v>869</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="R4">
+        <v>3631.5468000000001</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90788.67</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>629582.59</v>
+      </c>
+      <c r="X4">
+        <v>8963.7099999999991</v>
+      </c>
+      <c r="Y4">
+        <v>733521.35</v>
+      </c>
+      <c r="Z4">
+        <v>634915.68000000005</v>
+      </c>
+      <c r="AA4">
+        <v>1319167.04</v>
+      </c>
+      <c r="AB4">
+        <v>220602.28</v>
+      </c>
+      <c r="AC4">
+        <v>1558952.32</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>48394.87</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>-484663.97</v>
+      </c>
+      <c r="AH4">
+        <v>15759016.710000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -10584,7 +11837,7 @@
         <v>33093.0</v>
       </c>
       <c r="D2">
-        <v>31631.0</v>
+        <v>31540.0</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -10596,22 +11849,22 @@
         <v>0.0</v>
       </c>
       <c r="H2">
-        <v>227.185</v>
+        <v>0.0</v>
       </c>
       <c r="I2">
-        <v>19.0</v>
+        <v>0.0</v>
       </c>
       <c r="J2">
-        <v>31.0</v>
+        <v>0.0</v>
       </c>
       <c r="K2">
-        <v>503.09000000000003</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>30885.0</v>
+        <v>0.0</v>
       </c>
       <c r="M2">
-        <v>180.96</v>
+        <v>600.0</v>
       </c>
       <c r="N2">
         <v>0.0</v>
@@ -10620,19 +11873,19 @@
         <v>0.0</v>
       </c>
       <c r="P2">
-        <v>3.01133e6</v>
+        <v>3.011373e6</v>
       </c>
       <c r="Q2">
-        <v>968.5348</v>
+        <v>968.5476</v>
       </c>
       <c r="R2">
-        <v>968.5348</v>
+        <v>968.5476</v>
       </c>
       <c r="S2">
         <v>974.7684</v>
       </c>
       <c r="T2">
-        <v>24213.37</v>
+        <v>24213.69</v>
       </c>
       <c r="U2">
         <v>24369.21</v>
@@ -10641,40 +11894,40 @@
         <v>0.01</v>
       </c>
       <c r="W2">
-        <v>160073.42</v>
+        <v>41313.56</v>
       </c>
       <c r="X2">
-        <v>19491.75</v>
+        <v>0.0</v>
       </c>
       <c r="Y2">
-        <v>249405.08</v>
+        <v>100900.0</v>
       </c>
       <c r="Z2">
-        <v>171877.89</v>
+        <v>41313.56</v>
       </c>
       <c r="AA2">
-        <v>337570.09</v>
+        <v>337574.96</v>
       </c>
       <c r="AB2">
-        <v>50286.34</v>
+        <v>51798.68</v>
       </c>
       <c r="AC2">
-        <v>616649.43</v>
+        <v>618166.64</v>
       </c>
       <c r="AD2">
         <v>-0.0</v>
       </c>
       <c r="AE2">
-        <v>31607.73</v>
+        <v>31540.23</v>
       </c>
       <c r="AF2">
         <v>0.01</v>
       </c>
       <c r="AG2">
-        <v>-144035.66</v>
+        <v>1393.69</v>
       </c>
       <c r="AH2">
-        <v>6.12859162e6</v>
+        <v>6.90199032e6</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -10682,13 +11935,13 @@
         <v>22</v>
       </c>
       <c r="B3">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="C3">
-        <v>52158.0</v>
+        <v>33093.0</v>
       </c>
       <c r="D3">
-        <v>49854.0</v>
+        <v>31540.0</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -10700,22 +11953,22 @@
         <v>0.0</v>
       </c>
       <c r="H3">
-        <v>172.763</v>
+        <v>0.0</v>
       </c>
       <c r="I3">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="J3">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="K3">
-        <v>314.806</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>21608.0</v>
+        <v>0.0</v>
       </c>
       <c r="M3">
-        <v>190.75</v>
+        <v>600.0</v>
       </c>
       <c r="N3">
         <v>0.0</v>
@@ -10724,19 +11977,19 @@
         <v>0.0</v>
       </c>
       <c r="P3">
-        <v>2.993088e6</v>
+        <v>3.011373e6</v>
       </c>
       <c r="Q3">
-        <v>964.9368</v>
+        <v>968.5476</v>
       </c>
       <c r="R3">
-        <v>964.9368</v>
+        <v>968.5476</v>
       </c>
       <c r="S3">
         <v>974.7684</v>
       </c>
       <c r="T3">
-        <v>24123.42</v>
+        <v>24213.69</v>
       </c>
       <c r="U3">
         <v>24369.21</v>
@@ -10745,40 +11998,40 @@
         <v>0.01</v>
       </c>
       <c r="W3">
-        <v>190890.6</v>
+        <v>41313.56</v>
       </c>
       <c r="X3">
-        <v>13893.38</v>
+        <v>0.0</v>
       </c>
       <c r="Y3">
-        <v>304624.52</v>
+        <v>100900.0</v>
       </c>
       <c r="Z3">
-        <v>199434.86</v>
+        <v>41313.56</v>
       </c>
       <c r="AA3">
-        <v>335525.13</v>
+        <v>337574.96</v>
       </c>
       <c r="AB3">
-        <v>50250.12</v>
+        <v>51798.68</v>
       </c>
       <c r="AC3">
-        <v>614568.25</v>
+        <v>618166.64</v>
       </c>
       <c r="AD3">
         <v>-0.0</v>
       </c>
       <c r="AE3">
-        <v>49836.5</v>
+        <v>31540.23</v>
       </c>
       <c r="AF3">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AG3">
-        <v>-132257.9</v>
+        <v>1393.69</v>
       </c>
       <c r="AH3">
-        <v>6.13876369e6</v>
+        <v>6.90299404e6</v>
       </c>
     </row>
     <row r="4" spans="1:34">
@@ -10786,13 +12039,13 @@
         <v>22</v>
       </c>
       <c r="B4">
-        <v>39.0</v>
+        <v>25.0</v>
       </c>
       <c r="C4">
-        <v>52158.0</v>
+        <v>33093.0</v>
       </c>
       <c r="D4">
-        <v>49854.0</v>
+        <v>31540.0</v>
       </c>
       <c r="E4">
         <v>0.0</v>
@@ -10804,22 +12057,22 @@
         <v>0.0</v>
       </c>
       <c r="H4">
-        <v>149.19099999999997</v>
+        <v>0.0</v>
       </c>
       <c r="I4">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="J4">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="K4">
-        <v>314.806</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>21608.0</v>
+        <v>0.0</v>
       </c>
       <c r="M4">
-        <v>190.75</v>
+        <v>600.0</v>
       </c>
       <c r="N4">
         <v>0.0</v>
@@ -10828,19 +12081,19 @@
         <v>0.0</v>
       </c>
       <c r="P4">
-        <v>2.993088e6</v>
+        <v>3.011373e6</v>
       </c>
       <c r="Q4">
-        <v>964.9368</v>
+        <v>968.5476</v>
       </c>
       <c r="R4">
-        <v>964.9368</v>
+        <v>968.5476</v>
       </c>
       <c r="S4">
         <v>974.7684</v>
       </c>
       <c r="T4">
-        <v>24123.42</v>
+        <v>24213.69</v>
       </c>
       <c r="U4">
         <v>24369.21</v>
@@ -10849,40 +12102,352 @@
         <v>0.01</v>
       </c>
       <c r="W4">
-        <v>190890.6</v>
+        <v>41313.56</v>
       </c>
       <c r="X4">
-        <v>13893.38</v>
+        <v>0.0</v>
       </c>
       <c r="Y4">
-        <v>304624.52</v>
+        <v>100900.0</v>
       </c>
       <c r="Z4">
-        <v>199434.86</v>
+        <v>41313.56</v>
       </c>
       <c r="AA4">
-        <v>335525.13</v>
+        <v>337574.96</v>
       </c>
       <c r="AB4">
-        <v>50250.12</v>
+        <v>51798.68</v>
       </c>
       <c r="AC4">
-        <v>614568.25</v>
+        <v>618166.64</v>
       </c>
       <c r="AD4">
         <v>-0.0</v>
       </c>
       <c r="AE4">
-        <v>49838.89</v>
+        <v>31540.23</v>
       </c>
       <c r="AF4">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="AG4">
-        <v>-113332.79</v>
+        <v>1393.69</v>
       </c>
       <c r="AH4">
-        <v>6.13919616e6</v>
+        <v>6.90387922e6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>25.0</v>
+      </c>
+      <c r="C5">
+        <v>33093.0</v>
+      </c>
+      <c r="D5">
+        <v>31540.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>0.0</v>
+      </c>
+      <c r="J5">
+        <v>0.0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.0</v>
+      </c>
+      <c r="M5">
+        <v>300.0</v>
+      </c>
+      <c r="N5">
+        <v>0.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>3.011373e6</v>
+      </c>
+      <c r="Q5">
+        <v>968.5476</v>
+      </c>
+      <c r="R5">
+        <v>968.5476</v>
+      </c>
+      <c r="S5">
+        <v>974.7684</v>
+      </c>
+      <c r="T5">
+        <v>24213.69</v>
+      </c>
+      <c r="U5">
+        <v>24369.21</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>41313.56</v>
+      </c>
+      <c r="X5">
+        <v>0.0</v>
+      </c>
+      <c r="Y5">
+        <v>100900.0</v>
+      </c>
+      <c r="Z5">
+        <v>41313.56</v>
+      </c>
+      <c r="AA5">
+        <v>337574.96</v>
+      </c>
+      <c r="AB5">
+        <v>51798.68</v>
+      </c>
+      <c r="AC5">
+        <v>618166.64</v>
+      </c>
+      <c r="AD5">
+        <v>-0.0</v>
+      </c>
+      <c r="AE5">
+        <v>31540.23</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5">
+        <v>1393.69</v>
+      </c>
+      <c r="AH5">
+        <v>6.83059762e6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>25.0</v>
+      </c>
+      <c r="C6">
+        <v>33093.0</v>
+      </c>
+      <c r="D6">
+        <v>31540.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
+        <v>0.0</v>
+      </c>
+      <c r="J6">
+        <v>0.0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.0</v>
+      </c>
+      <c r="M6">
+        <v>300.0</v>
+      </c>
+      <c r="N6">
+        <v>0.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>3.011373e6</v>
+      </c>
+      <c r="Q6">
+        <v>968.5476</v>
+      </c>
+      <c r="R6">
+        <v>968.5476</v>
+      </c>
+      <c r="S6">
+        <v>974.7684</v>
+      </c>
+      <c r="T6">
+        <v>24213.69</v>
+      </c>
+      <c r="U6">
+        <v>24369.21</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>41313.56</v>
+      </c>
+      <c r="X6">
+        <v>0.0</v>
+      </c>
+      <c r="Y6">
+        <v>100900.0</v>
+      </c>
+      <c r="Z6">
+        <v>41313.56</v>
+      </c>
+      <c r="AA6">
+        <v>337574.96</v>
+      </c>
+      <c r="AB6">
+        <v>51798.68</v>
+      </c>
+      <c r="AC6">
+        <v>618166.64</v>
+      </c>
+      <c r="AD6">
+        <v>-0.0</v>
+      </c>
+      <c r="AE6">
+        <v>31540.23</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6">
+        <v>1393.69</v>
+      </c>
+      <c r="AH6">
+        <v>6.83109948e6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>25.0</v>
+      </c>
+      <c r="C7">
+        <v>33093.0</v>
+      </c>
+      <c r="D7">
+        <v>31540.0</v>
+      </c>
+      <c r="E7">
+        <v>0.0</v>
+      </c>
+      <c r="F7">
+        <v>0.0</v>
+      </c>
+      <c r="G7">
+        <v>0.0</v>
+      </c>
+      <c r="H7">
+        <v>0.0</v>
+      </c>
+      <c r="I7">
+        <v>0.0</v>
+      </c>
+      <c r="J7">
+        <v>0.0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.0</v>
+      </c>
+      <c r="M7">
+        <v>300.0</v>
+      </c>
+      <c r="N7">
+        <v>0.0</v>
+      </c>
+      <c r="O7">
+        <v>0.0</v>
+      </c>
+      <c r="P7">
+        <v>3.011373e6</v>
+      </c>
+      <c r="Q7">
+        <v>968.5476</v>
+      </c>
+      <c r="R7">
+        <v>968.5476</v>
+      </c>
+      <c r="S7">
+        <v>974.7684</v>
+      </c>
+      <c r="T7">
+        <v>24213.69</v>
+      </c>
+      <c r="U7">
+        <v>24369.21</v>
+      </c>
+      <c r="V7">
+        <v>0.01</v>
+      </c>
+      <c r="W7">
+        <v>41313.56</v>
+      </c>
+      <c r="X7">
+        <v>0.0</v>
+      </c>
+      <c r="Y7">
+        <v>100900.0</v>
+      </c>
+      <c r="Z7">
+        <v>41313.56</v>
+      </c>
+      <c r="AA7">
+        <v>337574.96</v>
+      </c>
+      <c r="AB7">
+        <v>51798.68</v>
+      </c>
+      <c r="AC7">
+        <v>618166.64</v>
+      </c>
+      <c r="AD7">
+        <v>-0.0</v>
+      </c>
+      <c r="AE7">
+        <v>31540.23</v>
+      </c>
+      <c r="AF7">
+        <v>0.01</v>
+      </c>
+      <c r="AG7">
+        <v>1393.69</v>
+      </c>
+      <c r="AH7">
+        <v>6.83154207e6</v>
       </c>
     </row>
   </sheetData>
@@ -10890,9 +12455,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AE4"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0"/>
   </sheetViews>
@@ -11004,7 +12569,7 @@
         <v>983520.0</v>
       </c>
       <c r="D2">
-        <v>940067.0</v>
+        <v>937376.0</v>
       </c>
       <c r="E2">
         <v>0.0</v>
@@ -11016,76 +12581,76 @@
         <v>0.0</v>
       </c>
       <c r="H2">
-        <v>6677.986999999999</v>
+        <v>5463.151</v>
       </c>
       <c r="I2">
-        <v>355.0</v>
+        <v>711.0</v>
       </c>
       <c r="J2">
-        <v>1854.0</v>
+        <v>3709.0</v>
       </c>
       <c r="K2">
-        <v>121686.207</v>
+        <v>311557.02300000004</v>
       </c>
       <c r="L2">
-        <v>1.1670932e6</v>
+        <v>2.3341864e6</v>
       </c>
       <c r="M2">
-        <v>3.632889e6</v>
+        <v>3.656428e6</v>
       </c>
       <c r="N2">
-        <v>1092.1556</v>
+        <v>1134.9116</v>
       </c>
       <c r="O2">
-        <v>1092.1556</v>
+        <v>1134.9116</v>
       </c>
       <c r="P2">
-        <v>1066.8792</v>
+        <v>1067.41</v>
       </c>
       <c r="Q2">
-        <v>27303.89</v>
+        <v>28372.79</v>
       </c>
       <c r="R2">
-        <v>26671.98</v>
+        <v>26685.25</v>
       </c>
       <c r="S2">
-        <v>-0.02</v>
+        <v>-0.06</v>
       </c>
       <c r="T2">
         <v>0.0</v>
       </c>
       <c r="U2">
-        <v>815036.81</v>
+        <v>1.71382079e6</v>
       </c>
       <c r="V2">
-        <v>1.16709293e6</v>
+        <v>2.33418586e6</v>
       </c>
       <c r="W2">
-        <v>533740.25</v>
+        <v>1.04103141e6</v>
       </c>
       <c r="X2">
-        <v>423231.59</v>
+        <v>425973.88</v>
       </c>
       <c r="Y2">
-        <v>100596.81</v>
+        <v>88944.96</v>
       </c>
       <c r="Z2">
-        <v>543011.4</v>
+        <v>534101.84</v>
       </c>
       <c r="AA2">
         <v>-0.0</v>
       </c>
       <c r="AB2">
-        <v>939389.34</v>
+        <v>936821.6</v>
       </c>
       <c r="AC2">
         <v>0.21</v>
       </c>
       <c r="AD2">
-        <v>-588084.67</v>
+        <v>-1.3292481e6</v>
       </c>
       <c r="AE2">
-        <v>6.14898522e6</v>
+        <v>7.67172322e6</v>
       </c>
     </row>
     <row r="3" spans="1:31">
@@ -11099,7 +12664,7 @@
         <v>983520.0</v>
       </c>
       <c r="D3">
-        <v>940067.0</v>
+        <v>937376.0</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -11111,76 +12676,76 @@
         <v>0.0</v>
       </c>
       <c r="H3">
-        <v>6002.05</v>
+        <v>8457.886</v>
       </c>
       <c r="I3">
-        <v>411.0</v>
+        <v>830.0</v>
       </c>
       <c r="J3">
-        <v>2948.0</v>
+        <v>7322.0</v>
       </c>
       <c r="K3">
-        <v>235258.195</v>
+        <v>489211.26</v>
       </c>
       <c r="L3">
-        <v>1.7150861e6</v>
+        <v>4.08669625e6</v>
       </c>
       <c r="M3">
-        <v>3.645364e6</v>
+        <v>3.67534e6</v>
       </c>
       <c r="N3">
-        <v>1116.6192</v>
+        <v>1171.766</v>
       </c>
       <c r="O3">
-        <v>1116.6192</v>
+        <v>1171.766</v>
       </c>
       <c r="P3">
-        <v>1066.8792</v>
+        <v>1067.41</v>
       </c>
       <c r="Q3">
-        <v>27915.48</v>
+        <v>29294.15</v>
       </c>
       <c r="R3">
-        <v>26671.98</v>
+        <v>26685.25</v>
       </c>
       <c r="S3">
-        <v>-0.05</v>
+        <v>-0.1</v>
       </c>
       <c r="T3">
         <v>0.0</v>
       </c>
       <c r="U3">
-        <v>1.22271667e6</v>
+        <v>3.09108276e6</v>
       </c>
       <c r="V3">
-        <v>1.71509056e6</v>
+        <v>4.08669601e6</v>
       </c>
       <c r="W3">
-        <v>812282.27</v>
+        <v>1.92621057e6</v>
       </c>
       <c r="X3">
-        <v>424684.94</v>
+        <v>428177.16</v>
       </c>
       <c r="Y3">
-        <v>92913.73</v>
+        <v>80416.11</v>
       </c>
       <c r="Z3">
-        <v>536781.67</v>
+        <v>527776.27</v>
       </c>
       <c r="AA3">
         <v>-0.0</v>
       </c>
       <c r="AB3">
-        <v>939457.91</v>
+        <v>936517.81</v>
       </c>
       <c r="AC3">
         <v>0.21</v>
       </c>
       <c r="AD3">
-        <v>-895593.18</v>
+        <v>-2.5460817e6</v>
       </c>
       <c r="AE3">
-        <v>6.49697079e6</v>
+        <v>8.98029686e6</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -11194,7 +12759,7 @@
         <v>983520.0</v>
       </c>
       <c r="D4">
-        <v>940067.0</v>
+        <v>937376.0</v>
       </c>
       <c r="E4">
         <v>0.0</v>
@@ -11206,505 +12771,361 @@
         <v>0.0</v>
       </c>
       <c r="H4">
-        <v>4931.871999999999</v>
+        <v>18277.023</v>
       </c>
       <c r="I4">
-        <v>411.0</v>
+        <v>830.0</v>
       </c>
       <c r="J4">
-        <v>4414.0</v>
+        <v>10437.0</v>
       </c>
       <c r="K4">
-        <v>372791.924</v>
+        <v>565568.032</v>
       </c>
       <c r="L4">
-        <v>2.38178395e6</v>
+        <v>5.5043261e6</v>
       </c>
       <c r="M4">
-        <v>3.660427e6</v>
+        <v>3.682974e6</v>
       </c>
       <c r="N4">
-        <v>1149.0628</v>
+        <v>1180.5832</v>
       </c>
       <c r="O4">
-        <v>1149.0628</v>
+        <v>1180.5832</v>
       </c>
       <c r="P4">
-        <v>1066.8792</v>
+        <v>1067.41</v>
       </c>
       <c r="Q4">
-        <v>28726.57</v>
+        <v>29514.58</v>
       </c>
       <c r="R4">
-        <v>26671.98</v>
+        <v>26685.25</v>
       </c>
       <c r="S4">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
       <c r="T4">
         <v>0.0</v>
       </c>
       <c r="U4">
-        <v>1.7337057e6</v>
+        <v>4.22626276e6</v>
       </c>
       <c r="V4">
-        <v>2.38178535e6</v>
+        <v>5.50432621e6</v>
       </c>
       <c r="W4">
-        <v>1.16792893e6</v>
+        <v>2.66637835e6</v>
       </c>
       <c r="X4">
-        <v>426439.74</v>
+        <v>429066.52</v>
       </c>
       <c r="Y4">
-        <v>85792.7</v>
+        <v>77070.71</v>
       </c>
       <c r="Z4">
-        <v>531415.44</v>
+        <v>525320.23</v>
       </c>
       <c r="AA4">
         <v>-0.0</v>
       </c>
       <c r="AB4">
-        <v>939566.47</v>
+        <v>935521.76</v>
       </c>
       <c r="AC4">
         <v>0.21</v>
       </c>
       <c r="AD4">
-        <v>-1.33615571e6</v>
+        <v>-3.61151452e6</v>
       </c>
       <c r="AE4">
-        <v>6.95653973e6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:AH4"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
+        <v>1.008880714e7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B2">
-        <v>38.0</v>
-      </c>
-      <c r="C2">
-        <v>50639.0</v>
-      </c>
-      <c r="D2">
-        <v>48402.0</v>
-      </c>
-      <c r="E2">
+      <c r="B5">
+        <v>743.0</v>
+      </c>
+      <c r="C5">
+        <v>983520.0</v>
+      </c>
+      <c r="D5">
+        <v>937376.0</v>
+      </c>
+      <c r="E5">
         <v>0.0</v>
       </c>
-      <c r="F2">
+      <c r="F5">
         <v>0.0</v>
       </c>
-      <c r="G2">
+      <c r="G5">
         <v>0.0</v>
       </c>
-      <c r="H2">
-        <v>65.358</v>
-      </c>
-      <c r="I2">
-        <v>10.0</v>
-      </c>
-      <c r="J2">
-        <v>13.0</v>
-      </c>
-      <c r="K2">
-        <v>154.42600000000002</v>
-      </c>
-      <c r="L2">
-        <v>14496.0</v>
-      </c>
-      <c r="M2">
-        <v>1.1323322e7</v>
-      </c>
-      <c r="N2">
-        <v>808.0</v>
-      </c>
-      <c r="O2">
+      <c r="H5">
+        <v>6678.348999999999</v>
+      </c>
+      <c r="I5">
+        <v>355.0</v>
+      </c>
+      <c r="J5">
+        <v>1854.0</v>
+      </c>
+      <c r="K5">
+        <v>121856.234</v>
+      </c>
+      <c r="L5">
+        <v>1.1670932e6</v>
+      </c>
+      <c r="M5">
+        <v>3.635599e6</v>
+      </c>
+      <c r="N5">
+        <v>1092.7448</v>
+      </c>
+      <c r="O5">
+        <v>1092.7448</v>
+      </c>
+      <c r="P5">
+        <v>1067.41</v>
+      </c>
+      <c r="Q5">
+        <v>27318.62</v>
+      </c>
+      <c r="R5">
+        <v>26685.25</v>
+      </c>
+      <c r="S5">
+        <v>-0.02</v>
+      </c>
+      <c r="T5">
         <v>0.0</v>
       </c>
-      <c r="P2">
+      <c r="U5">
+        <v>856910.39</v>
+      </c>
+      <c r="V5">
+        <v>1.16709293e6</v>
+      </c>
+      <c r="W5">
+        <v>520515.71</v>
+      </c>
+      <c r="X5">
+        <v>423547.33</v>
+      </c>
+      <c r="Y5">
+        <v>100681.77</v>
+      </c>
+      <c r="Z5">
+        <v>543412.1</v>
+      </c>
+      <c r="AA5">
+        <v>-0.0</v>
+      </c>
+      <c r="AB5">
+        <v>936698.33</v>
+      </c>
+      <c r="AC5">
+        <v>0.21</v>
+      </c>
+      <c r="AD5">
+        <v>-599229.49</v>
+      </c>
+      <c r="AE5">
+        <v>6.91591141e6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>743.0</v>
+      </c>
+      <c r="C6">
+        <v>983520.0</v>
+      </c>
+      <c r="D6">
+        <v>937376.0</v>
+      </c>
+      <c r="E6">
         <v>0.0</v>
       </c>
-      <c r="Q2">
-        <v>3631.5468</v>
-      </c>
-      <c r="R2">
-        <v>3631.5468</v>
-      </c>
-      <c r="S2">
-        <v>3641.0904</v>
-      </c>
-      <c r="T2">
-        <v>90788.67</v>
-      </c>
-      <c r="U2">
-        <v>91027.26</v>
-      </c>
-      <c r="V2">
+      <c r="F6">
         <v>0.0</v>
       </c>
-      <c r="W2">
-        <v>590306.34</v>
-      </c>
-      <c r="X2">
-        <v>8963.71</v>
-      </c>
-      <c r="Y2">
-        <v>694245.1</v>
-      </c>
-      <c r="Z2">
-        <v>595639.43</v>
-      </c>
-      <c r="AA2">
-        <v>1.31916704e6</v>
-      </c>
-      <c r="AB2">
-        <v>220602.28</v>
-      </c>
-      <c r="AC2">
-        <v>1.55895232e6</v>
-      </c>
-      <c r="AD2">
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>5995.566000000001</v>
+      </c>
+      <c r="I6">
+        <v>411.0</v>
+      </c>
+      <c r="J6">
+        <v>2952.0</v>
+      </c>
+      <c r="K6">
+        <v>236015.402</v>
+      </c>
+      <c r="L6">
+        <v>1.71696525e6</v>
+      </c>
+      <c r="M6">
+        <v>3.648139e6</v>
+      </c>
+      <c r="N6">
+        <v>1117.3464</v>
+      </c>
+      <c r="O6">
+        <v>1117.3464</v>
+      </c>
+      <c r="P6">
+        <v>1067.41</v>
+      </c>
+      <c r="Q6">
+        <v>27933.66</v>
+      </c>
+      <c r="R6">
+        <v>26685.25</v>
+      </c>
+      <c r="S6">
+        <v>-0.05</v>
+      </c>
+      <c r="T6">
+        <v>0.0</v>
+      </c>
+      <c r="U6">
+        <v>1.28517019e6</v>
+      </c>
+      <c r="V6">
+        <v>1.71696449e6</v>
+      </c>
+      <c r="W6">
+        <v>793820.21</v>
+      </c>
+      <c r="X6">
+        <v>425008.25</v>
+      </c>
+      <c r="Y6">
+        <v>92962.36</v>
+      </c>
+      <c r="Z6">
+        <v>537153.61</v>
+      </c>
+      <c r="AA6">
         <v>-0.0</v>
       </c>
-      <c r="AE2">
-        <v>48395.35</v>
-      </c>
-      <c r="AF2">
+      <c r="AB6">
+        <v>936767.59</v>
+      </c>
+      <c r="AC6">
+        <v>0.21</v>
+      </c>
+      <c r="AD6">
+        <v>-913659.33</v>
+      </c>
+      <c r="AE6">
+        <v>7.27621127e6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>743.0</v>
+      </c>
+      <c r="C7">
+        <v>983520.0</v>
+      </c>
+      <c r="D7">
+        <v>937376.0</v>
+      </c>
+      <c r="E7">
         <v>0.0</v>
       </c>
-      <c r="AG2">
-        <v>-601719.55</v>
-      </c>
-      <c r="AH2">
-        <v>1.570399352e7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>38.0</v>
-      </c>
-      <c r="C3">
-        <v>50639.0</v>
-      </c>
-      <c r="D3">
-        <v>48402.0</v>
-      </c>
-      <c r="E3">
+      <c r="F7">
         <v>0.0</v>
       </c>
-      <c r="F3">
+      <c r="G7">
         <v>0.0</v>
       </c>
-      <c r="G3">
+      <c r="H7">
+        <v>4933.978</v>
+      </c>
+      <c r="I7">
+        <v>411.0</v>
+      </c>
+      <c r="J7">
+        <v>4418.0</v>
+      </c>
+      <c r="K7">
+        <v>373624.515</v>
+      </c>
+      <c r="L7">
+        <v>2.3838997e6</v>
+      </c>
+      <c r="M7">
+        <v>3.66321e6</v>
+      </c>
+      <c r="N7">
+        <v>1149.8216</v>
+      </c>
+      <c r="O7">
+        <v>1149.8216</v>
+      </c>
+      <c r="P7">
+        <v>1067.41</v>
+      </c>
+      <c r="Q7">
+        <v>28745.54</v>
+      </c>
+      <c r="R7">
+        <v>26685.25</v>
+      </c>
+      <c r="S7">
+        <v>-0.08</v>
+      </c>
+      <c r="T7">
         <v>0.0</v>
       </c>
-      <c r="H3">
-        <v>75.307</v>
-      </c>
-      <c r="I3">
-        <v>10.0</v>
-      </c>
-      <c r="J3">
-        <v>13.0</v>
-      </c>
-      <c r="K3">
-        <v>154.42600000000002</v>
-      </c>
-      <c r="L3">
-        <v>14496.0</v>
-      </c>
-      <c r="M3">
-        <v>1.1323322e7</v>
-      </c>
-      <c r="N3">
-        <v>869.0</v>
-      </c>
-      <c r="O3">
-        <v>0.0</v>
-      </c>
-      <c r="P3">
-        <v>0.0</v>
-      </c>
-      <c r="Q3">
-        <v>3631.5468</v>
-      </c>
-      <c r="R3">
-        <v>3631.5468</v>
-      </c>
-      <c r="S3">
-        <v>3641.0904</v>
-      </c>
-      <c r="T3">
-        <v>90788.67</v>
-      </c>
-      <c r="U3">
-        <v>91027.26</v>
-      </c>
-      <c r="V3">
-        <v>0.0</v>
-      </c>
-      <c r="W3">
-        <v>629582.59</v>
-      </c>
-      <c r="X3">
-        <v>8963.71</v>
-      </c>
-      <c r="Y3">
-        <v>733521.35</v>
-      </c>
-      <c r="Z3">
-        <v>634915.68</v>
-      </c>
-      <c r="AA3">
-        <v>1.31916704e6</v>
-      </c>
-      <c r="AB3">
-        <v>220602.28</v>
-      </c>
-      <c r="AC3">
-        <v>1.55895232e6</v>
-      </c>
-      <c r="AD3">
+      <c r="U7">
+        <v>1.81922453e6</v>
+      </c>
+      <c r="V7">
+        <v>2.38389974e6</v>
+      </c>
+      <c r="W7">
+        <v>1.14203794e6</v>
+      </c>
+      <c r="X7">
+        <v>426764.02</v>
+      </c>
+      <c r="Y7">
+        <v>85836.4</v>
+      </c>
+      <c r="Z7">
+        <v>531783.42</v>
+      </c>
+      <c r="AA7">
         <v>-0.0</v>
       </c>
-      <c r="AE3">
-        <v>48394.34</v>
-      </c>
-      <c r="AF3">
-        <v>0.0</v>
-      </c>
-      <c r="AG3">
-        <v>-566729.71</v>
-      </c>
-      <c r="AH3">
-        <v>1.575709646e7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4">
-        <v>38.0</v>
-      </c>
-      <c r="C4">
-        <v>50639.0</v>
-      </c>
-      <c r="D4">
-        <v>48402.0</v>
-      </c>
-      <c r="E4">
-        <v>0.0</v>
-      </c>
-      <c r="F4">
-        <v>0.0</v>
-      </c>
-      <c r="G4">
-        <v>0.0</v>
-      </c>
-      <c r="H4">
-        <v>70.024</v>
-      </c>
-      <c r="I4">
-        <v>10.0</v>
-      </c>
-      <c r="J4">
-        <v>13.0</v>
-      </c>
-      <c r="K4">
-        <v>154.42600000000002</v>
-      </c>
-      <c r="L4">
-        <v>14496.0</v>
-      </c>
-      <c r="M4">
-        <v>1.1323322e7</v>
-      </c>
-      <c r="N4">
-        <v>869.0</v>
-      </c>
-      <c r="O4">
-        <v>0.0</v>
-      </c>
-      <c r="P4">
-        <v>0.0</v>
-      </c>
-      <c r="Q4">
-        <v>3631.5468</v>
-      </c>
-      <c r="R4">
-        <v>3631.5468</v>
-      </c>
-      <c r="S4">
-        <v>3641.0904</v>
-      </c>
-      <c r="T4">
-        <v>90788.67</v>
-      </c>
-      <c r="U4">
-        <v>91027.26</v>
-      </c>
-      <c r="V4">
-        <v>0.0</v>
-      </c>
-      <c r="W4">
-        <v>629582.59</v>
-      </c>
-      <c r="X4">
-        <v>8963.71</v>
-      </c>
-      <c r="Y4">
-        <v>733521.35</v>
-      </c>
-      <c r="Z4">
-        <v>634915.68</v>
-      </c>
-      <c r="AA4">
-        <v>1.31916704e6</v>
-      </c>
-      <c r="AB4">
-        <v>220602.28</v>
-      </c>
-      <c r="AC4">
-        <v>1.55895232e6</v>
-      </c>
-      <c r="AD4">
-        <v>-0.0</v>
-      </c>
-      <c r="AE4">
-        <v>48394.87</v>
-      </c>
-      <c r="AF4">
-        <v>0.0</v>
-      </c>
-      <c r="AG4">
-        <v>-484663.97</v>
-      </c>
-      <c r="AH4">
-        <v>1.575901671e7</v>
+      <c r="AB7">
+        <v>936875.28</v>
+      </c>
+      <c r="AC7">
+        <v>0.21</v>
+      </c>
+      <c r="AD7">
+        <v>-1.36786092e6</v>
+      </c>
+      <c r="AE7">
+        <v>7.7519516e6</v>
       </c>
     </row>
   </sheetData>
@@ -11713,7 +13134,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{302FF9D4-3188-4892-9E56-3D854CA9A79A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47415CC8-1181-432D-AD34-636F8812F1A0}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12476,7 +13897,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA2DB6B4-8272-45AB-973C-CC0B390E0A39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416652BD-C394-49EA-88E3-8AA0BAD72BFD}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -13237,7 +14658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F603744F-F068-43C4-BBF9-47A053CAA1D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE1A997-F314-4A62-89BA-4413EE3B277B}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14011,7 +15432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2613A67B-BD10-45F0-8C80-E78184959700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F425FA-15E7-4C39-B473-676C2EDD0394}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14576,7 +15997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89326CDB-1FF1-4FEC-AD86-B28961BFB3FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06C230-A691-4BE2-840C-1A38F86E1857}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -15146,7 +16567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC494A4-779E-4B61-A2D7-C8CF6AFC5679}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362D4CF7-5479-47CB-BDF8-D1581255825C}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5E05D6-53BC-4FDC-920E-E992CD223930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472B0AB-0F6D-4B3A-A5D8-3148A546A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="29" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="34" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,8 +46,16 @@
     <sheet name="CermakA_19" sheetId="31" r:id="rId31"/>
     <sheet name="MarkhamA_5" sheetId="32" r:id="rId32"/>
     <sheet name="ProvdientA_2" sheetId="33" r:id="rId33"/>
-    <sheet name="CermakA_20" r:id="rId37" sheetId="34"/>
-    <sheet name="MarkhamA_6" r:id="rId38" sheetId="35"/>
+    <sheet name="CermakA_20" sheetId="34" r:id="rId34"/>
+    <sheet name="MarkhamA_6" sheetId="35" r:id="rId35"/>
+    <sheet name="ProvidentA_3" sheetId="36" r:id="rId36"/>
+    <sheet name="ProvdientA_4" sheetId="37" r:id="rId37"/>
+    <sheet name="ProvdientA_5" sheetId="38" r:id="rId38"/>
+    <sheet name="ProvdientA_7" sheetId="39" r:id="rId39"/>
+    <sheet name="ProvdientA_8" sheetId="40" r:id="rId40"/>
+    <sheet name="ProvdientA_9" sheetId="41" r:id="rId41"/>
+    <sheet name="ProvdientA_12" sheetId="42" r:id="rId42"/>
+    <sheet name="ProvdientA_15" r:id="rId46" sheetId="43"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -209,9 +217,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -252,7 +261,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -262,6 +271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -544,7 +554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1EDFB6-003B-40D3-916A-4887B5533161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395729BA-10BD-4B25-AC0F-5B216AF3FDD7}">
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -556,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA8756D2-00F7-49A6-B485-9C8F37BF7F26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FBAA3C-DBD3-431E-809C-F4F85C538367}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -937,7 +947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB89762-FA85-40AA-93AB-3F1F2C6F2614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BBC2E5-4BF7-4EB7-AB8C-7B73EB6A30E1}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1318,7 +1328,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502B9D57-D36C-4348-808E-B7A02FBB9E82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C41EFD-130A-4E11-B4B9-D6596296CAAD}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1699,7 +1709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EF35C8-05F2-4A34-887D-1D4B9F00E383}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEF08C0-9391-4770-943A-B970B321108F}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2105,7 +2115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180F6AB2-A78E-469B-A11D-ED155315C590}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC35F5E6-66B5-46F8-9346-BDAAE72ED0B3}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2509,7 +2519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9DD933C-CFD5-46C3-9169-FC1CB9E35E29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BE0168-AD3F-4F9B-9733-DD9AC04ED9F2}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2914,7 +2924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC9AA68E-9590-45F3-A7F4-27FA5B180704}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1413B9-08D8-41C3-96D4-CF495C3F1958}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3295,7 +3305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B94A597-7A5B-4908-A476-B75C6FC47E11}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816341FD-151B-4F30-8779-9A9CDF783D65}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3676,7 +3686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A8DE4E0-CEE1-4A84-8AA7-61E11679A67C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2259-7005-41D6-B2F0-7F776BD4A0AA}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4057,7 +4067,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1C6D17-56A6-4BA2-B722-DE11F5F206E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6374CAE7-9326-408D-B550-718339F18820}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -4455,7 +4465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A938C5-C8E7-4878-8ECD-A83678743801}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548E326-8F97-46AA-BBB6-3FD6B2ABDFE0}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5230,7 +5240,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C03F61E-B8D1-4747-98F5-1CC0561FAF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16B9AEE-2A40-49DF-8E48-2F83029B0E83}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5611,7 +5621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD938BB-57BA-45DD-AE00-99660DEACE24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5301DC-A64D-49B6-AF9C-AFB81476A995}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5992,7 +6002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46E5DF6-0883-4AF4-9352-8A8412CDD9C5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06076B7F-5080-40DB-B294-6FB9F3096ED0}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6379,7 +6389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6C63A-2377-479B-8A9D-48F635E47E76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAED6-9753-43A3-B5B9-B485F29F2E65}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6801,7 +6811,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEED5C59-9DC8-45AB-9765-B999BFCBECA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8B79FD-5599-4BCF-8335-E09235BE7A0B}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7198,7 +7208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD98B9F5-5407-40D5-B7F3-BC7CE9C6C852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFBC2C7-4698-4510-99F7-CFDE382EFDBE}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
@@ -7617,7 +7627,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D273866-75D1-405A-89B5-852C74CF1AB7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DF8303-23BC-4EE7-96C5-618219109709}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8048,7 +8058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E0429B-BC45-441F-B020-B4077C5A6834}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E9947-6A1C-43E7-B54E-28815EE92C52}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8448,7 +8458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB01698-0FD7-4317-8279-AA5227B1E049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38FFBA2-C030-4248-AEFC-BE25DB35C431}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8879,7 +8889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C74EC0-CF53-40AA-BA70-6A11A835101A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E03F64-83B4-4DCC-B49C-19EB8722B2EB}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9308,7 +9318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2E02C8-42F4-4C40-B0F8-663F071CBB48}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E77198-1614-4243-85AD-5A7557612C28}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10069,7 +10079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BB0FE2-231F-4657-BA92-FAB7737D10FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8525BC-1C69-4452-927B-C2F964F5C1C0}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10464,10 +10474,10 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DA522B-6EB7-44F7-8AEB-EC6D625D6D56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405C6FD-063E-4857-9EDE-C5B40D94B794}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -10893,7 +10903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36546FEB-7917-4111-9751-B9CF3FC6FA22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A751E35-1BAB-497C-8E42-3DDE1B7D13D7}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11286,7 +11296,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A9EF7D-1E58-46AB-BB89-34AB7F3EB371}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A3C12F-3FE2-463A-86DC-0AF2C44A9FD3}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -11715,14 +11725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D6DA4-9240-4F96-AD7B-BF97CDDDF147}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:34" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11826,63 +11836,63 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D2">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="N2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q2">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R2">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S2">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T2">
         <v>24213.69</v>
@@ -11897,10 +11907,10 @@
         <v>41313.56</v>
       </c>
       <c r="X2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z2">
         <v>41313.56</v>
@@ -11915,7 +11925,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>31540.23</v>
@@ -11927,66 +11937,66 @@
         <v>1393.69</v>
       </c>
       <c r="AH2">
-        <v>6.90199032e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>6901990.3200000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D3">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="N3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q3">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R3">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S3">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T3">
         <v>24213.69</v>
@@ -12001,10 +12011,10 @@
         <v>41313.56</v>
       </c>
       <c r="X3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z3">
         <v>41313.56</v>
@@ -12019,7 +12029,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD3">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>31540.23</v>
@@ -12031,66 +12041,66 @@
         <v>1393.69</v>
       </c>
       <c r="AH3">
-        <v>6.90299404e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>6902994.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C4">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D4">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>600.0</v>
+        <v>600</v>
       </c>
       <c r="N4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q4">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R4">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S4">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T4">
         <v>24213.69</v>
@@ -12105,10 +12115,10 @@
         <v>41313.56</v>
       </c>
       <c r="X4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z4">
         <v>41313.56</v>
@@ -12123,7 +12133,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>31540.23</v>
@@ -12135,66 +12145,66 @@
         <v>1393.69</v>
       </c>
       <c r="AH4">
-        <v>6.90387922e6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>6903879.2199999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C5">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D5">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="N5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q5">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R5">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S5">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T5">
         <v>24213.69</v>
@@ -12209,10 +12219,10 @@
         <v>41313.56</v>
       </c>
       <c r="X5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z5">
         <v>41313.56</v>
@@ -12227,7 +12237,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>31540.23</v>
@@ -12239,66 +12249,66 @@
         <v>1393.69</v>
       </c>
       <c r="AH5">
-        <v>6.83059762e6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>6830597.6200000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C6">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D6">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="N6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q6">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R6">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S6">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T6">
         <v>24213.69</v>
@@ -12313,10 +12323,10 @@
         <v>41313.56</v>
       </c>
       <c r="X6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z6">
         <v>41313.56</v>
@@ -12331,7 +12341,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>31540.23</v>
@@ -12343,66 +12353,66 @@
         <v>1393.69</v>
       </c>
       <c r="AH6">
-        <v>6.83109948e6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
+        <v>6831099.4800000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>33093.0</v>
+        <v>33093</v>
       </c>
       <c r="D7">
-        <v>31540.0</v>
+        <v>31540</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>300.0</v>
+        <v>300</v>
       </c>
       <c r="N7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.011373e6</v>
+        <v>3011373</v>
       </c>
       <c r="Q7">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="R7">
-        <v>968.5476</v>
+        <v>968.54759999999999</v>
       </c>
       <c r="S7">
-        <v>974.7684</v>
+        <v>974.76840000000004</v>
       </c>
       <c r="T7">
         <v>24213.69</v>
@@ -12417,10 +12427,10 @@
         <v>41313.56</v>
       </c>
       <c r="X7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>100900.0</v>
+        <v>100900</v>
       </c>
       <c r="Z7">
         <v>41313.56</v>
@@ -12435,7 +12445,7 @@
         <v>618166.64</v>
       </c>
       <c r="AD7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>31540.23</v>
@@ -12447,7 +12457,7 @@
         <v>1393.69</v>
       </c>
       <c r="AH7">
-        <v>6.83154207e6</v>
+        <v>6831542.0700000003</v>
       </c>
     </row>
   </sheetData>
@@ -12456,14 +12466,14 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46981285-C411-44BE-8251-7BE0A1B7FF69}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12558,54 +12568,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31">
+    <row r="2" spans="1:31" dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C2">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D2">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>5463.151</v>
+        <v>5463.1509999999998</v>
       </c>
       <c r="I2">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="J2">
-        <v>3709.0</v>
+        <v>3709</v>
       </c>
       <c r="K2">
         <v>311557.02300000004</v>
       </c>
       <c r="L2">
-        <v>2.3341864e6</v>
+        <v>2334186.4</v>
       </c>
       <c r="M2">
-        <v>3.656428e6</v>
+        <v>3656428</v>
       </c>
       <c r="N2">
-        <v>1134.9116</v>
+        <v>1134.9115999999999</v>
       </c>
       <c r="O2">
-        <v>1134.9116</v>
+        <v>1134.9115999999999</v>
       </c>
       <c r="P2">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q2">
         <v>28372.79</v>
@@ -12617,28 +12627,28 @@
         <v>-0.06</v>
       </c>
       <c r="T2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>1.71382079e6</v>
+        <v>1713820.79</v>
       </c>
       <c r="V2">
-        <v>2.33418586e6</v>
+        <v>2334185.86</v>
       </c>
       <c r="W2">
-        <v>1.04103141e6</v>
+        <v>1041031.41</v>
       </c>
       <c r="X2">
         <v>425973.88</v>
       </c>
       <c r="Y2">
-        <v>88944.96</v>
+        <v>88944.960000000006</v>
       </c>
       <c r="Z2">
         <v>534101.84</v>
       </c>
       <c r="AA2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <v>936821.6</v>
@@ -12647,60 +12657,60 @@
         <v>0.21</v>
       </c>
       <c r="AD2">
-        <v>-1.3292481e6</v>
+        <v>-1329248.1000000001</v>
       </c>
       <c r="AE2">
-        <v>7.67172322e6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31">
+        <v>7671723.2199999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C3">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D3">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8457.886</v>
+        <v>8457.8860000000004</v>
       </c>
       <c r="I3">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="J3">
-        <v>7322.0</v>
+        <v>7322</v>
       </c>
       <c r="K3">
         <v>489211.26</v>
       </c>
       <c r="L3">
-        <v>4.08669625e6</v>
+        <v>4086696.25</v>
       </c>
       <c r="M3">
-        <v>3.67534e6</v>
+        <v>3675340</v>
       </c>
       <c r="N3">
-        <v>1171.766</v>
+        <v>1171.7660000000001</v>
       </c>
       <c r="O3">
-        <v>1171.766</v>
+        <v>1171.7660000000001</v>
       </c>
       <c r="P3">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q3">
         <v>29294.15</v>
@@ -12712,16 +12722,16 @@
         <v>-0.1</v>
       </c>
       <c r="T3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>3.09108276e6</v>
+        <v>3091082.76</v>
       </c>
       <c r="V3">
-        <v>4.08669601e6</v>
+        <v>4086696.01</v>
       </c>
       <c r="W3">
-        <v>1.92621057e6</v>
+        <v>1926210.57</v>
       </c>
       <c r="X3">
         <v>428177.16</v>
@@ -12733,7 +12743,7 @@
         <v>527776.27</v>
       </c>
       <c r="AA3">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>936517.81</v>
@@ -12742,51 +12752,51 @@
         <v>0.21</v>
       </c>
       <c r="AD3">
-        <v>-2.5460817e6</v>
+        <v>-2546081.7000000002</v>
       </c>
       <c r="AE3">
-        <v>8.98029686e6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31">
+        <v>8980296.8599999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C4">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D4">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>18277.023</v>
+        <v>18277.023000000001</v>
       </c>
       <c r="I4">
-        <v>830.0</v>
+        <v>830</v>
       </c>
       <c r="J4">
-        <v>10437.0</v>
+        <v>10437</v>
       </c>
       <c r="K4">
-        <v>565568.032</v>
+        <v>565568.03200000001</v>
       </c>
       <c r="L4">
-        <v>5.5043261e6</v>
+        <v>5504326.0999999996</v>
       </c>
       <c r="M4">
-        <v>3.682974e6</v>
+        <v>3682974</v>
       </c>
       <c r="N4">
         <v>1180.5832</v>
@@ -12795,7 +12805,7 @@
         <v>1180.5832</v>
       </c>
       <c r="P4">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q4">
         <v>29514.58</v>
@@ -12807,28 +12817,28 @@
         <v>-0.11</v>
       </c>
       <c r="T4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>4.22626276e6</v>
+        <v>4226262.76</v>
       </c>
       <c r="V4">
-        <v>5.50432621e6</v>
+        <v>5504326.21</v>
       </c>
       <c r="W4">
-        <v>2.66637835e6</v>
+        <v>2666378.35</v>
       </c>
       <c r="X4">
         <v>429066.52</v>
       </c>
       <c r="Y4">
-        <v>77070.71</v>
+        <v>77070.710000000006</v>
       </c>
       <c r="Z4">
         <v>525320.23</v>
       </c>
       <c r="AA4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>935521.76</v>
@@ -12837,60 +12847,60 @@
         <v>0.21</v>
       </c>
       <c r="AD4">
-        <v>-3.61151452e6</v>
+        <v>-3611514.52</v>
       </c>
       <c r="AE4">
-        <v>1.008880714e7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31">
+        <v>10088807.140000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C5">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D5">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>6678.348999999999</v>
+        <v>6678.3489999999993</v>
       </c>
       <c r="I5">
-        <v>355.0</v>
+        <v>355</v>
       </c>
       <c r="J5">
-        <v>1854.0</v>
+        <v>1854</v>
       </c>
       <c r="K5">
         <v>121856.234</v>
       </c>
       <c r="L5">
-        <v>1.1670932e6</v>
+        <v>1167093.2</v>
       </c>
       <c r="M5">
-        <v>3.635599e6</v>
+        <v>3635599</v>
       </c>
       <c r="N5">
-        <v>1092.7448</v>
+        <v>1092.7447999999999</v>
       </c>
       <c r="O5">
-        <v>1092.7448</v>
+        <v>1092.7447999999999</v>
       </c>
       <c r="P5">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q5">
         <v>27318.62</v>
@@ -12902,13 +12912,13 @@
         <v>-0.02</v>
       </c>
       <c r="T5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>856910.39</v>
       </c>
       <c r="V5">
-        <v>1.16709293e6</v>
+        <v>1167092.93</v>
       </c>
       <c r="W5">
         <v>520515.71</v>
@@ -12923,7 +12933,7 @@
         <v>543412.1</v>
       </c>
       <c r="AA5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB5">
         <v>936698.33</v>
@@ -12935,57 +12945,57 @@
         <v>-599229.49</v>
       </c>
       <c r="AE5">
-        <v>6.91591141e6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31">
+        <v>6915911.4100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C6">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D6">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5995.566000000001</v>
+        <v>5995.5660000000007</v>
       </c>
       <c r="I6">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="J6">
-        <v>2952.0</v>
+        <v>2952</v>
       </c>
       <c r="K6">
         <v>236015.402</v>
       </c>
       <c r="L6">
-        <v>1.71696525e6</v>
+        <v>1716965.25</v>
       </c>
       <c r="M6">
-        <v>3.648139e6</v>
+        <v>3648139</v>
       </c>
       <c r="N6">
-        <v>1117.3464</v>
+        <v>1117.3463999999999</v>
       </c>
       <c r="O6">
-        <v>1117.3464</v>
+        <v>1117.3463999999999</v>
       </c>
       <c r="P6">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q6">
         <v>27933.66</v>
@@ -12997,13 +13007,13 @@
         <v>-0.05</v>
       </c>
       <c r="T6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>1.28517019e6</v>
+        <v>1285170.19</v>
       </c>
       <c r="V6">
-        <v>1.71696449e6</v>
+        <v>1716964.49</v>
       </c>
       <c r="W6">
         <v>793820.21</v>
@@ -13018,7 +13028,7 @@
         <v>537153.61</v>
       </c>
       <c r="AA6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>936767.59</v>
@@ -13030,48 +13040,48 @@
         <v>-913659.33</v>
       </c>
       <c r="AE6">
-        <v>7.27621127e6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31">
+        <v>7276211.2699999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>743.0</v>
+        <v>743</v>
       </c>
       <c r="C7">
-        <v>983520.0</v>
+        <v>983520</v>
       </c>
       <c r="D7">
-        <v>937376.0</v>
+        <v>937376</v>
       </c>
       <c r="E7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>4933.978</v>
+        <v>4933.9780000000001</v>
       </c>
       <c r="I7">
-        <v>411.0</v>
+        <v>411</v>
       </c>
       <c r="J7">
-        <v>4418.0</v>
+        <v>4418</v>
       </c>
       <c r="K7">
-        <v>373624.515</v>
+        <v>373624.51500000001</v>
       </c>
       <c r="L7">
-        <v>2.3838997e6</v>
+        <v>2383899.7000000002</v>
       </c>
       <c r="M7">
-        <v>3.66321e6</v>
+        <v>3663210</v>
       </c>
       <c r="N7">
         <v>1149.8216</v>
@@ -13080,7 +13090,7 @@
         <v>1149.8216</v>
       </c>
       <c r="P7">
-        <v>1067.41</v>
+        <v>1067.4100000000001</v>
       </c>
       <c r="Q7">
         <v>28745.54</v>
@@ -13092,16 +13102,16 @@
         <v>-0.08</v>
       </c>
       <c r="T7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.81922453e6</v>
+        <v>1819224.53</v>
       </c>
       <c r="V7">
-        <v>2.38389974e6</v>
+        <v>2383899.7400000002</v>
       </c>
       <c r="W7">
-        <v>1.14203794e6</v>
+        <v>1142037.94</v>
       </c>
       <c r="X7">
         <v>426764.02</v>
@@ -13110,10 +13120,10 @@
         <v>85836.4</v>
       </c>
       <c r="Z7">
-        <v>531783.42</v>
+        <v>531783.42000000004</v>
       </c>
       <c r="AA7">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>936875.28</v>
@@ -13122,10 +13132,1944 @@
         <v>0.21</v>
       </c>
       <c r="AD7">
-        <v>-1.36786092e6</v>
+        <v>-1367860.92</v>
       </c>
       <c r="AE7">
-        <v>7.7519516e6</v>
+        <v>7751951.5999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82711133-7824-47B4-A0E8-843AA046DF1A}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>191</v>
+      </c>
+      <c r="C2">
+        <v>252399</v>
+      </c>
+      <c r="D2">
+        <v>240557</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11131153</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R2">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>89841.09</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>315098.81</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>769565.05</v>
+      </c>
+      <c r="Z2">
+        <v>315098.81</v>
+      </c>
+      <c r="AA2">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB2">
+        <v>216008.71</v>
+      </c>
+      <c r="AC2">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>240557.61</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2">
+        <v>31360.16</v>
+      </c>
+      <c r="AH2">
+        <v>17513321.760000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>191</v>
+      </c>
+      <c r="C3">
+        <v>252399</v>
+      </c>
+      <c r="D3">
+        <v>240557</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11131153</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R3">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>89841.09</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>315098.81</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>769565.05</v>
+      </c>
+      <c r="Z3">
+        <v>315098.81</v>
+      </c>
+      <c r="AA3">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB3">
+        <v>216008.71</v>
+      </c>
+      <c r="AC3">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>240557.61</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3">
+        <v>31606.91</v>
+      </c>
+      <c r="AH3">
+        <v>17517103.289999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>191</v>
+      </c>
+      <c r="C4">
+        <v>252399</v>
+      </c>
+      <c r="D4">
+        <v>240557</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11131153</v>
+      </c>
+      <c r="N4">
+        <v>1590</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R4">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>89841.09</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>635899.81000000006</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1090366.05</v>
+      </c>
+      <c r="Z4">
+        <v>635899.81000000006</v>
+      </c>
+      <c r="AA4">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB4">
+        <v>216008.71</v>
+      </c>
+      <c r="AC4">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>240557.61</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4">
+        <v>-352056.77</v>
+      </c>
+      <c r="AH4">
+        <v>17691615.289999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>239</v>
+      </c>
+      <c r="C5">
+        <v>316345</v>
+      </c>
+      <c r="D5">
+        <v>301503</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>11070208</v>
+      </c>
+      <c r="N5">
+        <v>1610</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3581.6232</v>
+      </c>
+      <c r="R5">
+        <v>3581.6232</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>89540.58</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.02</v>
+      </c>
+      <c r="W5">
+        <v>728898.3</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1298503.43</v>
+      </c>
+      <c r="Z5">
+        <v>728898.3</v>
+      </c>
+      <c r="AA5">
+        <v>1289679.22</v>
+      </c>
+      <c r="AB5">
+        <v>214958.87</v>
+      </c>
+      <c r="AC5">
+        <v>1523821.09</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>301502.81</v>
+      </c>
+      <c r="AF5">
+        <v>0.03</v>
+      </c>
+      <c r="AG5">
+        <v>-301755.75</v>
+      </c>
+      <c r="AH5">
+        <v>17714907.149999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>191</v>
+      </c>
+      <c r="C6">
+        <v>252399</v>
+      </c>
+      <c r="D6">
+        <v>240557</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>11131153</v>
+      </c>
+      <c r="N6">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R6">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>89841.09</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>315098.81</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>769565.05</v>
+      </c>
+      <c r="Z6">
+        <v>315098.81</v>
+      </c>
+      <c r="AA6">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB6">
+        <v>216008.71</v>
+      </c>
+      <c r="AC6">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>240557.61</v>
+      </c>
+      <c r="AF6">
+        <v>0.02</v>
+      </c>
+      <c r="AG6">
+        <v>31646.26</v>
+      </c>
+      <c r="AH6">
+        <v>17255864.120000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9F6289-2BE8-47DA-B231-D752CF58AC25}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>191</v>
+      </c>
+      <c r="C2" s="7">
+        <v>252399</v>
+      </c>
+      <c r="D2" s="7">
+        <v>240557</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11131153</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R2">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>89841.09</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>315098.81</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>769565.05</v>
+      </c>
+      <c r="Z2">
+        <v>315098.81</v>
+      </c>
+      <c r="AA2">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB2">
+        <v>216008.71</v>
+      </c>
+      <c r="AC2">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>240557.61</v>
+      </c>
+      <c r="AF2">
+        <v>0.02</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>31360.16</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>17513321.760000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>191</v>
+      </c>
+      <c r="C3" s="7">
+        <v>252399</v>
+      </c>
+      <c r="D3" s="7">
+        <v>240557</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11131153</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R3">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>89841.09</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>315098.81</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>769565.05</v>
+      </c>
+      <c r="Z3">
+        <v>315098.81</v>
+      </c>
+      <c r="AA3">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB3">
+        <v>216008.71</v>
+      </c>
+      <c r="AC3">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>240557.61</v>
+      </c>
+      <c r="AF3">
+        <v>0.02</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>31606.91</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>17517103.289999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>191</v>
+      </c>
+      <c r="C4" s="7">
+        <v>252399</v>
+      </c>
+      <c r="D4" s="7">
+        <v>240557</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>11131153</v>
+      </c>
+      <c r="N4">
+        <v>1590</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R4">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>89841.09</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>635899.81000000006</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1090366.05</v>
+      </c>
+      <c r="Z4">
+        <v>635899.81000000006</v>
+      </c>
+      <c r="AA4">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB4">
+        <v>216008.71</v>
+      </c>
+      <c r="AC4">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>240557.61</v>
+      </c>
+      <c r="AF4">
+        <v>0.02</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>-352056.77</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>17691615.289999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>239</v>
+      </c>
+      <c r="C5" s="7">
+        <v>316345</v>
+      </c>
+      <c r="D5" s="7">
+        <v>301503</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>11070208</v>
+      </c>
+      <c r="N5">
+        <v>1610</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3581.6232</v>
+      </c>
+      <c r="R5">
+        <v>3581.6232</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>89540.58</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.02</v>
+      </c>
+      <c r="W5">
+        <v>728898.3</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>1298503.43</v>
+      </c>
+      <c r="Z5">
+        <v>728898.3</v>
+      </c>
+      <c r="AA5">
+        <v>1289679.22</v>
+      </c>
+      <c r="AB5">
+        <v>214958.87</v>
+      </c>
+      <c r="AC5">
+        <v>1523821.09</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>301502.81</v>
+      </c>
+      <c r="AF5">
+        <v>0.03</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-301755.75</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>17714907.149999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>191</v>
+      </c>
+      <c r="C6" s="7">
+        <v>252399</v>
+      </c>
+      <c r="D6" s="7">
+        <v>240557</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>11131153</v>
+      </c>
+      <c r="N6">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="R6">
+        <v>3593.6435999999999</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>89841.09</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>315098.81</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>769565.05</v>
+      </c>
+      <c r="Z6">
+        <v>315098.81</v>
+      </c>
+      <c r="AA6">
+        <v>1296779.3400000001</v>
+      </c>
+      <c r="AB6">
+        <v>216008.71</v>
+      </c>
+      <c r="AC6">
+        <v>1531971.05</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>240557.61</v>
+      </c>
+      <c r="AF6">
+        <v>0.02</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>31646.26</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>17255864.120000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D155F8-269D-42B0-84F6-DE6027316028}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11206490</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5028000000002</v>
+      </c>
+      <c r="R2">
+        <v>3608.5028000000002</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.57</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>528554.56000000006</v>
+      </c>
+      <c r="Z2">
+        <v>216416.94</v>
+      </c>
+      <c r="AA2">
+        <v>1305556.1299999999</v>
+      </c>
+      <c r="AB2">
+        <v>218066.67</v>
+      </c>
+      <c r="AC2">
+        <v>1542805.8</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>25098.27</v>
+      </c>
+      <c r="AH2">
+        <v>17519583.649999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>11206490</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5028000000002</v>
+      </c>
+      <c r="R3">
+        <v>3608.5028000000002</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.57</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>528554.56000000006</v>
+      </c>
+      <c r="Z3">
+        <v>216416.94</v>
+      </c>
+      <c r="AA3">
+        <v>1305556.1299999999</v>
+      </c>
+      <c r="AB3">
+        <v>218066.67</v>
+      </c>
+      <c r="AC3">
+        <v>1542805.8</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3">
+        <v>25267.75</v>
+      </c>
+      <c r="AH3">
+        <v>17523442.460000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D0B9D-903E-452F-B9B3-0B96251400AF}">
+  <dimension ref="A1:AH3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2">
+        <v>23469</v>
+      </c>
+      <c r="M2">
+        <v>11206510</v>
+      </c>
+      <c r="N2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.69</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB2">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2">
+        <v>17470945.239999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3">
+        <v>23469</v>
+      </c>
+      <c r="M3">
+        <v>11206510</v>
+      </c>
+      <c r="N3">
+        <v>2000</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.69</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB3">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3">
+        <v>17474804.050000001</v>
       </c>
     </row>
   </sheetData>
@@ -13134,7 +15078,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47415CC8-1181-432D-AD34-636F8812F1A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA4346A-4631-4F6F-AF98-90BE2A48583F}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13896,8 +15840,2572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF710024-7979-4C3E-9BAF-55A244D8D55A}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2">
+        <v>23469</v>
+      </c>
+      <c r="M2">
+        <v>11206510</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.69</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB2">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2">
+        <v>17516361.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3">
+        <v>23469</v>
+      </c>
+      <c r="M3">
+        <v>11206510</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.69</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB3">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3">
+        <v>17520220.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>173354</v>
+      </c>
+      <c r="D4">
+        <v>165221</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>66</v>
+      </c>
+      <c r="K4">
+        <v>886.40500000000009</v>
+      </c>
+      <c r="L4">
+        <v>65302</v>
+      </c>
+      <c r="M4">
+        <v>11206569</v>
+      </c>
+      <c r="N4">
+        <v>1556</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="R4">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90213.74</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>515339.53</v>
+      </c>
+      <c r="X4">
+        <v>43864.95</v>
+      </c>
+      <c r="Y4">
+        <v>892777.86</v>
+      </c>
+      <c r="Z4">
+        <v>539794.47</v>
+      </c>
+      <c r="AA4">
+        <v>1305565.3400000001</v>
+      </c>
+      <c r="AB4">
+        <v>214429.32</v>
+      </c>
+      <c r="AC4">
+        <v>1539177.66</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4">
+        <v>-332928.38</v>
+      </c>
+      <c r="AH4">
+        <v>17672486.899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>173354</v>
+      </c>
+      <c r="D5">
+        <v>165221</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>76</v>
+      </c>
+      <c r="K5">
+        <v>933.14200000000005</v>
+      </c>
+      <c r="L5">
+        <v>63404</v>
+      </c>
+      <c r="M5">
+        <v>11206572</v>
+      </c>
+      <c r="N5">
+        <v>1639</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="R5">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>90213.88</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>569059.86</v>
+      </c>
+      <c r="X5">
+        <v>43874.36</v>
+      </c>
+      <c r="Y5">
+        <v>944603.13</v>
+      </c>
+      <c r="Z5">
+        <v>594272.34</v>
+      </c>
+      <c r="AA5">
+        <v>1305565.5900000001</v>
+      </c>
+      <c r="AB5">
+        <v>214367.95</v>
+      </c>
+      <c r="AC5">
+        <v>1539116.54</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5">
+        <v>-335806.03</v>
+      </c>
+      <c r="AH5">
+        <v>17748957.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>173354</v>
+      </c>
+      <c r="D6">
+        <v>165221</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>20</v>
+      </c>
+      <c r="K6">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L6">
+        <v>23469</v>
+      </c>
+      <c r="M6">
+        <v>11206510</v>
+      </c>
+      <c r="N6">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R6">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>90212.69</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>216416.94</v>
+      </c>
+      <c r="X6">
+        <v>15398.93</v>
+      </c>
+      <c r="Y6">
+        <v>552026.61</v>
+      </c>
+      <c r="Z6">
+        <v>224785.97</v>
+      </c>
+      <c r="AA6">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB6">
+        <v>216349.55</v>
+      </c>
+      <c r="AC6">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6">
+        <v>30751.3</v>
+      </c>
+      <c r="AH6">
+        <v>17260724.510000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29823539-0B88-44E2-9A0E-C3E27921992B}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>23469</v>
+      </c>
+      <c r="M2">
+        <v>11206510</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.69</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB2">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>17516361.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>23469</v>
+      </c>
+      <c r="M3">
+        <v>11206510</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.69</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB3">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>17520220.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>173354</v>
+      </c>
+      <c r="D4">
+        <v>165221</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+      <c r="J4">
+        <v>66</v>
+      </c>
+      <c r="K4" s="3">
+        <v>886.40500000000009</v>
+      </c>
+      <c r="L4" s="1">
+        <v>65302</v>
+      </c>
+      <c r="M4">
+        <v>11206569</v>
+      </c>
+      <c r="N4">
+        <v>1556</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="R4">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90213.74</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>515339.53</v>
+      </c>
+      <c r="X4">
+        <v>43864.95</v>
+      </c>
+      <c r="Y4">
+        <v>892777.86</v>
+      </c>
+      <c r="Z4">
+        <v>539794.47</v>
+      </c>
+      <c r="AA4">
+        <v>1305565.3400000001</v>
+      </c>
+      <c r="AB4">
+        <v>214429.32</v>
+      </c>
+      <c r="AC4">
+        <v>1539177.66</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>-332928.38</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>17672486.899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>173354</v>
+      </c>
+      <c r="D5">
+        <v>165221</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>32</v>
+      </c>
+      <c r="J5">
+        <v>76</v>
+      </c>
+      <c r="K5" s="3">
+        <v>933.14200000000005</v>
+      </c>
+      <c r="L5" s="1">
+        <v>63404</v>
+      </c>
+      <c r="M5">
+        <v>11206572</v>
+      </c>
+      <c r="N5">
+        <v>1639</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="R5">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>90213.88</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>569059.86</v>
+      </c>
+      <c r="X5">
+        <v>43874.36</v>
+      </c>
+      <c r="Y5">
+        <v>944603.13</v>
+      </c>
+      <c r="Z5">
+        <v>594272.34</v>
+      </c>
+      <c r="AA5">
+        <v>1305565.5900000001</v>
+      </c>
+      <c r="AB5">
+        <v>214367.95</v>
+      </c>
+      <c r="AC5">
+        <v>1539116.54</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-335806.03</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>17748957.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>173354</v>
+      </c>
+      <c r="D6">
+        <v>165221</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>159</v>
+      </c>
+      <c r="J6">
+        <v>2566</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41877.048999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1312520</v>
+      </c>
+      <c r="M6">
+        <v>11210406</v>
+      </c>
+      <c r="N6">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="R6">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>90340.51</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>216416.94</v>
+      </c>
+      <c r="X6">
+        <v>1016200.9</v>
+      </c>
+      <c r="Y6">
+        <v>1841075.61</v>
+      </c>
+      <c r="Z6">
+        <v>861875.52</v>
+      </c>
+      <c r="AA6">
+        <v>1306012.28</v>
+      </c>
+      <c r="AB6">
+        <v>199855.16</v>
+      </c>
+      <c r="AC6">
+        <v>1525050.44</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-752491.06</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>18087788.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2:AH6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
+      <c r="A1" t="s" s="2">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>16</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2" s="1">
+        <v>23469</v>
+      </c>
+      <c r="M2">
+        <v>11206510</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R2">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.69</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB2">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>17516361.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3" s="1">
+        <v>23469</v>
+      </c>
+      <c r="M3">
+        <v>11206510</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R3">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.69</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB3">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>17520220.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>173354</v>
+      </c>
+      <c r="D4">
+        <v>165221</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>150</v>
+      </c>
+      <c r="J4">
+        <v>88</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1205.1390000000001</v>
+      </c>
+      <c r="L4" s="1">
+        <v>176663</v>
+      </c>
+      <c r="M4">
+        <v>11206598</v>
+      </c>
+      <c r="N4">
+        <v>1553</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3608.5812000000001</v>
+      </c>
+      <c r="R4">
+        <v>3608.5812000000001</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90214.53</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>513611.75</v>
+      </c>
+      <c r="X4">
+        <v>108687.1</v>
+      </c>
+      <c r="Y4">
+        <v>1002410.1</v>
+      </c>
+      <c r="Z4">
+        <v>568349.19999999995</v>
+      </c>
+      <c r="AA4">
+        <v>1305568.72</v>
+      </c>
+      <c r="AB4">
+        <v>213824.88</v>
+      </c>
+      <c r="AC4">
+        <v>1538576.6</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>-388860.94</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>17728419.460000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>173354</v>
+      </c>
+      <c r="D5">
+        <v>165221</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>150</v>
+      </c>
+      <c r="J5">
+        <v>140</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1991.9949999999999</v>
+      </c>
+      <c r="L5" s="1">
+        <v>200246</v>
+      </c>
+      <c r="M5">
+        <v>11206671</v>
+      </c>
+      <c r="N5">
+        <v>1626</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3608.6752000000001</v>
+      </c>
+      <c r="R5">
+        <v>3608.6752000000001</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>90216.88</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>561187.09</v>
+      </c>
+      <c r="X5">
+        <v>127572.32</v>
+      </c>
+      <c r="Y5">
+        <v>1073569.5900000001</v>
+      </c>
+      <c r="Z5">
+        <v>628238.19999999995</v>
+      </c>
+      <c r="AA5">
+        <v>1305577.1599999999</v>
+      </c>
+      <c r="AB5">
+        <v>212741.18</v>
+      </c>
+      <c r="AC5">
+        <v>1537501.34</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-391209.07</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>17804360.469999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>173354</v>
+      </c>
+      <c r="D6">
+        <v>165221</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>159</v>
+      </c>
+      <c r="J6">
+        <v>2566</v>
+      </c>
+      <c r="K6" s="3">
+        <v>41877.048999999999</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1312520</v>
+      </c>
+      <c r="M6">
+        <v>11210406</v>
+      </c>
+      <c r="N6">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="R6">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>90340.51</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>216416.94</v>
+      </c>
+      <c r="X6">
+        <v>1016200.9</v>
+      </c>
+      <c r="Y6">
+        <v>1841075.61</v>
+      </c>
+      <c r="Z6">
+        <v>861875.52</v>
+      </c>
+      <c r="AA6">
+        <v>1306012.28</v>
+      </c>
+      <c r="AB6">
+        <v>199855.16</v>
+      </c>
+      <c r="AC6">
+        <v>1525050.44</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-752491.06</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>18087788.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+  <dimension ref="A1:AH6"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>32</v>
+      </c>
+      <c r="X1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131.0</v>
+      </c>
+      <c r="C2">
+        <v>173354.0</v>
+      </c>
+      <c r="D2">
+        <v>165221.0</v>
+      </c>
+      <c r="E2">
+        <v>0.0</v>
+      </c>
+      <c r="F2">
+        <v>0.0</v>
+      </c>
+      <c r="G2">
+        <v>0.0</v>
+      </c>
+      <c r="H2">
+        <v>0.0</v>
+      </c>
+      <c r="I2">
+        <v>16.0</v>
+      </c>
+      <c r="J2">
+        <v>20.0</v>
+      </c>
+      <c r="K2">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2">
+        <v>23469.0</v>
+      </c>
+      <c r="M2">
+        <v>1.120651e7</v>
+      </c>
+      <c r="N2">
+        <v>2192.0</v>
+      </c>
+      <c r="O2">
+        <v>0.0</v>
+      </c>
+      <c r="P2">
+        <v>0.0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5076</v>
+      </c>
+      <c r="R2">
+        <v>3608.5076</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.69</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2">
+        <v>1.30555841e6</v>
+      </c>
+      <c r="AB2">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2">
+        <v>1.54109096e6</v>
+      </c>
+      <c r="AD2">
+        <v>-0.0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2">
+        <v>1.751636143e7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131.0</v>
+      </c>
+      <c r="C3">
+        <v>173354.0</v>
+      </c>
+      <c r="D3">
+        <v>165221.0</v>
+      </c>
+      <c r="E3">
+        <v>0.0</v>
+      </c>
+      <c r="F3">
+        <v>0.0</v>
+      </c>
+      <c r="G3">
+        <v>0.0</v>
+      </c>
+      <c r="H3">
+        <v>0.0</v>
+      </c>
+      <c r="I3">
+        <v>16.0</v>
+      </c>
+      <c r="J3">
+        <v>20.0</v>
+      </c>
+      <c r="K3">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3">
+        <v>23469.0</v>
+      </c>
+      <c r="M3">
+        <v>1.120651e7</v>
+      </c>
+      <c r="N3">
+        <v>2192.0</v>
+      </c>
+      <c r="O3">
+        <v>0.0</v>
+      </c>
+      <c r="P3">
+        <v>0.0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5076</v>
+      </c>
+      <c r="R3">
+        <v>3608.5076</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.69</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3">
+        <v>1.30555841e6</v>
+      </c>
+      <c r="AB3">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3">
+        <v>1.54109096e6</v>
+      </c>
+      <c r="AD3">
+        <v>-0.0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3">
+        <v>1.752022023e7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131.0</v>
+      </c>
+      <c r="C4">
+        <v>173354.0</v>
+      </c>
+      <c r="D4">
+        <v>165221.0</v>
+      </c>
+      <c r="E4">
+        <v>0.0</v>
+      </c>
+      <c r="F4">
+        <v>0.0</v>
+      </c>
+      <c r="G4">
+        <v>0.0</v>
+      </c>
+      <c r="H4">
+        <v>0.0</v>
+      </c>
+      <c r="I4">
+        <v>150.0</v>
+      </c>
+      <c r="J4">
+        <v>88.0</v>
+      </c>
+      <c r="K4">
+        <v>1205.1390000000001</v>
+      </c>
+      <c r="L4">
+        <v>176663.0</v>
+      </c>
+      <c r="M4">
+        <v>1.1206598e7</v>
+      </c>
+      <c r="N4">
+        <v>1553.0</v>
+      </c>
+      <c r="O4">
+        <v>0.0</v>
+      </c>
+      <c r="P4">
+        <v>0.0</v>
+      </c>
+      <c r="Q4">
+        <v>3608.5812</v>
+      </c>
+      <c r="R4">
+        <v>3608.5812</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90214.53</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>513611.75</v>
+      </c>
+      <c r="X4">
+        <v>108687.1</v>
+      </c>
+      <c r="Y4">
+        <v>1.0024101e6</v>
+      </c>
+      <c r="Z4">
+        <v>568349.2</v>
+      </c>
+      <c r="AA4">
+        <v>1.30556872e6</v>
+      </c>
+      <c r="AB4">
+        <v>213824.88</v>
+      </c>
+      <c r="AC4">
+        <v>1.5385766e6</v>
+      </c>
+      <c r="AD4">
+        <v>-0.0</v>
+      </c>
+      <c r="AE4">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4">
+        <v>-388860.94</v>
+      </c>
+      <c r="AH4">
+        <v>1.772841946e7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131.0</v>
+      </c>
+      <c r="C5">
+        <v>173354.0</v>
+      </c>
+      <c r="D5">
+        <v>165221.0</v>
+      </c>
+      <c r="E5">
+        <v>0.0</v>
+      </c>
+      <c r="F5">
+        <v>0.0</v>
+      </c>
+      <c r="G5">
+        <v>0.0</v>
+      </c>
+      <c r="H5">
+        <v>0.0</v>
+      </c>
+      <c r="I5">
+        <v>150.0</v>
+      </c>
+      <c r="J5">
+        <v>140.0</v>
+      </c>
+      <c r="K5">
+        <v>1991.995</v>
+      </c>
+      <c r="L5">
+        <v>200246.0</v>
+      </c>
+      <c r="M5">
+        <v>1.1206671e7</v>
+      </c>
+      <c r="N5">
+        <v>1626.0</v>
+      </c>
+      <c r="O5">
+        <v>0.0</v>
+      </c>
+      <c r="P5">
+        <v>0.0</v>
+      </c>
+      <c r="Q5">
+        <v>3608.6752</v>
+      </c>
+      <c r="R5">
+        <v>3608.6752</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>90216.88</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>561187.09</v>
+      </c>
+      <c r="X5">
+        <v>127572.32</v>
+      </c>
+      <c r="Y5">
+        <v>1.07356959e6</v>
+      </c>
+      <c r="Z5">
+        <v>628238.2</v>
+      </c>
+      <c r="AA5">
+        <v>1.30557716e6</v>
+      </c>
+      <c r="AB5">
+        <v>212741.18</v>
+      </c>
+      <c r="AC5">
+        <v>1.53750134e6</v>
+      </c>
+      <c r="AD5">
+        <v>-0.0</v>
+      </c>
+      <c r="AE5">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5">
+        <v>-391209.07</v>
+      </c>
+      <c r="AH5">
+        <v>1.780436047e7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131.0</v>
+      </c>
+      <c r="C6">
+        <v>173354.0</v>
+      </c>
+      <c r="D6">
+        <v>165221.0</v>
+      </c>
+      <c r="E6">
+        <v>0.0</v>
+      </c>
+      <c r="F6">
+        <v>0.0</v>
+      </c>
+      <c r="G6">
+        <v>0.0</v>
+      </c>
+      <c r="H6">
+        <v>0.0</v>
+      </c>
+      <c r="I6">
+        <v>159.0</v>
+      </c>
+      <c r="J6">
+        <v>2566.0</v>
+      </c>
+      <c r="K6">
+        <v>41877.049</v>
+      </c>
+      <c r="L6">
+        <v>1.31252e6</v>
+      </c>
+      <c r="M6">
+        <v>1.1210406e7</v>
+      </c>
+      <c r="N6">
+        <v>1096.0</v>
+      </c>
+      <c r="O6">
+        <v>0.0</v>
+      </c>
+      <c r="P6">
+        <v>0.0</v>
+      </c>
+      <c r="Q6">
+        <v>3613.6204</v>
+      </c>
+      <c r="R6">
+        <v>3613.6204</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>90340.51</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>216416.94</v>
+      </c>
+      <c r="X6">
+        <v>1.0162009e6</v>
+      </c>
+      <c r="Y6">
+        <v>1.84107561e6</v>
+      </c>
+      <c r="Z6">
+        <v>861875.52</v>
+      </c>
+      <c r="AA6">
+        <v>1.30601228e6</v>
+      </c>
+      <c r="AB6">
+        <v>199855.16</v>
+      </c>
+      <c r="AC6">
+        <v>1.52505044e6</v>
+      </c>
+      <c r="AD6">
+        <v>-0.0</v>
+      </c>
+      <c r="AE6">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6">
+        <v>-752491.06</v>
+      </c>
+      <c r="AH6">
+        <v>1.80877885e7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416652BD-C394-49EA-88E3-8AA0BAD72BFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4A68D4-D50D-4613-975C-7EA314649575}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14658,7 +19166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE1A997-F314-4A62-89BA-4413EE3B277B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2B5763-1EAC-4CC2-A8DB-39FC8D3FAF8D}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15432,7 +19940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F425FA-15E7-4C39-B473-676C2EDD0394}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2517E698-4052-4BBF-B2EC-611A6253EEFF}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -15997,7 +20505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A06C230-A691-4BE2-840C-1A38F86E1857}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD02505-8A27-4AE6-B5A5-E5352748F288}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -16567,7 +21075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362D4CF7-5479-47CB-BDF8-D1581255825C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348E83B-38C4-4152-87F4-903294624C9B}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4472B0AB-0F6D-4B3A-A5D8-3148A546A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB553CF-A27F-4FF5-94F3-7D3B86CD577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="34" activeTab="41" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,10 @@
     <sheet name="ProvdientA_8" sheetId="40" r:id="rId40"/>
     <sheet name="ProvdientA_9" sheetId="41" r:id="rId41"/>
     <sheet name="ProvdientA_12" sheetId="42" r:id="rId42"/>
-    <sheet name="ProvdientA_15" r:id="rId46" sheetId="43"/>
+    <sheet name="ProvdientA_15" sheetId="43" r:id="rId43"/>
+    <sheet name="CermakA_21" sheetId="44" r:id="rId44"/>
+    <sheet name="MarkhamA_7" sheetId="45" r:id="rId45"/>
+    <sheet name="ProvdientA_16" sheetId="46" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -67,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="83">
   <si>
     <t>City</t>
   </si>
@@ -212,15 +215,121 @@
   <si>
     <t>Battery_initial_capex_cost</t>
   </si>
+  <si>
+    <t>this means that emissions grew</t>
+  </si>
+  <si>
+    <t>Generator Size (kW)</t>
+  </si>
+  <si>
+    <t>Annual Energy Production from PV (kWh)</t>
+  </si>
+  <si>
+    <t>PV Year 1 Production (kWh)</t>
+  </si>
+  <si>
+    <t>PV Size (kW)</t>
+  </si>
+  <si>
+    <t>PV Energy LCOE</t>
+  </si>
+  <si>
+    <t>Exported Energy to Grid from PV Production (kWh)</t>
+  </si>
+  <si>
+    <t>Energy Produced from PV curtailed (kWh)</t>
+  </si>
+  <si>
+    <t>Energy to Battery from PV production (kWh)</t>
+  </si>
+  <si>
+    <t>Battery Size (kW)</t>
+  </si>
+  <si>
+    <t>Battery Size (kWh)</t>
+  </si>
+  <si>
+    <t>Battery Serving Electric Load (kWh)</t>
+  </si>
+  <si>
+    <t>Battery Initial CapEx Cost ($)</t>
+  </si>
+  <si>
+    <t>Annual Energy Supplied by Grid for Electric Load (kWh)</t>
+  </si>
+  <si>
+    <t>Annual Energy Produced by Generator (kWh)</t>
+  </si>
+  <si>
+    <t>Annual Fuel Consumption by Generator (MMBtu)</t>
+  </si>
+  <si>
+    <t>Total Annual Emissions CO2</t>
+  </si>
+  <si>
+    <t>Electric Utility Annual Emissions CO2 (tonnes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>BAU Total Annual Emissions CO2 (tonnes)</t>
+  </si>
+  <si>
+    <t>LifeCycle Emissions CO2 (tonnes)</t>
+  </si>
+  <si>
+    <t>BAU LifeCycle Emissions CO2 (tonnes)</t>
+  </si>
+  <si>
+    <t>LifeCycle Emission Reduction Fraction (%)</t>
+  </si>
+  <si>
+    <t>LifeCycle CapEx Costs for Energy Storage Technologies ($)</t>
+  </si>
+  <si>
+    <t>LifeCycle CapEx Costs for Energy Generation Technologies ($)</t>
+  </si>
+  <si>
+    <t>Initial Upfront CapEx w/o Incentives ($)</t>
+  </si>
+  <si>
+    <t>Initial Upfront CapEx w/ Incentives</t>
+  </si>
+  <si>
+    <t>Year 1 Energy Cost after tax ($)</t>
+  </si>
+  <si>
+    <t>Year 1 Demand Charges Costs after tax ($)</t>
+  </si>
+  <si>
+    <t>Year 1 Total Energy Bill before tax ($)</t>
+  </si>
+  <si>
+    <t>Year 1 Financial Benefit from Exporting Energy before tax ($)</t>
+  </si>
+  <si>
+    <t>Annual Consumption of Electricity from Renewable Sources (kWh)</t>
+  </si>
+  <si>
+    <t>Annual Consumption of Electricity from Renewable Sources fraction (%)</t>
+  </si>
+  <si>
+    <t>LifeCycle Costs (LCC) ($)</t>
+  </si>
+  <si>
+    <t>Net Present Value (NPV) ($)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -261,7 +370,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -272,6 +381,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -554,8 +665,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395729BA-10BD-4B25-AC0F-5B216AF3FDD7}">
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E029ECE-79B5-41A9-A69E-98F644945F0C}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -566,14 +677,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FBAA3C-DBD3-431E-809C-F4F85C538367}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4235F51-86F0-4FF6-A095-F8EBA1B60257}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -665,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -757,7 +868,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -849,7 +960,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -947,14 +1058,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BBC2E5-4BF7-4EB7-AB8C-7B73EB6A30E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A39F35-9C3F-4850-A9E7-9E9480F7C392}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1046,7 +1157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1138,7 +1249,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1230,7 +1341,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1328,14 +1439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2C41EFD-130A-4E11-B4B9-D6596296CAAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA8CCAD-56CF-477B-88DA-32E19846EA47}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1427,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1519,7 +1630,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1611,7 +1722,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1709,7 +1820,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FEF08C0-9391-4770-943A-B970B321108F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62427E0E-C687-4DEB-B54C-EB529DB8F1BB}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1736,99 +1847,99 @@
     <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1920,7 +2031,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2012,7 +2123,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2104,7 +2215,7 @@
         <v>7270693.1299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2115,7 +2226,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC35F5E6-66B5-46F8-9346-BDAAE72ED0B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD867E0-E539-4AA5-811C-93D1348D6149}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2140,99 +2251,99 @@
     <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2324,7 +2435,7 @@
         <v>6233671.2000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2416,7 +2527,7 @@
         <v>6420739.9800000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2508,7 +2619,7 @@
         <v>7152790.2599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2519,7 +2630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3BE0168-AD3F-4F9B-9733-DD9AC04ED9F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C803C1-5132-4259-BDFA-4AF3590D42CE}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2545,99 +2656,99 @@
     <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="75" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2729,7 +2840,7 @@
         <v>17442687.25</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2821,7 +2932,7 @@
         <v>19579566.420000002</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2913,7 +3024,7 @@
         <v>21759024.399999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2924,14 +3035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1413B9-08D8-41C3-96D4-CF495C3F1958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ABB588-9B21-419B-81A5-3A288B8EF6D0}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3023,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3115,7 +3226,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3207,7 +3318,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3305,14 +3416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816341FD-151B-4F30-8779-9A9CDF783D65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977908FA-30AE-4137-86EC-2623BE0FD2CF}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3404,7 +3515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3496,7 +3607,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3588,7 +3699,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3686,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FBE2259-7005-41D6-B2F0-7F776BD4A0AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC530C89-962B-4392-B376-816A06D206CF}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3785,7 +3896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3877,7 +3988,7 @@
         <v>6233671.2000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3969,7 +4080,7 @@
         <v>6420739.9800000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4067,7 +4178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6374CAE7-9326-408D-B550-718339F18820}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA2A52-654B-455F-8965-94B51DAA3B28}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
@@ -4091,99 +4202,99 @@
     <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4275,7 +4386,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4367,7 +4478,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4465,7 +4576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7548E326-8F97-46AA-BBB6-3FD6B2ABDFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC26B3E7-045A-4287-A837-8D492AC3F44E}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4486,75 +4597,75 @@
     <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4622,7 +4733,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4690,7 +4801,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4758,7 +4869,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4826,7 +4937,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4894,7 +5005,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -4962,7 +5073,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5030,7 +5141,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5098,7 +5209,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5166,7 +5277,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5240,14 +5351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16B9AEE-2A40-49DF-8E48-2F83029B0E83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47B5954-1F6F-48CF-840B-E477B68A8512}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5339,7 +5450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5431,7 +5542,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5523,7 +5634,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5621,14 +5732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D5301DC-A64D-49B6-AF9C-AFB81476A995}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA55DBA-11D8-49B7-9242-6649023FFFA0}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5720,7 +5831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5812,7 +5923,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5904,7 +6015,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6002,7 +6113,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06076B7F-5080-40DB-B294-6FB9F3096ED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE26EECB-FD39-4772-B74B-64394ED430F2}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6015,99 +6126,99 @@
     <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6199,7 +6310,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6291,7 +6402,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6389,7 +6500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D49EAED6-9753-43A3-B5B9-B485F29F2E65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DC402-6933-4A2F-B9F8-1469ABB4AF06}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6401,108 +6512,108 @@
     <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6603,7 +6714,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:33" dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6704,7 +6815,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:33" dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6811,7 +6922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8B79FD-5599-4BCF-8335-E09235BE7A0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BED968-13D5-404B-97D1-4E3FC0903126}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6834,99 +6945,99 @@
     <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7018,7 +7129,7 @@
         <v>6691400.0899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7110,7 +7221,7 @@
         <v>6773209.0899999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7208,7 +7319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFBC2C7-4698-4510-99F7-CFDE382EFDBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1058CC-1685-4ED5-8738-891ACFEBA9A9}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
@@ -7217,108 +7328,108 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:33" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7419,7 +7530,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:33" dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7520,7 +7631,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7627,7 +7738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3DF8303-23BC-4EE7-96C5-618219109709}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962F6B17-038E-489D-BE7B-FEA633EAF581}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7636,7 +7747,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7740,7 +7851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7844,7 +7955,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7948,7 +8059,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8058,7 +8169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E6E9947-6A1C-43E7-B54E-28815EE92C52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC98C6C-4C86-4DEB-A90E-B0628EC59CAD}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8067,7 +8178,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8162,7 +8273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8257,7 +8368,7 @@
         <v>6691400.0899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:31" dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8352,7 +8463,7 @@
         <v>6765433</v>
       </c>
     </row>
-    <row r="4" spans="1:31" dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8447,7 +8558,7 @@
         <v>6982397.9199999999</v>
       </c>
     </row>
-    <row r="18" spans="1:31" dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18">
         <v>1486</v>
       </c>
@@ -8458,7 +8569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D38FFBA2-C030-4248-AEFC-BE25DB35C431}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB05C91-55EC-45C2-B52A-81A9AD1E4564}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8467,7 +8578,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8571,7 +8682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8675,7 +8786,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8779,7 +8890,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8889,14 +9000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E03F64-83B4-4DCC-B49C-19EB8722B2EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFFD198-3758-4B3F-BF4F-4EAFE5A005F1}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9000,7 +9111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9104,7 +9215,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -9208,7 +9319,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9318,14 +9429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25E77198-1614-4243-85AD-5A7557612C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41963CC2-DD4C-433C-B142-DABC31A5D9C6}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9393,7 +9504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9461,7 +9572,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -9529,7 +9640,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9597,7 +9708,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -9665,7 +9776,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9733,7 +9844,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -9801,7 +9912,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -9869,7 +9980,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9937,7 +10048,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10005,7 +10116,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10079,7 +10190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8525BC-1C69-4452-927B-C2F964F5C1C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD5BDA-F784-4715-883E-59FDCF97F847}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10088,7 +10199,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10183,7 +10294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -10278,7 +10389,7 @@
         <v>6148985.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -10373,7 +10484,7 @@
         <v>6496970.79</v>
       </c>
     </row>
-    <row r="4" spans="1:31" dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -10474,14 +10585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9405C6FD-063E-4857-9EDE-C5B40D94B794}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25CEAAB-D6D7-4250-89E8-4C2EE5FF283F}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10585,7 +10696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -10689,7 +10800,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -10793,7 +10904,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -10903,14 +11014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A751E35-1BAB-497C-8E42-3DDE1B7D13D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F5F68-E807-4D34-8649-EF45FC6CCE2D}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11005,7 +11116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11100,7 +11211,7 @@
         <v>6148985.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11195,7 +11306,7 @@
         <v>6496970.79</v>
       </c>
     </row>
-    <row r="4" spans="1:31" dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11296,14 +11407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A3C12F-3FE2-463A-86DC-0AF2C44A9FD3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727B0522-2E57-43C4-B8EF-20D4D2928301}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11407,7 +11518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11511,7 +11622,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11615,7 +11726,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11725,14 +11836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6D6DA4-9240-4F96-AD7B-BF97CDDDF147}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFA0DBC-A752-4B2F-8D42-760A9CCF83F9}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11836,7 +11947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11940,7 +12051,7 @@
         <v>6901990.3200000003</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -12044,7 +12155,7 @@
         <v>6902994.04</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12148,7 +12259,7 @@
         <v>6903879.2199999997</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -12252,7 +12363,7 @@
         <v>6830597.6200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -12356,7 +12467,7 @@
         <v>6831099.4800000004</v>
       </c>
     </row>
-    <row r="7" spans="1:34" dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12466,14 +12577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46981285-C411-44BE-8251-7BE0A1B7FF69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E150E-0DE8-4499-9B88-AE93D53C4105}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:31" dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12568,7 +12679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -12663,7 +12774,7 @@
         <v>7671723.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -12758,7 +12869,7 @@
         <v>8980296.8599999994</v>
       </c>
     </row>
-    <row r="4" spans="1:31" dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12853,7 +12964,7 @@
         <v>10088807.140000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -12948,7 +13059,7 @@
         <v>6915911.4100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:31" dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13043,7 +13154,7 @@
         <v>7276211.2699999996</v>
       </c>
     </row>
-    <row r="7" spans="1:31" dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -13144,14 +13255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82711133-7824-47B4-A0E8-843AA046DF1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587E125-E244-498C-A364-58E8E8A3C271}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13255,7 +13366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -13359,7 +13470,7 @@
         <v>17513321.760000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -13463,7 +13574,7 @@
         <v>17517103.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -13567,7 +13678,7 @@
         <v>17691615.289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -13671,7 +13782,7 @@
         <v>17714907.149999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13781,7 +13892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9F6289-2BE8-47DA-B231-D752CF58AC25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7401C0C-1D7C-418B-8B26-F82ED28100CD}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
@@ -13794,111 +13905,111 @@
     <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -14002,7 +14113,7 @@
         <v>17513321.760000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -14106,7 +14217,7 @@
         <v>17517103.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -14210,7 +14321,7 @@
         <v>17691615.289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -14314,7 +14425,7 @@
         <v>17714907.149999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14424,7 +14535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D155F8-269D-42B0-84F6-DE6027316028}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE207F-2653-44A9-A73D-38B0FE9D1438}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14433,111 +14544,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -14641,7 +14752,7 @@
         <v>17519583.649999999</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -14751,7 +14862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D0B9D-903E-452F-B9B3-0B96251400AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B94799E-B355-4233-97B3-D1067B899F5E}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14760,111 +14871,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -14968,7 +15079,7 @@
         <v>17470945.239999998</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -15078,7 +15189,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA4346A-4631-4F6F-AF98-90BE2A48583F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4061AF54-32BA-4424-87B6-36ABCEAEF9ED}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15087,75 +15198,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -15223,7 +15334,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -15291,7 +15402,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -15359,7 +15470,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -15427,7 +15538,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -15495,7 +15606,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -15563,7 +15674,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -15631,7 +15742,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15699,7 +15810,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -15767,7 +15878,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -15841,7 +15952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF710024-7979-4C3E-9BAF-55A244D8D55A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DE32D3-9D05-4AA4-AB1C-35D1938D14C1}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15850,111 +15961,111 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -16058,7 +16169,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -16162,7 +16273,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -16266,7 +16377,7 @@
         <v>17672486.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -16370,7 +16481,7 @@
         <v>17748957.43</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -16480,7 +16591,7 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29823539-0B88-44E2-9A0E-C3E27921992B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EC8DFA-5887-487D-8762-30BA6BCFCCE7}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16494,111 +16605,111 @@
     <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -16702,7 +16813,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -16806,7 +16917,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -16910,7 +17021,7 @@
         <v>17672486.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17014,7 +17125,7 @@
         <v>17748957.43</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17124,10 +17235,10 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1075F0-C9C2-4B26-A410-AA751C2C3884}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2:AH6"/>
     </sheetView>
   </sheetViews>
@@ -17138,111 +17249,111 @@
     <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s" s="2">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s" s="2">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s" s="2">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s" s="2">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s" s="2">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s" s="2">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s" s="2">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s" s="2">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s" s="2">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s" s="2">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s" s="2">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s" s="2">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -17346,7 +17457,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -17450,7 +17561,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -17554,7 +17665,7 @@
         <v>17728419.460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17658,7 +17769,7 @@
         <v>17804360.469999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17768,171 +17879,173 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA339B-7641-49F3-83A4-DEAED377A1DC}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:34">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="C2">
-        <v>173354.0</v>
+        <v>173354</v>
       </c>
       <c r="D2">
-        <v>165221.0</v>
+        <v>165221</v>
       </c>
       <c r="E2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K2">
         <v>231.21000000000004</v>
       </c>
       <c r="L2">
-        <v>23469.0</v>
+        <v>23469</v>
       </c>
       <c r="M2">
-        <v>1.120651e7</v>
+        <v>11206510</v>
       </c>
       <c r="N2">
-        <v>2192.0</v>
+        <v>2192</v>
       </c>
       <c r="O2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>3608.5076</v>
+        <v>3608.5075999999999</v>
       </c>
       <c r="R2">
-        <v>3608.5076</v>
+        <v>3608.5075999999999</v>
       </c>
       <c r="S2">
         <v>3641.0904</v>
@@ -17959,16 +18072,16 @@
         <v>224785.97</v>
       </c>
       <c r="AA2">
-        <v>1.30555841e6</v>
+        <v>1305558.4099999999</v>
       </c>
       <c r="AB2">
         <v>216349.55</v>
       </c>
       <c r="AC2">
-        <v>1.54109096e6</v>
+        <v>1541090.96</v>
       </c>
       <c r="AD2">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <v>165220.37</v>
@@ -17980,63 +18093,63 @@
         <v>28320.49</v>
       </c>
       <c r="AH2">
-        <v>1.751636143e7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
+        <v>17516361.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
       <c r="B3">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="C3">
-        <v>173354.0</v>
+        <v>173354</v>
       </c>
       <c r="D3">
-        <v>165221.0</v>
+        <v>165221</v>
       </c>
       <c r="E3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>231.21000000000004</v>
       </c>
       <c r="L3">
-        <v>23469.0</v>
+        <v>23469</v>
       </c>
       <c r="M3">
-        <v>1.120651e7</v>
+        <v>11206510</v>
       </c>
       <c r="N3">
-        <v>2192.0</v>
+        <v>2192</v>
       </c>
       <c r="O3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>3608.5076</v>
+        <v>3608.5075999999999</v>
       </c>
       <c r="R3">
-        <v>3608.5076</v>
+        <v>3608.5075999999999</v>
       </c>
       <c r="S3">
         <v>3641.0904</v>
@@ -18063,16 +18176,16 @@
         <v>224785.97</v>
       </c>
       <c r="AA3">
-        <v>1.30555841e6</v>
+        <v>1305558.4099999999</v>
       </c>
       <c r="AB3">
         <v>216349.55</v>
       </c>
       <c r="AC3">
-        <v>1.54109096e6</v>
+        <v>1541090.96</v>
       </c>
       <c r="AD3">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>165220.37</v>
@@ -18084,63 +18197,63 @@
         <v>28489.97</v>
       </c>
       <c r="AH3">
-        <v>1.752022023e7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
+        <v>17520220.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
       <c r="B4">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="C4">
-        <v>173354.0</v>
+        <v>173354</v>
       </c>
       <c r="D4">
-        <v>165221.0</v>
+        <v>165221</v>
       </c>
       <c r="E4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="J4">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="K4">
         <v>1205.1390000000001</v>
       </c>
       <c r="L4">
-        <v>176663.0</v>
+        <v>176663</v>
       </c>
       <c r="M4">
-        <v>1.1206598e7</v>
+        <v>11206598</v>
       </c>
       <c r="N4">
-        <v>1553.0</v>
+        <v>1553</v>
       </c>
       <c r="O4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3608.5812</v>
+        <v>3608.5812000000001</v>
       </c>
       <c r="R4">
-        <v>3608.5812</v>
+        <v>3608.5812000000001</v>
       </c>
       <c r="S4">
         <v>3641.0904</v>
@@ -18161,22 +18274,22 @@
         <v>108687.1</v>
       </c>
       <c r="Y4">
-        <v>1.0024101e6</v>
+        <v>1002410.1</v>
       </c>
       <c r="Z4">
-        <v>568349.2</v>
+        <v>568349.19999999995</v>
       </c>
       <c r="AA4">
-        <v>1.30556872e6</v>
+        <v>1305568.72</v>
       </c>
       <c r="AB4">
         <v>213824.88</v>
       </c>
       <c r="AC4">
-        <v>1.5385766e6</v>
+        <v>1538576.6</v>
       </c>
       <c r="AD4">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>165220.37</v>
@@ -18188,63 +18301,63 @@
         <v>-388860.94</v>
       </c>
       <c r="AH4">
-        <v>1.772841946e7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
+        <v>17728419.460000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="C5">
-        <v>173354.0</v>
+        <v>173354</v>
       </c>
       <c r="D5">
-        <v>165221.0</v>
+        <v>165221</v>
       </c>
       <c r="E5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>150.0</v>
+        <v>150</v>
       </c>
       <c r="J5">
-        <v>140.0</v>
+        <v>140</v>
       </c>
       <c r="K5">
-        <v>1991.995</v>
+        <v>1991.9949999999999</v>
       </c>
       <c r="L5">
-        <v>200246.0</v>
+        <v>200246</v>
       </c>
       <c r="M5">
-        <v>1.1206671e7</v>
+        <v>11206671</v>
       </c>
       <c r="N5">
-        <v>1626.0</v>
+        <v>1626</v>
       </c>
       <c r="O5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>3608.6752</v>
+        <v>3608.6752000000001</v>
       </c>
       <c r="R5">
-        <v>3608.6752</v>
+        <v>3608.6752000000001</v>
       </c>
       <c r="S5">
         <v>3641.0904</v>
@@ -18265,22 +18378,22 @@
         <v>127572.32</v>
       </c>
       <c r="Y5">
-        <v>1.07356959e6</v>
+        <v>1073569.5900000001</v>
       </c>
       <c r="Z5">
-        <v>628238.2</v>
+        <v>628238.19999999995</v>
       </c>
       <c r="AA5">
-        <v>1.30557716e6</v>
+        <v>1305577.1599999999</v>
       </c>
       <c r="AB5">
         <v>212741.18</v>
       </c>
       <c r="AC5">
-        <v>1.53750134e6</v>
+        <v>1537501.34</v>
       </c>
       <c r="AD5">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE5">
         <v>165220.37</v>
@@ -18292,63 +18405,63 @@
         <v>-391209.07</v>
       </c>
       <c r="AH5">
-        <v>1.780436047e7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>17804360.469999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
       <c r="B6">
-        <v>131.0</v>
+        <v>131</v>
       </c>
       <c r="C6">
-        <v>173354.0</v>
+        <v>173354</v>
       </c>
       <c r="D6">
-        <v>165221.0</v>
+        <v>165221</v>
       </c>
       <c r="E6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>159.0</v>
+        <v>159</v>
       </c>
       <c r="J6">
-        <v>2566.0</v>
+        <v>2566</v>
       </c>
       <c r="K6">
-        <v>41877.049</v>
+        <v>41877.048999999999</v>
       </c>
       <c r="L6">
-        <v>1.31252e6</v>
+        <v>1312520</v>
       </c>
       <c r="M6">
-        <v>1.1210406e7</v>
+        <v>11210406</v>
       </c>
       <c r="N6">
-        <v>1096.0</v>
+        <v>1096</v>
       </c>
       <c r="O6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>3613.6204</v>
+        <v>3613.6203999999998</v>
       </c>
       <c r="R6">
-        <v>3613.6204</v>
+        <v>3613.6203999999998</v>
       </c>
       <c r="S6">
         <v>3641.0904</v>
@@ -18366,25 +18479,25 @@
         <v>216416.94</v>
       </c>
       <c r="X6">
-        <v>1.0162009e6</v>
+        <v>1016200.9</v>
       </c>
       <c r="Y6">
-        <v>1.84107561e6</v>
+        <v>1841075.61</v>
       </c>
       <c r="Z6">
         <v>861875.52</v>
       </c>
       <c r="AA6">
-        <v>1.30601228e6</v>
+        <v>1306012.28</v>
       </c>
       <c r="AB6">
         <v>199855.16</v>
       </c>
       <c r="AC6">
-        <v>1.52505044e6</v>
+        <v>1525050.44</v>
       </c>
       <c r="AD6">
-        <v>-0.0</v>
+        <v>0</v>
       </c>
       <c r="AE6">
         <v>165220.37</v>
@@ -18396,7 +18509,2112 @@
         <v>-752491.06</v>
       </c>
       <c r="AH6">
-        <v>1.80877885e7</v>
+        <v>18087788.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0C2A6-B675-4719-B19F-29F09E9981F0}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7">
+        <v>25</v>
+      </c>
+      <c r="C2" s="7">
+        <v>33093</v>
+      </c>
+      <c r="D2" s="7">
+        <v>31540</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>75.197999999999993</v>
+      </c>
+      <c r="I2" s="7">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7">
+        <v>13</v>
+      </c>
+      <c r="K2" s="7">
+        <v>174.49799999999999</v>
+      </c>
+      <c r="L2" s="7">
+        <v>15101</v>
+      </c>
+      <c r="M2" s="7">
+        <v>600</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>3011389</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="R2" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="S2" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T2" s="7">
+        <v>24213.74</v>
+      </c>
+      <c r="U2" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="1">
+        <v>41313.56</v>
+      </c>
+      <c r="X2" s="1">
+        <v>9906.3799999999992</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>115999.95</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>46697.49</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>337576.7</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>50886.84</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>617256.54</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>31532.61</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1373.7</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>6902010.3099999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7">
+        <v>25</v>
+      </c>
+      <c r="C3" s="7">
+        <v>33093</v>
+      </c>
+      <c r="D3" s="7">
+        <v>31540</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>95.685000000000002</v>
+      </c>
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7">
+        <v>174.49799999999999</v>
+      </c>
+      <c r="L3" s="7">
+        <v>15101</v>
+      </c>
+      <c r="M3" s="7">
+        <v>600</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>3011389</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="R3" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="S3" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T3" s="7">
+        <v>24213.74</v>
+      </c>
+      <c r="U3" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="1">
+        <v>41313.56</v>
+      </c>
+      <c r="X3" s="1">
+        <v>9906.3799999999992</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>115999.95</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>46697.49</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>337576.7</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>50886.84</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>617256.54</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>31530.53</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1373.7</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>6903014.0300000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>25</v>
+      </c>
+      <c r="C4" s="7">
+        <v>33093</v>
+      </c>
+      <c r="D4" s="7">
+        <v>31540</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>80.213999999999999</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10</v>
+      </c>
+      <c r="J4" s="7">
+        <v>13</v>
+      </c>
+      <c r="K4" s="7">
+        <v>174.49799999999999</v>
+      </c>
+      <c r="L4" s="7">
+        <v>15101</v>
+      </c>
+      <c r="M4" s="7">
+        <v>600</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>3011389</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="R4" s="7">
+        <v>968.54960000000005</v>
+      </c>
+      <c r="S4" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T4" s="7">
+        <v>24213.74</v>
+      </c>
+      <c r="U4" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="1">
+        <v>41313.56</v>
+      </c>
+      <c r="X4" s="1">
+        <v>9906.3799999999992</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>115999.95</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>46697.49</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>337576.7</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>50886.84</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>617256.54</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>31532.1</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1373.7</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>6903899.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>25</v>
+      </c>
+      <c r="C5" s="7">
+        <v>33093</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31540</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1678.098</v>
+      </c>
+      <c r="I5" s="7">
+        <v>108</v>
+      </c>
+      <c r="J5" s="7">
+        <v>532</v>
+      </c>
+      <c r="K5" s="7">
+        <v>26313.091</v>
+      </c>
+      <c r="L5" s="7">
+        <v>340404</v>
+      </c>
+      <c r="M5" s="7">
+        <v>300</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>3014176</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>973.44640000000004</v>
+      </c>
+      <c r="R5" s="7">
+        <v>973.44640000000004</v>
+      </c>
+      <c r="S5" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T5" s="7">
+        <v>24336.16</v>
+      </c>
+      <c r="U5" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>41313.56</v>
+      </c>
+      <c r="X5" s="1">
+        <v>248958.95</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>441303.82</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>192016.43</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>337889.08</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>45574.28</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>612256.36</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>31370.01</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-175987.47</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>7015658.4000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>175</v>
+      </c>
+      <c r="C6" s="7">
+        <v>231650</v>
+      </c>
+      <c r="D6" s="7">
+        <v>220782</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>11206.554</v>
+      </c>
+      <c r="I6" s="7">
+        <v>80</v>
+      </c>
+      <c r="J6" s="7">
+        <v>684</v>
+      </c>
+      <c r="K6" s="7">
+        <v>30371.474999999999</v>
+      </c>
+      <c r="L6" s="7">
+        <v>383456</v>
+      </c>
+      <c r="M6" s="7">
+        <v>300</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>2825344</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>929.9588</v>
+      </c>
+      <c r="R6" s="7">
+        <v>929.9588</v>
+      </c>
+      <c r="S6" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T6" s="7">
+        <v>23248.97</v>
+      </c>
+      <c r="U6" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W6" s="1">
+        <v>289194.90000000002</v>
+      </c>
+      <c r="X6" s="1">
+        <v>289655.95</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1089754.6200000001</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>469496.09</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>316721.09999999998</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>43787.56</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>589301.66</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>219644.85</v>
+      </c>
+      <c r="AF6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-232704.66</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>7087616.8799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>175</v>
+      </c>
+      <c r="C7" s="7">
+        <v>231650</v>
+      </c>
+      <c r="D7" s="7">
+        <v>220782</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>19420.176000000003</v>
+      </c>
+      <c r="I7" s="7">
+        <v>80</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1139</v>
+      </c>
+      <c r="K7" s="7">
+        <v>43553.312000000005</v>
+      </c>
+      <c r="L7" s="7">
+        <v>590617</v>
+      </c>
+      <c r="M7" s="7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>2826688</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>928.03160000000003</v>
+      </c>
+      <c r="R7" s="7">
+        <v>928.03160000000003</v>
+      </c>
+      <c r="S7" s="7">
+        <v>974.76840000000004</v>
+      </c>
+      <c r="T7" s="7">
+        <v>23200.79</v>
+      </c>
+      <c r="U7" s="7">
+        <v>24369.21</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="W7" s="1">
+        <v>289194.90000000002</v>
+      </c>
+      <c r="X7" s="1">
+        <v>455541.51</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>1296915.06</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>577657.92000000004</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>316871.77</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>43236.639999999999</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>588901.41</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>218811.66</v>
+      </c>
+      <c r="AF7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-385590.68</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>7249868.9699999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2E0660-00B0-4779-AE86-B649D8DF0A97}">
+  <dimension ref="A1:AE10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7">
+        <v>743</v>
+      </c>
+      <c r="C2" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D2" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
+        <v>5463.1509999999998</v>
+      </c>
+      <c r="I2" s="7">
+        <v>711</v>
+      </c>
+      <c r="J2" s="7">
+        <v>3709</v>
+      </c>
+      <c r="K2" s="7">
+        <v>311557.02300000004</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2334186.4</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3656428</v>
+      </c>
+      <c r="N2" s="7">
+        <v>1134.9115999999999</v>
+      </c>
+      <c r="O2" s="7">
+        <v>1134.9115999999999</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>28372.79</v>
+      </c>
+      <c r="R2" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S2" s="5">
+        <v>-0.06</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="8">
+        <v>1713820.79</v>
+      </c>
+      <c r="V2" s="8">
+        <v>2334185.86</v>
+      </c>
+      <c r="W2" s="8">
+        <v>1041031.41</v>
+      </c>
+      <c r="X2" s="8">
+        <v>425973.88</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>88944.960000000006</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>534101.84</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="7">
+        <v>936821.6</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD2" s="8">
+        <v>-1329248.1000000001</v>
+      </c>
+      <c r="AE2" s="8">
+        <v>7671723.2199999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="7">
+        <v>743</v>
+      </c>
+      <c r="C3" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D3" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7">
+        <v>8457.8860000000004</v>
+      </c>
+      <c r="I3" s="7">
+        <v>830</v>
+      </c>
+      <c r="J3" s="7">
+        <v>7322</v>
+      </c>
+      <c r="K3" s="7">
+        <v>489211.26</v>
+      </c>
+      <c r="L3" s="8">
+        <v>4086696.25</v>
+      </c>
+      <c r="M3" s="7">
+        <v>3675340</v>
+      </c>
+      <c r="N3" s="7">
+        <v>1171.7660000000001</v>
+      </c>
+      <c r="O3" s="7">
+        <v>1171.7660000000001</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>29294.15</v>
+      </c>
+      <c r="R3" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S3" s="5">
+        <v>-0.1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="8">
+        <v>3091082.76</v>
+      </c>
+      <c r="V3" s="8">
+        <v>4086696.01</v>
+      </c>
+      <c r="W3" s="8">
+        <v>1926210.57</v>
+      </c>
+      <c r="X3" s="8">
+        <v>428177.16</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>80416.11</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>527776.27</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>936517.81</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD3" s="8">
+        <v>-2546081.7000000002</v>
+      </c>
+      <c r="AE3" s="8">
+        <v>8980296.8599999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="7">
+        <v>743</v>
+      </c>
+      <c r="C4" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D4" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>18277.023000000001</v>
+      </c>
+      <c r="I4" s="7">
+        <v>830</v>
+      </c>
+      <c r="J4" s="7">
+        <v>10437</v>
+      </c>
+      <c r="K4" s="7">
+        <v>565568.03200000001</v>
+      </c>
+      <c r="L4" s="8">
+        <v>5504326.0999999996</v>
+      </c>
+      <c r="M4" s="7">
+        <v>3682974</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1180.5832</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1180.5832</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>29514.58</v>
+      </c>
+      <c r="R4" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S4" s="5">
+        <v>-0.11</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="8">
+        <v>4226262.76</v>
+      </c>
+      <c r="V4" s="8">
+        <v>5504326.21</v>
+      </c>
+      <c r="W4" s="8">
+        <v>2666378.35</v>
+      </c>
+      <c r="X4" s="8">
+        <v>429066.52</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>77070.710000000006</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>525320.23</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>935521.76</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>-3611514.52</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>10088807.140000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7">
+        <v>743</v>
+      </c>
+      <c r="C5" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D5" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>6678.3489999999993</v>
+      </c>
+      <c r="I5" s="7">
+        <v>355</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1854</v>
+      </c>
+      <c r="K5" s="7">
+        <v>121856.234</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1167093.2</v>
+      </c>
+      <c r="M5" s="7">
+        <v>3635599</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1092.7447999999999</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1092.7447999999999</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>27318.62</v>
+      </c>
+      <c r="R5" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S5" s="5">
+        <v>-0.02</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="8">
+        <v>856910.39</v>
+      </c>
+      <c r="V5" s="8">
+        <v>1167092.93</v>
+      </c>
+      <c r="W5" s="8">
+        <v>520515.71</v>
+      </c>
+      <c r="X5" s="8">
+        <v>423547.33</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>100681.77</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>543412.1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>936698.33</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD5" s="8">
+        <v>-599229.49</v>
+      </c>
+      <c r="AE5" s="8">
+        <v>6915911.4100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="7">
+        <v>743</v>
+      </c>
+      <c r="C6" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D6" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>5995.5660000000007</v>
+      </c>
+      <c r="I6" s="7">
+        <v>411</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2952</v>
+      </c>
+      <c r="K6" s="7">
+        <v>236015.402</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1716965.25</v>
+      </c>
+      <c r="M6" s="7">
+        <v>3648139</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1117.3463999999999</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1117.3463999999999</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>27933.66</v>
+      </c>
+      <c r="R6" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S6" s="5">
+        <v>-0.05</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1285170.19</v>
+      </c>
+      <c r="V6" s="8">
+        <v>1716964.49</v>
+      </c>
+      <c r="W6" s="8">
+        <v>793820.21</v>
+      </c>
+      <c r="X6" s="8">
+        <v>425008.25</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>92962.36</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>537153.61</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>936767.59</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>-913659.33</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>7276211.2699999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="7">
+        <v>743</v>
+      </c>
+      <c r="C7" s="7">
+        <v>983520</v>
+      </c>
+      <c r="D7" s="7">
+        <v>937376</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>4933.9780000000001</v>
+      </c>
+      <c r="I7" s="7">
+        <v>411</v>
+      </c>
+      <c r="J7" s="7">
+        <v>4418</v>
+      </c>
+      <c r="K7" s="7">
+        <v>373624.51500000001</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2383899.7000000002</v>
+      </c>
+      <c r="M7" s="7">
+        <v>3663210</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1149.8216</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1149.8216</v>
+      </c>
+      <c r="P7" s="7">
+        <v>1067.4100000000001</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>28745.54</v>
+      </c>
+      <c r="R7" s="7">
+        <v>26685.25</v>
+      </c>
+      <c r="S7" s="5">
+        <v>-0.08</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="8">
+        <v>1819224.53</v>
+      </c>
+      <c r="V7" s="8">
+        <v>2383899.7400000002</v>
+      </c>
+      <c r="W7" s="8">
+        <v>1142037.94</v>
+      </c>
+      <c r="X7" s="8">
+        <v>426764.02</v>
+      </c>
+      <c r="Y7" s="8">
+        <v>85836.4</v>
+      </c>
+      <c r="Z7" s="8">
+        <v>531783.42000000004</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>936875.28</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="AD7" s="8">
+        <v>-1367860.92</v>
+      </c>
+      <c r="AE7" s="8">
+        <v>7751951.5999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCF002F-B261-43D1-8F87-E58699709868}">
+  <dimension ref="A1:AH12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2" s="7">
+        <v>173354</v>
+      </c>
+      <c r="D2" s="7">
+        <v>165221</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>16</v>
+      </c>
+      <c r="J2" s="7">
+        <v>20</v>
+      </c>
+      <c r="K2" s="7">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L2" s="8">
+        <v>23469</v>
+      </c>
+      <c r="M2" s="7">
+        <v>11206510</v>
+      </c>
+      <c r="N2" s="7">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R2" s="7">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S2" s="7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2" s="7">
+        <v>90212.69</v>
+      </c>
+      <c r="U2" s="7">
+        <v>91027.26</v>
+      </c>
+      <c r="V2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W2" s="8">
+        <v>216416.94</v>
+      </c>
+      <c r="X2" s="8">
+        <v>15398.93</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>552026.61</v>
+      </c>
+      <c r="Z2" s="8">
+        <v>224785.97</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>216349.55</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="8">
+        <v>28320.49</v>
+      </c>
+      <c r="AH2" s="8">
+        <v>17516361.43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3" s="7">
+        <v>173354</v>
+      </c>
+      <c r="D3" s="7">
+        <v>165221</v>
+      </c>
+      <c r="E3" s="9">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>16</v>
+      </c>
+      <c r="J3" s="7">
+        <v>20</v>
+      </c>
+      <c r="K3" s="7">
+        <v>231.21000000000004</v>
+      </c>
+      <c r="L3" s="8">
+        <v>23469</v>
+      </c>
+      <c r="M3" s="7">
+        <v>11206510</v>
+      </c>
+      <c r="N3" s="7">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="R3" s="7">
+        <v>3608.5075999999999</v>
+      </c>
+      <c r="S3" s="7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3" s="7">
+        <v>90212.69</v>
+      </c>
+      <c r="U3" s="7">
+        <v>91027.26</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W3" s="8">
+        <v>216416.94</v>
+      </c>
+      <c r="X3" s="8">
+        <v>15398.93</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>552026.61</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>224785.97</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1305558.4099999999</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>216349.55</v>
+      </c>
+      <c r="AC3" s="8">
+        <v>1541090.96</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>28489.97</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>17520220.23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4" s="7">
+        <v>173354</v>
+      </c>
+      <c r="D4" s="7">
+        <v>165221</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>39</v>
+      </c>
+      <c r="J4" s="7">
+        <v>66</v>
+      </c>
+      <c r="K4" s="7">
+        <v>886.40500000000009</v>
+      </c>
+      <c r="L4" s="8">
+        <v>65302</v>
+      </c>
+      <c r="M4" s="7">
+        <v>11206569</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1556</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="R4" s="7">
+        <v>3608.5495999999998</v>
+      </c>
+      <c r="S4" s="7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4" s="7">
+        <v>90213.74</v>
+      </c>
+      <c r="U4" s="7">
+        <v>91027.26</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W4" s="8">
+        <v>515339.53</v>
+      </c>
+      <c r="X4" s="8">
+        <v>43864.95</v>
+      </c>
+      <c r="Y4" s="8">
+        <v>892777.86</v>
+      </c>
+      <c r="Z4" s="8">
+        <v>539794.47</v>
+      </c>
+      <c r="AA4" s="8">
+        <v>1305565.3400000001</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>214429.32</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>1539177.66</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>-332928.38</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>17672486.899999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5" s="7">
+        <v>173354</v>
+      </c>
+      <c r="D5" s="7">
+        <v>165221</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>32</v>
+      </c>
+      <c r="J5" s="7">
+        <v>76</v>
+      </c>
+      <c r="K5" s="7">
+        <v>933.14200000000005</v>
+      </c>
+      <c r="L5" s="8">
+        <v>63404</v>
+      </c>
+      <c r="M5" s="7">
+        <v>11206572</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1639</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="R5" s="7">
+        <v>3608.5551999999998</v>
+      </c>
+      <c r="S5" s="7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5" s="7">
+        <v>90213.88</v>
+      </c>
+      <c r="U5" s="7">
+        <v>91027.26</v>
+      </c>
+      <c r="V5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W5" s="8">
+        <v>569059.86</v>
+      </c>
+      <c r="X5" s="8">
+        <v>43874.36</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>944603.13</v>
+      </c>
+      <c r="Z5" s="8">
+        <v>594272.34</v>
+      </c>
+      <c r="AA5" s="8">
+        <v>1305565.5900000001</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>214367.95</v>
+      </c>
+      <c r="AC5" s="8">
+        <v>1539116.54</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="8">
+        <v>-335806.03</v>
+      </c>
+      <c r="AH5" s="8">
+        <v>17748957.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6" s="7">
+        <v>173354</v>
+      </c>
+      <c r="D6" s="7">
+        <v>165221</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>159</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2566</v>
+      </c>
+      <c r="K6" s="7">
+        <v>41877.048999999999</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1312520</v>
+      </c>
+      <c r="M6" s="7">
+        <v>11210406</v>
+      </c>
+      <c r="N6" s="7">
+        <v>1096</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="R6" s="7">
+        <v>3613.6203999999998</v>
+      </c>
+      <c r="S6" s="7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6" s="7">
+        <v>90340.51</v>
+      </c>
+      <c r="U6" s="7">
+        <v>91027.26</v>
+      </c>
+      <c r="V6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="W6" s="8">
+        <v>216416.94</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1016200.9</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>1841075.61</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>861875.52</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1306012.28</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>199855.16</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>1525050.44</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>-752491.06</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>18087788.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -18405,14 +20623,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4A68D4-D50D-4613-975C-7EA314649575}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F129C13-B39C-4670-AFF6-2F5115340D6B}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18480,7 +20698,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -18548,7 +20766,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -18616,7 +20834,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -18684,7 +20902,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -18752,7 +20970,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -18820,7 +21038,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -18888,7 +21106,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -18956,7 +21174,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -19024,7 +21242,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -19092,7 +21310,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -19166,7 +21384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D2B5763-1EAC-4CC2-A8DB-39FC8D3FAF8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB05FF9-5AFA-4EAB-88DC-F4F06C4954FA}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -19178,75 +21396,75 @@
     <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="60" dyDescent="0.25" s="2" customFormat="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s" s="2">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s" s="2">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s" s="2">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s" s="2">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s" s="2">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="2">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s" s="2">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s" s="2">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -19314,7 +21532,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -19382,7 +21600,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -19450,7 +21668,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -19518,7 +21736,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -19586,7 +21804,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -19654,7 +21872,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -19722,7 +21940,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -19790,7 +22008,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -19858,7 +22076,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -19926,10 +22144,10 @@
         <v>6628685.9699999997</v>
       </c>
     </row>
-    <row r="12" spans="1:22" dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -19940,14 +22158,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2517E698-4052-4BBF-B2EC-611A6253EEFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2E18E0-0705-47D9-B99B-840FF49A6DCA}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20039,7 +22257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -20131,7 +22349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -20223,7 +22441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -20315,7 +22533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -20407,7 +22625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -20505,7 +22723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD02505-8A27-4AE6-B5A5-E5352748F288}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6509DAFF-243B-4D6E-9674-A63516B78831}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
@@ -20517,7 +22735,7 @@
     <col min="28" max="28" width="10.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20599,7 +22817,7 @@
       <c r="AA1" t="s">
         <v>18</v>
       </c>
-      <c r="AB1" t="s" s="5">
+      <c r="AB1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="AC1" t="s">
@@ -20609,7 +22827,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -20701,7 +22919,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -20793,7 +23011,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="4" spans="1:30" dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -20885,7 +23103,7 @@
         <v>8569721.6500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:30" dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -20977,7 +23195,7 @@
         <v>11319914.380000001</v>
       </c>
     </row>
-    <row r="6" spans="1:30" dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -21075,7 +23293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F348E83B-38C4-4152-87F4-903294624C9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71FB0F3-2930-45C5-9EA0-BF6AD27854F0}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21087,7 +23305,7 @@
     <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21155,7 +23373,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -21223,7 +23441,7 @@
         <v>6136332.8399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -21291,7 +23509,7 @@
         <v>6394248.5499999998</v>
       </c>
     </row>
-    <row r="4" spans="1:22" dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -21359,7 +23577,7 @@
         <v>6531112.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:22" dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -21427,7 +23645,7 @@
         <v>6732116.8099999996</v>
       </c>
     </row>
-    <row r="6" spans="1:22" dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -21495,7 +23713,7 @@
         <v>6933297.8200000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -21563,7 +23781,7 @@
         <v>7134587.9800000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -21631,7 +23849,7 @@
         <v>7698932.6399999997</v>
       </c>
     </row>
-    <row r="9" spans="1:22" dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -21699,7 +23917,7 @@
         <v>8423445.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -21767,7 +23985,7 @@
         <v>9202458.9600000009</v>
       </c>
     </row>
-    <row r="11" spans="1:22" dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>

--- a/Cook County Project-C2C/results/Cook_County_results.xlsx
+++ b/Cook County Project-C2C/results/Cook_County_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbernal\Documents\GitHub\REopt_related_code\Cook County Project-C2C\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB553CF-A27F-4FF5-94F3-7D3B86CD577D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001CAB61-3107-4E30-8C94-D36F80D73B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="40" activeTab="45" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="42" activeTab="46" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,6 +59,7 @@
     <sheet name="CermakA_21" sheetId="44" r:id="rId44"/>
     <sheet name="MarkhamA_7" sheetId="45" r:id="rId45"/>
     <sheet name="ProvdientA_16" sheetId="46" r:id="rId46"/>
+    <sheet name="ProvdientA_18" sheetId="48" r:id="rId47"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1628" uniqueCount="83">
   <si>
     <t>City</t>
   </si>
@@ -329,7 +330,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -370,7 +371,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -381,8 +382,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -665,26 +665,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E029ECE-79B5-41A9-A69E-98F644945F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C152913-CEF7-4791-B0AD-BD8965C813CD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4235F51-86F0-4FF6-A095-F8EBA1B60257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC70B5F9-A151-44FD-8220-D56F3DD75B29}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -776,7 +776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -868,7 +868,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -960,7 +960,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1058,14 +1058,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A39F35-9C3F-4850-A9E7-9E9480F7C392}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026C17E9-3276-4AA6-89D5-5FB62F7C74FF}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1439,14 +1439,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA8CCAD-56CF-477B-88DA-32E19846EA47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E9D67F-4B70-42DF-B8A2-AF7F8A2C4B1F}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1820,34 +1820,34 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62427E0E-C687-4DEB-B54C-EB529DB8F1BB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBE7C9E-741F-4544-852D-ECA1397B0323}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>7270693.1299999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2226,32 +2226,32 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BD867E0-E539-4AA5-811C-93D1348D6149}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D106F585-18A9-4B28-9A63-9B4177C1E732}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>6233671.2000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>6420739.9800000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>7152790.2599999998</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2630,33 +2630,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47C803C1-5132-4259-BDFA-4AF3590D42CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D82DFD4-1908-4A05-8AFA-B2970BB5433A}">
   <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>17442687.25</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -2932,7 +2932,7 @@
         <v>19579566.420000002</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>21759024.399999999</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -3035,14 +3035,14 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83ABB588-9B21-419B-81A5-3A288B8EF6D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{179C6039-219F-4E15-99E6-42828A752F2A}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3318,7 +3318,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3416,14 +3416,14 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977908FA-30AE-4137-86EC-2623BE0FD2CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ACBD16-350B-4D4D-9855-1242D1F6BF0B}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>6877347.7800000003</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3797,14 +3797,14 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC530C89-962B-4392-B376-816A06D206CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6665371-1D8D-463E-8CB8-94B05ED19BF8}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3896,7 +3896,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>6233671.2000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>6420739.9800000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4178,31 +4178,31 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90CA2A52-654B-455F-8965-94B51DAA3B28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADD2037-C645-49B1-A397-618DFC13CD38}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4576,28 +4576,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC26B3E7-045A-4287-A837-8D492AC3F44E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1054A8BF-6A7A-41FF-AEB4-A86A09F52FBF}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="T2" sqref="T2:T11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4665,7 +4665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -4801,7 +4801,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -5005,7 +5005,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -5141,7 +5141,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5209,7 +5209,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -5277,7 +5277,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -5351,14 +5351,14 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F47B5954-1F6F-48CF-840B-E477B68A8512}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60B904C-C829-47B3-BAA7-50BF6D36BDD4}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5732,14 +5732,14 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA55DBA-11D8-49B7-9242-6649023FFFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E507D1-5ACF-4E7D-B782-2F40D9A8BBED}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>6529404.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>6957884.3399999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6113,20 +6113,20 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE26EECB-FD39-4772-B74B-64394ED430F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B372B35-8166-48FE-BB94-4F2CA92F464D}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2:AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="29" max="29" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6402,7 +6402,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6500,19 +6500,19 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{566DC402-6933-4A2F-B9F8-1469ABB4AF06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AAC75-36B4-43AD-B02C-AB06C158CD03}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6922,30 +6922,30 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0BED968-13D5-404B-97D1-4E3FC0903126}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03E79510-0D32-4B9C-B85F-F5E61BD550D1}">
   <dimension ref="A1:AD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7037,7 +7037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>6691400.0899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7221,7 +7221,7 @@
         <v>6773209.0899999999</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7319,16 +7319,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1058CC-1685-4ED5-8738-891ACFEBA9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3816A94-FD07-4658-BDDD-FD79BBF66ABD}">
   <dimension ref="A1:AG4"/>
   <sheetViews>
     <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7530,7 +7530,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7738,16 +7738,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{962F6B17-038E-489D-BE7B-FEA633EAF581}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B90EA06C-406E-4B58-B5DC-E94053E133B4}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -7955,7 +7955,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8169,16 +8169,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC98C6C-4C86-4DEB-A90E-B0628EC59CAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B913BD2-0C53-4A8B-B537-289FD506EC48}">
   <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8368,7 +8368,7 @@
         <v>6691400.0899999999</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8463,7 +8463,7 @@
         <v>6765433</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>6982397.9199999999</v>
       </c>
     </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:7" x14ac:dyDescent="0.3">
       <c r="G18">
         <v>1486</v>
       </c>
@@ -8569,16 +8569,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB05C91-55EC-45C2-B52A-81A9AD1E4564}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6C27BC-1874-4E6F-9E11-06FD2107261C}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8682,7 +8682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -8786,7 +8786,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9000,14 +9000,14 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DFFD198-3758-4B3F-BF4F-4EAFE5A005F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF81F6DC-FF66-4921-B274-F0E43A8C4CD4}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9111,7 +9111,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9215,7 +9215,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9429,14 +9429,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41963CC2-DD4C-433C-B142-DABC31A5D9C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B43653EA-E907-4F77-9633-DDD682228F78}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9504,7 +9504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9708,7 +9708,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -9844,7 +9844,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -10048,7 +10048,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -10190,16 +10190,16 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBBD5BDA-F784-4715-883E-59FDCF97F847}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF1B43D-0040-405B-AD5F-099AAEE6A934}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -10389,7 +10389,7 @@
         <v>6148985.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -10484,7 +10484,7 @@
         <v>6496970.79</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -10585,14 +10585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25CEAAB-D6D7-4250-89E8-4C2EE5FF283F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05D91CB8-616B-4658-987C-E088A119A559}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>6128591.6200000001</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -10904,7 +10904,7 @@
         <v>6138763.6900000004</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11014,14 +11014,14 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8F5F68-E807-4D34-8649-EF45FC6CCE2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493D0458-9AE4-4FB9-897C-FAE464C208BB}">
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11211,7 +11211,7 @@
         <v>6148985.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11306,7 +11306,7 @@
         <v>6496970.79</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11407,14 +11407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{727B0522-2E57-43C4-B8EF-20D4D2928301}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310A2AEB-CA9C-49E7-B1BF-7C80234DEC51}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -11622,7 +11622,7 @@
         <v>15703993.52</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>15757096.460000001</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -11836,14 +11836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DFA0DBC-A752-4B2F-8D42-760A9CCF83F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E08B15-4532-41C5-BB10-6B5CA7277C50}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11947,7 +11947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>6901990.3200000003</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -12155,7 +12155,7 @@
         <v>6902994.04</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12259,7 +12259,7 @@
         <v>6903879.2199999997</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>6830597.6200000001</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -12467,7 +12467,7 @@
         <v>6831099.4800000004</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -12577,14 +12577,14 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F49E150E-0DE8-4499-9B88-AE93D53C4105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03DAAF9A-6E6A-4070-AA72-ECDC8516C91E}">
   <dimension ref="A1:AE7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>7671723.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>8980296.8599999994</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>10088807.140000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -13059,7 +13059,7 @@
         <v>6915911.4100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13154,7 +13154,7 @@
         <v>7276211.2699999996</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -13255,14 +13255,14 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9587E125-E244-498C-A364-58E8E8A3C271}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F0AD28-8588-469C-9628-06C3293FC44B}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13366,7 +13366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -13470,7 +13470,7 @@
         <v>17513321.760000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>17517103.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>17691615.289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>17714907.149999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -13892,20 +13892,20 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7401C0C-1D7C-418B-8B26-F82ED28100CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F081017F-2A90-4DBB-B505-AF2D7D58A97D}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14009,7 +14009,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -14113,7 +14113,7 @@
         <v>17513321.760000002</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>17517103.289999999</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -14321,7 +14321,7 @@
         <v>17691615.289999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -14425,7 +14425,7 @@
         <v>17714907.149999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -14535,16 +14535,16 @@
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CE207F-2653-44A9-A73D-38B0FE9D1438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE10687F-12A5-4082-85E1-2FC22C350043}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14648,7 +14648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -14752,7 +14752,7 @@
         <v>17519583.649999999</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -14862,16 +14862,16 @@
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B94799E-B355-4233-97B3-D1067B899F5E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BE6308-6872-47FE-AB3B-2525357FD6B2}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -15079,7 +15079,7 @@
         <v>17470945.239999998</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -15189,16 +15189,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4061AF54-32BA-4424-87B6-36ABCEAEF9ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC54B7-8ACF-43EB-A5D1-CD34612C4E9A}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>6066885.0999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>6302123.3499999996</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>6730545.3099999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -15538,7 +15538,7 @@
         <v>7208110.2800000003</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>7707651.0199999996</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>8218469.9199999999</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -15742,7 +15742,7 @@
         <v>8737502.1999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -15810,7 +15810,7 @@
         <v>9264134.0899999999</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>9797407.0999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -15952,16 +15952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52DE32D3-9D05-4AA4-AB1C-35D1938D14C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04DCF2DD-4113-42CA-8A17-F65CC1A1C9E3}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -16169,7 +16169,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -16273,7 +16273,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>17672486.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -16481,7 +16481,7 @@
         <v>17748957.43</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -16591,21 +16591,21 @@
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27EC8DFA-5887-487D-8762-30BA6BCFCCE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA5FE74-6BEF-4367-99E8-A2DCA487519E}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -16813,7 +16813,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -16917,7 +16917,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>17672486.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17125,7 +17125,7 @@
         <v>17748957.43</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17235,21 +17235,21 @@
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B1075F0-C9C2-4B26-A410-AA751C2C3884}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4F2D20-4407-4357-93EC-EC064C68B93E}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2:AH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17353,7 +17353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -17561,7 +17561,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -17665,7 +17665,7 @@
         <v>17728419.460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -17769,7 +17769,7 @@
         <v>17804360.469999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -17879,16 +17879,16 @@
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74DA339B-7641-49F3-83A4-DEAED377A1DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1871D6E-A534-43EE-817C-B5F13D215C19}">
   <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -17992,7 +17992,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -18096,7 +18096,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>17728419.460000001</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -18408,7 +18408,7 @@
         <v>17804360.469999999</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -18518,29 +18518,29 @@
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09A0C2A6-B675-4719-B19F-29F09E9981F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6C65215-78E1-47F3-B2E3-CA2191B4E05A}">
   <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="16" max="16" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -18748,7 +18748,7 @@
         <v>6902010.3099999996</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>6903014.0300000003</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>6903899.21</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>7015658.4000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>7087616.8799999999</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -19274,25 +19274,25 @@
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC2E0660-00B0-4779-AE86-B649D8DF0A97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7D763B1-C8F5-4392-9589-B6D5AB277CE1}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -19482,7 +19482,7 @@
         <v>7671723.2199999997</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -19577,7 +19577,7 @@
         <v>8980296.8599999994</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>10088807.140000001</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -19767,7 +19767,7 @@
         <v>6915911.4100000001</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -19862,7 +19862,7 @@
         <v>7276211.2699999996</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -19957,7 +19957,7 @@
         <v>7751951.5999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="S10" t="s">
         <v>48</v>
       </c>
@@ -19968,27 +19968,27 @@
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCF002F-B261-43D1-8F87-E58699709868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CEF16D-872F-4457-BFF3-DC1AD085D76E}">
   <dimension ref="A1:AH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="12" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20092,7 +20092,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -20105,7 +20105,7 @@
       <c r="D2" s="7">
         <v>165221</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2">
@@ -20196,7 +20196,7 @@
         <v>17516361.43</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -20209,7 +20209,7 @@
       <c r="D3" s="7">
         <v>165221</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
       <c r="F3">
@@ -20300,7 +20300,7 @@
         <v>17520220.23</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -20313,7 +20313,7 @@
       <c r="D4" s="7">
         <v>165221</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="1">
         <v>0</v>
       </c>
       <c r="F4">
@@ -20404,7 +20404,7 @@
         <v>17672486.899999999</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -20417,7 +20417,7 @@
       <c r="D5" s="7">
         <v>165221</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="1">
         <v>0</v>
       </c>
       <c r="F5">
@@ -20508,7 +20508,7 @@
         <v>17748957.43</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -20521,7 +20521,7 @@
       <c r="D6" s="7">
         <v>165221</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6">
@@ -20612,9 +20612,757 @@
         <v>18087788.5</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="T12" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D5BD03-8411-4B2C-9E3F-BC3E06983836}">
+  <dimension ref="A1:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>131</v>
+      </c>
+      <c r="C2">
+        <v>173354</v>
+      </c>
+      <c r="D2">
+        <v>165221</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>145.352</v>
+      </c>
+      <c r="L2" s="8">
+        <v>15279</v>
+      </c>
+      <c r="M2">
+        <v>11206503</v>
+      </c>
+      <c r="N2">
+        <v>2192</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>3608.5056</v>
+      </c>
+      <c r="R2">
+        <v>3608.5056</v>
+      </c>
+      <c r="S2">
+        <v>3641.0904</v>
+      </c>
+      <c r="T2">
+        <v>90212.64</v>
+      </c>
+      <c r="U2">
+        <v>91027.26</v>
+      </c>
+      <c r="V2">
+        <v>0.01</v>
+      </c>
+      <c r="W2">
+        <v>216416.94</v>
+      </c>
+      <c r="X2">
+        <v>10022.34</v>
+      </c>
+      <c r="Y2">
+        <v>543831.26</v>
+      </c>
+      <c r="Z2">
+        <v>221863.89</v>
+      </c>
+      <c r="AA2">
+        <v>1261852.19</v>
+      </c>
+      <c r="AB2">
+        <v>203360.84</v>
+      </c>
+      <c r="AC2">
+        <v>1491610.03</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>165220.37</v>
+      </c>
+      <c r="AF2">
+        <v>0.01</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>16589.61</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>16973208.219999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>131</v>
+      </c>
+      <c r="C3">
+        <v>173354</v>
+      </c>
+      <c r="D3">
+        <v>165221</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>145.352</v>
+      </c>
+      <c r="L3" s="8">
+        <v>15279</v>
+      </c>
+      <c r="M3">
+        <v>11206503</v>
+      </c>
+      <c r="N3">
+        <v>2192</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>3608.5056</v>
+      </c>
+      <c r="R3">
+        <v>3608.5056</v>
+      </c>
+      <c r="S3">
+        <v>3641.0904</v>
+      </c>
+      <c r="T3">
+        <v>90212.64</v>
+      </c>
+      <c r="U3">
+        <v>91027.26</v>
+      </c>
+      <c r="V3">
+        <v>0.01</v>
+      </c>
+      <c r="W3">
+        <v>216416.94</v>
+      </c>
+      <c r="X3">
+        <v>10022.34</v>
+      </c>
+      <c r="Y3">
+        <v>543831.26</v>
+      </c>
+      <c r="Z3">
+        <v>221863.89</v>
+      </c>
+      <c r="AA3">
+        <v>1261852.19</v>
+      </c>
+      <c r="AB3">
+        <v>203360.84</v>
+      </c>
+      <c r="AC3">
+        <v>1491610.03</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>165220.37</v>
+      </c>
+      <c r="AF3">
+        <v>0.01</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>16737.68</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>16976579.699999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>131</v>
+      </c>
+      <c r="C4">
+        <v>173354</v>
+      </c>
+      <c r="D4">
+        <v>165221</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4">
+        <v>13</v>
+      </c>
+      <c r="K4">
+        <v>145.352</v>
+      </c>
+      <c r="L4" s="8">
+        <v>15279</v>
+      </c>
+      <c r="M4">
+        <v>11206503</v>
+      </c>
+      <c r="N4">
+        <v>2192</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>3608.5056</v>
+      </c>
+      <c r="R4">
+        <v>3608.5056</v>
+      </c>
+      <c r="S4">
+        <v>3641.0904</v>
+      </c>
+      <c r="T4">
+        <v>90212.64</v>
+      </c>
+      <c r="U4">
+        <v>91027.26</v>
+      </c>
+      <c r="V4">
+        <v>0.01</v>
+      </c>
+      <c r="W4">
+        <v>216416.94</v>
+      </c>
+      <c r="X4">
+        <v>10022.34</v>
+      </c>
+      <c r="Y4">
+        <v>543831.26</v>
+      </c>
+      <c r="Z4">
+        <v>221863.89</v>
+      </c>
+      <c r="AA4">
+        <v>1261852.19</v>
+      </c>
+      <c r="AB4">
+        <v>203360.84</v>
+      </c>
+      <c r="AC4">
+        <v>1491610.03</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>165220.37</v>
+      </c>
+      <c r="AF4">
+        <v>0.01</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>16761.29</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>16977382.350000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>131</v>
+      </c>
+      <c r="C5">
+        <v>173354</v>
+      </c>
+      <c r="D5">
+        <v>165221</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>65</v>
+      </c>
+      <c r="K5">
+        <v>866.34300000000007</v>
+      </c>
+      <c r="L5" s="8">
+        <v>64551</v>
+      </c>
+      <c r="M5">
+        <v>11206568</v>
+      </c>
+      <c r="N5">
+        <v>1556</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>3608.5475999999999</v>
+      </c>
+      <c r="R5">
+        <v>3608.5475999999999</v>
+      </c>
+      <c r="S5">
+        <v>3641.0904</v>
+      </c>
+      <c r="T5">
+        <v>90213.69</v>
+      </c>
+      <c r="U5">
+        <v>91027.26</v>
+      </c>
+      <c r="V5">
+        <v>0.01</v>
+      </c>
+      <c r="W5">
+        <v>515444.57</v>
+      </c>
+      <c r="X5">
+        <v>43298.22</v>
+      </c>
+      <c r="Y5">
+        <v>892131.05</v>
+      </c>
+      <c r="Z5">
+        <v>539547.36</v>
+      </c>
+      <c r="AA5">
+        <v>1261859.51</v>
+      </c>
+      <c r="AB5">
+        <v>201118.71</v>
+      </c>
+      <c r="AC5">
+        <v>1489375.22</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>165220.37</v>
+      </c>
+      <c r="AF5">
+        <v>0.01</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>-345983.05</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>17130798.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>131</v>
+      </c>
+      <c r="C6">
+        <v>173354</v>
+      </c>
+      <c r="D6">
+        <v>165221</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>27</v>
+      </c>
+      <c r="J6">
+        <v>59</v>
+      </c>
+      <c r="K6">
+        <v>683.97</v>
+      </c>
+      <c r="L6" s="8">
+        <v>51056</v>
+      </c>
+      <c r="M6">
+        <v>11206549</v>
+      </c>
+      <c r="N6">
+        <v>1642</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>3608.5320000000002</v>
+      </c>
+      <c r="R6">
+        <v>3608.5320000000002</v>
+      </c>
+      <c r="S6">
+        <v>3641.0904</v>
+      </c>
+      <c r="T6">
+        <v>90213.3</v>
+      </c>
+      <c r="U6">
+        <v>91027.26</v>
+      </c>
+      <c r="V6">
+        <v>0.01</v>
+      </c>
+      <c r="W6">
+        <v>571206.56999999995</v>
+      </c>
+      <c r="X6">
+        <v>35056.5</v>
+      </c>
+      <c r="Y6">
+        <v>934400.78</v>
+      </c>
+      <c r="Z6">
+        <v>591196.51</v>
+      </c>
+      <c r="AA6">
+        <v>1261857.4099999999</v>
+      </c>
+      <c r="AB6">
+        <v>201547.04</v>
+      </c>
+      <c r="AC6">
+        <v>1489801.45</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>165220.37</v>
+      </c>
+      <c r="AF6">
+        <v>0.01</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-348531.21</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>17206611.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>131</v>
+      </c>
+      <c r="C7">
+        <v>173354</v>
+      </c>
+      <c r="D7">
+        <v>165221</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>27</v>
+      </c>
+      <c r="J7">
+        <v>59</v>
+      </c>
+      <c r="K7">
+        <v>683.97</v>
+      </c>
+      <c r="L7" s="8">
+        <v>51056</v>
+      </c>
+      <c r="M7">
+        <v>11206549</v>
+      </c>
+      <c r="N7">
+        <v>1209</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>3608.5320000000002</v>
+      </c>
+      <c r="R7">
+        <v>3608.5320000000002</v>
+      </c>
+      <c r="S7">
+        <v>3641.0904</v>
+      </c>
+      <c r="T7">
+        <v>90213.3</v>
+      </c>
+      <c r="U7">
+        <v>91027.26</v>
+      </c>
+      <c r="V7">
+        <v>0.01</v>
+      </c>
+      <c r="W7">
+        <v>289629.65999999997</v>
+      </c>
+      <c r="X7">
+        <v>35056.5</v>
+      </c>
+      <c r="Y7">
+        <v>652823.87</v>
+      </c>
+      <c r="Z7">
+        <v>309619.59999999998</v>
+      </c>
+      <c r="AA7">
+        <v>1261857.4099999999</v>
+      </c>
+      <c r="AB7">
+        <v>201547.04</v>
+      </c>
+      <c r="AC7">
+        <v>1489801.45</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>165220.37</v>
+      </c>
+      <c r="AF7">
+        <v>0.01</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>-44810.32</v>
+      </c>
+      <c r="AH7" s="1">
+        <v>16823368.73</v>
       </c>
     </row>
   </sheetData>
@@ -20623,14 +21371,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F129C13-B39C-4670-AFF6-2F5115340D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E88BE3-AE96-44FE-A5B5-BE8D150497F9}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20698,7 +21446,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -20766,7 +21514,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -20834,7 +21582,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -20902,7 +21650,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -20970,7 +21718,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -21038,7 +21786,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -21106,7 +21854,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -21174,7 +21922,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -21242,7 +21990,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -21310,7 +22058,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -21384,19 +22132,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB05FF9-5AFA-4EAB-88DC-F4F06C4954FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{378658D7-F134-485F-B5F4-6B213265FCC6}">
   <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -21464,7 +22212,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -21532,7 +22280,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -21600,7 +22348,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -21668,7 +22416,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -21736,7 +22484,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -21804,7 +22552,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -21872,7 +22620,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -21940,7 +22688,7 @@
         <v>4411760.7300000004</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -22008,7 +22756,7 @@
         <v>4754481.9800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -22076,7 +22824,7 @@
         <v>5585958.5300000003</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -22144,10 +22892,10 @@
         <v>6628685.9699999997</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="U12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -22158,14 +22906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2E18E0-0705-47D9-B99B-840FF49A6DCA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED8B67F-C9B4-4E2A-9373-14CB33959BD1}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22257,7 +23005,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -22349,7 +23097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -22441,7 +23189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -22533,7 +23281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -22625,7 +23373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -22723,19 +23471,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6509DAFF-243B-4D6E-9674-A63516B78831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F7CB8D-B345-4EB8-B50B-5C5517B06CEC}">
   <dimension ref="A1:AD6"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="28" max="28" width="10.85546875" style="5"/>
+    <col min="28" max="28" width="10.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22827,7 +23575,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -22919,7 +23667,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -23011,7 +23759,7 @@
         <v>7861753.04</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -23103,7 +23851,7 @@
         <v>8569721.6500000004</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -23195,7 +23943,7 @@
         <v>11319914.380000001</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -23293,19 +24041,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71FB0F3-2930-45C5-9EA0-BF6AD27854F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCD0FFF-AC02-4D46-868C-1343A77D4272}">
   <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U2" sqref="U2:U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23373,7 +24121,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -23441,7 +24189,7 @@
         <v>6136332.8399999999</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -23509,7 +24257,7 @@
         <v>6394248.5499999998</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -23577,7 +24325,7 @@
         <v>6531112.8600000003</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -23645,7 +24393,7 @@
         <v>6732116.8099999996</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -23713,7 +24461,7 @@
         <v>6933297.8200000003</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -23781,7 +24529,7 @@
         <v>7134587.9800000004</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -23849,7 +24597,7 @@
         <v>7698932.6399999997</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -23917,7 +24665,7 @@
         <v>8423445.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -23985,7 +24733,7 @@
         <v>9202458.9600000009</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
